--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_02_Messprotokoll.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_02_Messprotokoll.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\Informatik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2FAD74-71A4-4E21-8A03-F06AA32CFFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6141B00A-C50E-4F45-937C-B60AA6FCCCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>y:</t>
   </si>
@@ -62,16 +62,10 @@
     <t>Weg s = v * t</t>
   </si>
   <si>
-    <t>Weg s [m]</t>
-  </si>
-  <si>
     <t>Zeit t [s]</t>
   </si>
   <si>
     <t>Messprotokoll:</t>
-  </si>
-  <si>
-    <t>Weg-Zeit</t>
   </si>
   <si>
     <t>Geschwindigkeit v [m/s] = s/t</t>
@@ -83,9 +77,6 @@
     <t>Weg s [m] gemessen</t>
   </si>
   <si>
-    <t>Weg s = v * t [m]</t>
-  </si>
-  <si>
     <t>Messprotokoll</t>
   </si>
   <si>
@@ -93,9 +84,6 @@
   </si>
   <si>
     <t>Geschwindigkeit v = s/t [m/s]</t>
-  </si>
-  <si>
-    <t>Weg s [m] gerechnet</t>
   </si>
   <si>
     <t>Weg s = v*t [m] gerechnet</t>
@@ -109,12 +97,269 @@
   <si>
     <t xml:space="preserve">y = m*x + b  </t>
   </si>
+  <si>
+    <t>Weg-Zeit (gemessen)</t>
+  </si>
+  <si>
+    <t>Weg s = v * t [m] (berechnet)</t>
+  </si>
+  <si>
+    <t>Lineare Funktion:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Steigung</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y-Achsenabschnitt (Bias)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">y = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * x + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <t>y = m * x + b =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x = </t>
+  </si>
+  <si>
+    <t>Step:</t>
+  </si>
+  <si>
+    <t>Lineare Funktion y= f(x)</t>
+  </si>
+  <si>
+    <t>Steigung:</t>
+  </si>
+  <si>
+    <t>y-Achsenabschnitt (Bias):</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">y = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * x + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">a = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">b = </t>
+  </si>
+  <si>
+    <t>y = ax + b</t>
+  </si>
+  <si>
+    <t>Step (inc):</t>
+  </si>
+  <si>
+    <t>Weg s = v * t [m] gerechnet</t>
+  </si>
+  <si>
+    <t>Lineare Funktion y = f(x)</t>
+  </si>
+  <si>
+    <t>m =</t>
+  </si>
+  <si>
+    <t>b =</t>
+  </si>
+  <si>
+    <t>Steigung</t>
+  </si>
+  <si>
+    <t>y-Achsenabschnitt (Bias)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">y = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">y = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+  </si>
+  <si>
+    <t>Weg s = v * t [m] berechnet</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,8 +374,88 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,8 +480,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -205,11 +536,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -222,6 +644,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -253,36 +706,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -298,16 +721,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Weg-Zeit</c:v>
+                  <c:v>Weg-Zeit (gemessen)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -373,6 +794,82 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-23A9-426D-BA22-847A84337B0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Messprotokoll_A!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weg s = v * t [m] (berechnet)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Messprotokoll_A!$C$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Messprotokoll_A!$C$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.022916666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.045833333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.068750000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.091666666666669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3D8-4127-8C61-1485D326D7A1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -579,7 +1076,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.0465714040043902E-2"/>
+          <c:y val="4.6025104602510462E-2"/>
+          <c:w val="0.90531900207224802"/>
+          <c:h val="0.85691101373834544"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -588,11 +1095,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Messprotokoll_B!$B$3</c:f>
+              <c:f>Messprotokoll_B!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Weg-Zeit Diagramm</c:v>
+                  <c:v>Weg s [m] gemessen</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -683,7 +1190,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -741,6 +1248,249 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E034-49E4-8CED-60D4545B8694}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Messprotokoll_B!$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y = ax + b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Messprotokoll_B!$J$17:$AO$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Messprotokoll_B!$J$18:$AO$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0176-4E7C-99EF-90C15DD1EECE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -947,7 +1697,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.2180246892397088E-2"/>
+          <c:y val="4.6790761661492049E-2"/>
+          <c:w val="0.89451002068398922"/>
+          <c:h val="0.83998370060396921"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -967,9 +1727,7 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1047,34 +1805,23 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Weg s [m] gerechnet</c:v>
+                  <c:v>Weg s = v * t [m] gerechnet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1122,6 +1869,124 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F82B-4AFD-88F7-FE269B252948}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Messprotokoll_C!$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y = m x + b = </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Messprotokoll_C!$J$17:$T$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Messprotokoll_C!$J$18:$T$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F8A-41C7-A42A-BD456AD9C5DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1326,36 +2191,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1378,9 +2213,7 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1446,6 +2279,82 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EF00-4A03-8635-F2FD59A6C0D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Messprotokoll_D!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weg s = v * t [m] berechnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Messprotokoll_D!$C$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Messprotokoll_D!$C$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.022916666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.045833333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.068750000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.091666666666669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-98B0-4490-A89B-18AEA382067C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3906,15 +4815,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>720724</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>739774</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>482599</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>501649</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3989,13 +4898,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4289,25 +5198,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFC3FD5-7454-487E-B548-6F210376BA54}">
-  <dimension ref="B3:I9"/>
+  <dimension ref="B3:AG25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="G16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="26.54296875" customWidth="1"/>
+    <col min="10" max="10" width="25.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -4324,7 +5234,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6">
         <v>10</v>
@@ -4341,7 +5251,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5">
         <f>C5/C4</f>
@@ -4360,7 +5270,7 @@
         <v>10.125</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I7">
         <f>AVERAGE(C7:F7)</f>
@@ -4369,7 +5279,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <f>$I$7*C4</f>
@@ -4388,18 +5298,151 @@
         <v>40.091666666666669</v>
       </c>
     </row>
+    <row r="17" spans="9:33" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="9:33" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="I18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="20" spans="9:33" x14ac:dyDescent="0.35">
+      <c r="J20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="9:33" x14ac:dyDescent="0.35">
+      <c r="J21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="9:33" x14ac:dyDescent="0.35">
+      <c r="K23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="9:33" x14ac:dyDescent="0.35">
+      <c r="K24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="2">
+        <v>-10</v>
+      </c>
+      <c r="M24">
+        <f>L24+$L$23</f>
+        <v>-8</v>
+      </c>
+      <c r="N24">
+        <f t="shared" ref="N24:AG24" si="2">M24+$L$23</f>
+        <v>-6</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="9:33" x14ac:dyDescent="0.35">
+      <c r="K25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96115A17-1A1D-465A-AB11-E83075F9A2A8}">
-  <dimension ref="B3:I8"/>
+  <dimension ref="B3:AO18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="D9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4408,14 +5451,14 @@
     <col min="8" max="8" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -4430,9 +5473,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6">
         <v>10</v>
@@ -4447,9 +5490,9 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5">
         <f>C5/C4</f>
@@ -4468,16 +5511,16 @@
         <v>10.125</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I7" s="5">
         <f>AVERAGE(C7:F7)</f>
         <v>10.022916666666667</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <f>$I$7*C4</f>
@@ -4496,34 +5539,352 @@
         <v>40.091666666666669</v>
       </c>
     </row>
+    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="2:14" ht="26" x14ac:dyDescent="0.6">
+      <c r="I11" s="14"/>
+      <c r="J11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="18"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="I12" s="19"/>
+      <c r="N12" s="20"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="I13" s="19"/>
+      <c r="J13" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="20"/>
+    </row>
+    <row r="14" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I14" s="22"/>
+      <c r="J14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="24">
+        <v>1</v>
+      </c>
+      <c r="M14" s="25"/>
+      <c r="N14" s="26"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="I16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="9:41" x14ac:dyDescent="0.35">
+      <c r="I17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f>$J$16+J17</f>
+        <v>0.5</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:AO17" si="2">$J$16+K17</f>
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="2"/>
+        <v>10.5</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="2"/>
+        <v>11.5</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="2"/>
+        <v>13.5</v>
+      </c>
+      <c r="AL17">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="AM17">
+        <f t="shared" si="2"/>
+        <v>14.5</v>
+      </c>
+      <c r="AN17">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="2"/>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="18" spans="9:41" x14ac:dyDescent="0.35">
+      <c r="I18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18">
+        <f>$L$13*J17+$L$14</f>
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18:AO18" si="3">$L$13*K17+$L$14</f>
+        <v>1.5</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="3"/>
+        <v>6.5</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="3"/>
+        <v>8.5</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="3"/>
+        <v>9.5</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="3"/>
+        <v>10.5</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="3"/>
+        <v>11.5</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="3"/>
+        <v>12.5</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="3"/>
+        <v>13.5</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="3"/>
+        <v>14.5</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="3"/>
+        <v>15.5</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="3"/>
+        <v>16.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E94CB8-F6FD-4B8D-BDC9-63BA534F6C1E}">
-  <dimension ref="B3:I9"/>
+  <dimension ref="B3:T18"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="F8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="26.08984375" customWidth="1"/>
-    <col min="8" max="8" width="26.6328125" customWidth="1"/>
+    <col min="8" max="8" width="37.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -4538,9 +5899,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6">
         <v>10</v>
@@ -4555,9 +5916,9 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" s="8">
         <f>C5/C4</f>
@@ -4576,16 +5937,16 @@
         <v>10.125</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I7" s="8">
         <f>AVERAGE(C7:F7)</f>
         <v>10.022916666666667</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C9" s="9">
         <f>$I$7*C4</f>
@@ -4604,7 +5965,151 @@
         <v>40.091666666666669</v>
       </c>
     </row>
+    <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="H11" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="32"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H12" s="19"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H13" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H14" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f>J17+$J$16</f>
+        <v>0.5</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:T17" si="2">K17+$J$16</f>
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18">
+        <f>$J$13*J17+$J$14</f>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18:T18" si="3">$J$13*K17+$J$14</f>
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I11:J11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4612,25 +6117,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C99E67E-EA12-467E-9855-B234E3965E93}">
-  <dimension ref="B2:W13"/>
+  <dimension ref="B2:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F7" sqref="C7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="27.26953125" customWidth="1"/>
     <col min="8" max="8" width="22.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -4647,7 +6153,7 @@
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6">
         <v>10</v>
@@ -4692,125 +6198,146 @@
         <v>10.022916666666667</v>
       </c>
     </row>
-    <row r="8" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="2:23" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9" s="4" t="s">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <f>$H$6*C3</f>
+        <v>10.022916666666667</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:F7" si="0">$H$6*D3</f>
+        <v>20.045833333333334</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>30.068750000000001</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>40.091666666666669</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="2:23" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="H13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="H14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-10</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:W16" si="1">C16+$C$15</f>
+        <v>-8</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="H9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="2">
-        <v>10</v>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="H10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>-10</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ref="D12:W12" si="0">C12+$C$11</f>
-        <v>-8</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>-6</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_02_Messprotokoll.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_02_Messprotokoll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\Informatik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6141B00A-C50E-4F45-937C-B60AA6FCCCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC96B7F-9766-47B1-A467-5A66DDE810E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Messprotokoll_A" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>y:</t>
   </si>
@@ -187,9 +187,6 @@
       </rPr>
       <t>b</t>
     </r>
-  </si>
-  <si>
-    <t>y = m * x + b =</t>
   </si>
   <si>
     <t xml:space="preserve">x = </t>
@@ -354,12 +351,308 @@
   <si>
     <t>Weg s = v * t [m] berechnet</t>
   </si>
+  <si>
+    <t xml:space="preserve">y = m * x + b = </t>
+  </si>
+  <si>
+    <t>t [h]</t>
+  </si>
+  <si>
+    <r>
+      <t>Fz_1: s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * t  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [km/h]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [km/h]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fz_2: s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * t + s0  </t>
+    </r>
+  </si>
+  <si>
+    <t>s0 [km]</t>
+  </si>
+  <si>
+    <r>
+      <t>Fz_2: s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * t + s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [km]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fz_1: s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * t      </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +747,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -487,7 +788,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -627,11 +928,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -673,8 +1077,26 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -870,6 +1292,189 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E3D8-4127-8C61-1485D326D7A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Messprotokoll_A!$K$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y = m * x + b = </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Messprotokoll_A!$L$24:$AG$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Messprotokoll_A!$L$25:$AG$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3CCD-46D3-AB09-14E700D0A02F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1076,6 +1681,567 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Messprotokoll_A!$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fz_1: s1 = v1 * t  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Messprotokoll_A!$E$41:$Y$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Messprotokoll_A!$E$42:$Y$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59.500000000000014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>63.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66.500000000000014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>70.000000000000014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F747-490C-B5D1-33AFB83401E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Messprotokoll_A!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fz_2: s2 = v2 * t + s0  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Messprotokoll_A!$E$41:$Y$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Messprotokoll_A!$E$44:$Y$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.9999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.9999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.9999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.9999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9999999999999858</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F747-490C-B5D1-33AFB83401E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1515482511"/>
+        <c:axId val="1515505071"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1515482511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1515505071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1515505071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1515482511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
@@ -1389,100 +2555,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5</c:v>
+                  <c:v>-2.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5</c:v>
+                  <c:v>-7.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.5</c:v>
+                  <c:v>-12.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.5</c:v>
+                  <c:v>-17.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.5</c:v>
+                  <c:v>-22.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8</c:v>
+                  <c:v>-25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.5</c:v>
+                  <c:v>-27.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.5</c:v>
+                  <c:v>-32.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10</c:v>
+                  <c:v>-35</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.5</c:v>
+                  <c:v>-37.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11</c:v>
+                  <c:v>-40</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11.5</c:v>
+                  <c:v>-42.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12</c:v>
+                  <c:v>-45</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12.5</c:v>
+                  <c:v>-47.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>13</c:v>
+                  <c:v>-50</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>13.5</c:v>
+                  <c:v>-52.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>14</c:v>
+                  <c:v>-55</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>14.5</c:v>
+                  <c:v>-57.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>15</c:v>
+                  <c:v>-60</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15.5</c:v>
+                  <c:v>-62.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16</c:v>
+                  <c:v>-65</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>16.5</c:v>
+                  <c:v>-67.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1681,7 +2847,568 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Messprotokoll_B!$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fz_1: s1 = v1 * t  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Messprotokoll_B!$E$41:$Y$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Messprotokoll_B!$E$42:$Y$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59.500000000000014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>63.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66.500000000000014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>70.000000000000014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A34-42EA-895E-E3188ED26C61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Messprotokoll_B!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fz_2: s2 = v2 * t + s0  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Messprotokoll_B!$E$41:$Y$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Messprotokoll_B!$E$44:$Y$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>63.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59.999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2A34-42EA-895E-E3188ED26C61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1515482511"/>
+        <c:axId val="1515505071"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1515482511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1515505071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1515505071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1515482511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1948,37 +3675,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35</c:v>
+                  <c:v>-25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>-35</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50</c:v>
+                  <c:v>-40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2177,7 +3904,568 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Messprotokoll_C!$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fz_1: s1 = v1 * t  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Messprotokoll_C!$E$41:$Y$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Messprotokoll_C!$E$42:$Y$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59.500000000000014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>63.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66.500000000000014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>70.000000000000014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9831-4F9E-8210-5089198A95F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Messprotokoll_C!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fz_2: s2 = v2 * t + s20  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Messprotokoll_C!$E$41:$Y$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Messprotokoll_C!$E$44:$Y$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.9999999999999716</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.9999999999999716</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9831-4F9E-8210-5089198A95F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1521507631"/>
+        <c:axId val="1521493231"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1521507631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1521493231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1521493231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1521507631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2355,6 +4643,185 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-98B0-4490-A89B-18AEA382067C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Messprotokoll_D!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y = m*x + b  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Messprotokoll_D!$C$16:$W$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5999999999999992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.4999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.6999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.9999999999999982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Messprotokoll_D!$C$17:$W$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>53.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59.999999999999986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B895-4DB4-86A6-B058E7564B05}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2490,6 +4957,567 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="508582640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Messprotokoll_D!$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fz_1: s1 = v1 * t      </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Messprotokoll_D!$E$51:$Y$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.0000000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Messprotokoll_D!$E$52:$Y$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>102.00000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>108.00000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>114.00000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120.00000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA5E-4CE0-B2CD-C04041C4193F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Messprotokoll_D!$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fz_2: s2 = v2 * t + s20  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Messprotokoll_D!$E$51:$Y$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.0000000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Messprotokoll_D!$E$54:$Y$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-9.9999999999999858</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-50.000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-60.000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-70.000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-80.000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-90.000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-100.00000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BA5E-4CE0-B2CD-C04041C4193F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="58137039"/>
+        <c:axId val="58129839"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="58137039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="58129839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="58129839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="58137039"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2705,6 +5733,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4254,6 +7442,2070 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4802,6 +10054,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>727075</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>727075</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{736BCA08-D3F2-35C4-442F-3ACFAB96E31C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4848,6 +10136,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>598715</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DF3D2F2-E6F0-470D-9EC9-4EE547F41CB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4889,6 +10215,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>263525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1025525</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D40CEF-05C3-1D65-84D4-9159814FC613}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4897,15 +10259,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>22225</xdr:colOff>
+      <xdr:colOff>49439</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>752928</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4927,6 +10289,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>490482</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>109488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>109482</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>93723</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B03C9849-22EF-FB68-465B-D0E2BAF4F01E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5198,16 +10596,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFC3FD5-7454-487E-B548-6F210376BA54}">
-  <dimension ref="B3:AG25"/>
+  <dimension ref="B3:AG45"/>
   <sheetViews>
-    <sheetView topLeftCell="G16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20:K21"/>
+    <sheetView topLeftCell="E38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:Y46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.54296875" customWidth="1"/>
+    <col min="2" max="2" width="27.7265625" customWidth="1"/>
     <col min="10" max="10" width="25.26953125" customWidth="1"/>
+    <col min="11" max="11" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
@@ -5309,125 +10708,506 @@
       </c>
       <c r="L18" s="13"/>
     </row>
+    <row r="19" spans="9:33" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="9:33" x14ac:dyDescent="0.35">
-      <c r="J20" t="s">
+      <c r="J20" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="32">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="9:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J21" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="34">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="9:33" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="9:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K23" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="39">
         <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="9:33" x14ac:dyDescent="0.35">
-      <c r="J21" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="9:33" x14ac:dyDescent="0.35">
-      <c r="K23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="24" spans="9:33" x14ac:dyDescent="0.35">
-      <c r="K24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="2">
-        <v>-10</v>
-      </c>
-      <c r="M24">
+      <c r="K24" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="37">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
         <f>L24+$L$23</f>
-        <v>-8</v>
-      </c>
-      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="N24" s="7">
         <f t="shared" ref="N24:AG24" si="2">M24+$L$23</f>
-        <v>-6</v>
-      </c>
-      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="O24" s="7">
         <f t="shared" si="2"/>
-        <v>-4</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="2"/>
-        <v>-2</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="S24">
+        <v>3</v>
+      </c>
+      <c r="P24" s="7">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="T24">
+      <c r="Q24" s="7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="R24" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="U24">
+      <c r="S24" s="7">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="T24" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="V24">
+      <c r="U24" s="7">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="V24" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="7">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="X24" s="7">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="X24">
+      <c r="Y24" s="7">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="Z24" s="7">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="Y24">
+      <c r="AA24" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="AB24" s="7">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="Z24">
+      <c r="AC24" s="7">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="AD24" s="7">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="AA24">
+      <c r="AE24" s="7">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="AF24" s="7">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="AB24">
+      <c r="AG24" s="7">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="AD24">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="AE24">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="AF24">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="AG24">
-        <f t="shared" si="2"/>
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="9:33" x14ac:dyDescent="0.35">
-      <c r="K25" s="1" t="s">
-        <v>25</v>
+      <c r="K25" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="7">
+        <f>$K$20*L24+$K$21</f>
+        <v>0.2</v>
+      </c>
+      <c r="M25" s="7">
+        <f t="shared" ref="M25:AG25" si="3">$K$20*M24+$K$21</f>
+        <v>2.7</v>
+      </c>
+      <c r="N25" s="7">
+        <f t="shared" si="3"/>
+        <v>5.2</v>
+      </c>
+      <c r="O25" s="7">
+        <f t="shared" si="3"/>
+        <v>7.7</v>
+      </c>
+      <c r="P25" s="7">
+        <f t="shared" si="3"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="Q25" s="7">
+        <f t="shared" si="3"/>
+        <v>12.7</v>
+      </c>
+      <c r="R25" s="7">
+        <f t="shared" si="3"/>
+        <v>15.2</v>
+      </c>
+      <c r="S25" s="7">
+        <f t="shared" si="3"/>
+        <v>17.7</v>
+      </c>
+      <c r="T25" s="7">
+        <f t="shared" si="3"/>
+        <v>20.2</v>
+      </c>
+      <c r="U25" s="7">
+        <f t="shared" si="3"/>
+        <v>22.7</v>
+      </c>
+      <c r="V25" s="7">
+        <f t="shared" si="3"/>
+        <v>25.2</v>
+      </c>
+      <c r="W25" s="7">
+        <f t="shared" si="3"/>
+        <v>27.7</v>
+      </c>
+      <c r="X25" s="7">
+        <f t="shared" si="3"/>
+        <v>30.2</v>
+      </c>
+      <c r="Y25" s="7">
+        <f t="shared" si="3"/>
+        <v>32.700000000000003</v>
+      </c>
+      <c r="Z25" s="7">
+        <f t="shared" si="3"/>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="AA25" s="7">
+        <f t="shared" si="3"/>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="AB25" s="7">
+        <f t="shared" si="3"/>
+        <v>40.200000000000003</v>
+      </c>
+      <c r="AC25" s="7">
+        <f t="shared" si="3"/>
+        <v>42.7</v>
+      </c>
+      <c r="AD25" s="7">
+        <f t="shared" si="3"/>
+        <v>45.2</v>
+      </c>
+      <c r="AE25" s="7">
+        <f t="shared" si="3"/>
+        <v>47.7</v>
+      </c>
+      <c r="AF25" s="7">
+        <f t="shared" si="3"/>
+        <v>50.2</v>
+      </c>
+      <c r="AG25" s="7">
+        <f t="shared" si="3"/>
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="E40" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f>E41+$E$40</f>
+        <v>0.1</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ref="G41:V41" si="4">F41+$E$40</f>
+        <v>0.2</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="4"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="4"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="4"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="4"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="4"/>
+        <v>1.3</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="4"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="4"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="4"/>
+        <v>1.6000000000000003</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="4"/>
+        <v>1.7000000000000004</v>
+      </c>
+      <c r="W41">
+        <f t="shared" ref="W41:Y41" si="5">V41+$E$40</f>
+        <v>1.8000000000000005</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="5"/>
+        <v>1.9000000000000006</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="5"/>
+        <v>2.0000000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="2">
+        <v>35</v>
+      </c>
+      <c r="E42">
+        <f>$D$42*E41</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ref="F42:V42" si="6">$D$42*F41</f>
+        <v>3.5</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="6"/>
+        <v>10.500000000000002</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="6"/>
+        <v>17.5</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="6"/>
+        <v>24.5</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="6"/>
+        <v>27.999999999999996</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="6"/>
+        <v>31.499999999999996</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="6"/>
+        <v>34.999999999999993</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="6"/>
+        <v>38.499999999999993</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="6"/>
+        <v>45.5</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="6"/>
+        <v>49.000000000000007</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="6"/>
+        <v>52.500000000000007</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="6"/>
+        <v>56.000000000000014</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="6"/>
+        <v>59.500000000000014</v>
+      </c>
+      <c r="W42">
+        <f t="shared" ref="W42" si="7">$D$42*W41</f>
+        <v>63.000000000000014</v>
+      </c>
+      <c r="X42">
+        <f t="shared" ref="X42" si="8">$D$42*X41</f>
+        <v>66.500000000000014</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" ref="Y42" si="9">$D$42*Y41</f>
+        <v>70.000000000000014</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="2">
+        <v>-20</v>
+      </c>
+      <c r="E44">
+        <f>$D$44*E41+$D$45</f>
+        <v>40</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44:Y44" si="10">$D$44*F41+$D$45</f>
+        <v>38</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="10"/>
+        <v>34</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="10"/>
+        <v>20.000000000000004</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="10"/>
+        <v>18.000000000000004</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="10"/>
+        <v>11.999999999999996</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="10"/>
+        <v>9.9999999999999964</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="10"/>
+        <v>7.9999999999999929</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="10"/>
+        <v>5.9999999999999929</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="10"/>
+        <v>3.9999999999999929</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="10"/>
+        <v>1.9999999999999858</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="2">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -5439,10 +11219,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96115A17-1A1D-465A-AB11-E83075F9A2A8}">
-  <dimension ref="B3:AO18"/>
+  <dimension ref="B3:AO45"/>
   <sheetViews>
-    <sheetView topLeftCell="D9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="L33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:Y45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5543,12 +11323,12 @@
     <row r="11" spans="2:14" ht="26" x14ac:dyDescent="0.6">
       <c r="I11" s="14"/>
       <c r="J11" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
       <c r="M11" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N11" s="18"/>
     </row>
@@ -5559,33 +11339,33 @@
     <row r="13" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I13" s="19"/>
       <c r="J13" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="N13" s="20"/>
     </row>
     <row r="14" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I14" s="22"/>
       <c r="J14" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L14" s="24">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M14" s="25"/>
       <c r="N14" s="26"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.35">
       <c r="I16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J16" s="2">
         <v>0.5</v>
@@ -5725,19 +11505,19 @@
     </row>
     <row r="18" spans="9:41" x14ac:dyDescent="0.35">
       <c r="I18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J18">
         <f>$L$13*J17+$L$14</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18">
         <f t="shared" ref="K18:AO18" si="3">$L$13*K17+$L$14</f>
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="L18">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M18">
         <f t="shared" si="3"/>
@@ -5745,115 +11525,406 @@
       </c>
       <c r="N18">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>-2.5</v>
       </c>
       <c r="P18">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="Q18">
         <f t="shared" si="3"/>
-        <v>4.5</v>
+        <v>-7.5</v>
       </c>
       <c r="R18">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="S18">
         <f t="shared" si="3"/>
-        <v>5.5</v>
+        <v>-12.5</v>
       </c>
       <c r="T18">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>-15</v>
       </c>
       <c r="U18">
         <f t="shared" si="3"/>
-        <v>6.5</v>
+        <v>-17.5</v>
       </c>
       <c r="V18">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>-20</v>
       </c>
       <c r="W18">
         <f t="shared" si="3"/>
-        <v>7.5</v>
+        <v>-22.5</v>
       </c>
       <c r="X18">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>-25</v>
       </c>
       <c r="Y18">
         <f t="shared" si="3"/>
-        <v>8.5</v>
+        <v>-27.5</v>
       </c>
       <c r="Z18">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>-30</v>
       </c>
       <c r="AA18">
         <f t="shared" si="3"/>
-        <v>9.5</v>
+        <v>-32.5</v>
       </c>
       <c r="AB18">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>-35</v>
       </c>
       <c r="AC18">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>-37.5</v>
       </c>
       <c r="AD18">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>-40</v>
       </c>
       <c r="AE18">
         <f t="shared" si="3"/>
-        <v>11.5</v>
+        <v>-42.5</v>
       </c>
       <c r="AF18">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>-45</v>
       </c>
       <c r="AG18">
         <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>-47.5</v>
       </c>
       <c r="AH18">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>-50</v>
       </c>
       <c r="AI18">
         <f t="shared" si="3"/>
-        <v>13.5</v>
+        <v>-52.5</v>
       </c>
       <c r="AJ18">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>-55</v>
       </c>
       <c r="AK18">
         <f t="shared" si="3"/>
-        <v>14.5</v>
+        <v>-57.5</v>
       </c>
       <c r="AL18">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>-60</v>
       </c>
       <c r="AM18">
         <f t="shared" si="3"/>
-        <v>15.5</v>
+        <v>-62.5</v>
       </c>
       <c r="AN18">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>-65</v>
       </c>
       <c r="AO18">
         <f t="shared" si="3"/>
-        <v>16.5</v>
+        <v>-67.5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="E40" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f>E41+$E$40</f>
+        <v>0.1</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ref="G41:Y41" si="4">F41+$E$40</f>
+        <v>0.2</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="4"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="4"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="4"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="4"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="4"/>
+        <v>1.3</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="4"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="4"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="4"/>
+        <v>1.6000000000000003</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="4"/>
+        <v>1.7000000000000004</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="4"/>
+        <v>1.8000000000000005</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="4"/>
+        <v>1.9000000000000006</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="2">
+        <v>35</v>
+      </c>
+      <c r="E42">
+        <f>$D$42*E41</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ref="F42:Y42" si="5">$D$42*F41</f>
+        <v>3.5</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="5"/>
+        <v>10.500000000000002</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="5"/>
+        <v>17.5</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="5"/>
+        <v>24.5</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="5"/>
+        <v>27.999999999999996</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="5"/>
+        <v>31.499999999999996</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="5"/>
+        <v>34.999999999999993</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="5"/>
+        <v>38.499999999999993</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="5"/>
+        <v>45.5</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="5"/>
+        <v>49.000000000000007</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="5"/>
+        <v>52.500000000000007</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="5"/>
+        <v>56.000000000000014</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="5"/>
+        <v>59.500000000000014</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="5"/>
+        <v>63.000000000000014</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="5"/>
+        <v>66.500000000000014</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="5"/>
+        <v>70.000000000000014</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="2">
+        <v>-20</v>
+      </c>
+      <c r="E44">
+        <f>$D$44*E41+$D$45</f>
+        <v>100</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44:Y44" si="6">$D$44*F41+$D$45</f>
+        <v>98</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="6"/>
+        <v>63.999999999999993</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="6"/>
+        <v>61.999999999999986</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="6"/>
+        <v>59.999999999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5865,10 +11936,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E94CB8-F6FD-4B8D-BDC9-63BA534F6C1E}">
-  <dimension ref="B3:T18"/>
+  <dimension ref="B3:Y45"/>
   <sheetViews>
-    <sheetView topLeftCell="F8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView topLeftCell="B29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5946,7 +12017,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="9">
         <f>$I$7*C4</f>
@@ -5968,12 +12039,12 @@
     <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="2:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="H11" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="32"/>
+        <v>36</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="41"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H12" s="19"/>
@@ -5981,29 +12052,29 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H13" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J13" s="28">
-        <v>10</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H14" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14" s="29">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="I16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J16" s="2">
         <v>0.5</v>
@@ -6011,7 +12082,7 @@
     </row>
     <row r="17" spans="9:20" x14ac:dyDescent="0.35">
       <c r="I17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
@@ -6059,11 +12130,11 @@
     </row>
     <row r="18" spans="9:20" x14ac:dyDescent="0.35">
       <c r="I18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <f>$J$13*J17+$J$14</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K18">
         <f t="shared" ref="K18:T18" si="3">$J$13*K17+$J$14</f>
@@ -6071,39 +12142,330 @@
       </c>
       <c r="L18">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>-5</v>
       </c>
       <c r="N18">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>-10</v>
       </c>
       <c r="O18">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>-15</v>
       </c>
       <c r="P18">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>-20</v>
       </c>
       <c r="Q18">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>-25</v>
       </c>
       <c r="R18">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>-30</v>
       </c>
       <c r="S18">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>-35</v>
       </c>
       <c r="T18">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="E40" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f>E41+$E$40</f>
+        <v>0.1</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ref="G41:Y41" si="4">F41+$E$40</f>
+        <v>0.2</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="4"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="4"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="4"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="4"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="4"/>
+        <v>1.3</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="4"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="4"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="4"/>
+        <v>1.6000000000000003</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="4"/>
+        <v>1.7000000000000004</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="4"/>
+        <v>1.8000000000000005</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="4"/>
+        <v>1.9000000000000006</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="2">
+        <v>35</v>
+      </c>
+      <c r="E42">
+        <f>$D$42*E41</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ref="F42:Y42" si="5">$D$42*F41</f>
+        <v>3.5</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="5"/>
+        <v>10.500000000000002</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="5"/>
+        <v>17.5</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="5"/>
+        <v>24.5</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="5"/>
+        <v>27.999999999999996</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="5"/>
+        <v>31.499999999999996</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="5"/>
+        <v>34.999999999999993</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="5"/>
+        <v>38.499999999999993</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="5"/>
+        <v>45.5</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="5"/>
+        <v>49.000000000000007</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="5"/>
+        <v>52.500000000000007</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="5"/>
+        <v>56.000000000000014</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="5"/>
+        <v>59.500000000000014</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="5"/>
+        <v>63.000000000000014</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="5"/>
+        <v>66.500000000000014</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="5"/>
+        <v>70.000000000000014</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E44">
+        <f>$D$44*E41+$D$45</f>
+        <v>100</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44:Y44" si="6">$D$44*F41+$D$45</f>
+        <v>95</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="6"/>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="6"/>
+        <v>50.000000000000007</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="6"/>
+        <v>45.000000000000007</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="6"/>
+        <v>24.999999999999986</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="6"/>
+        <v>19.999999999999986</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="6"/>
+        <v>14.999999999999986</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="6"/>
+        <v>9.9999999999999716</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="6"/>
+        <v>4.9999999999999716</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -6117,15 +12479,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C99E67E-EA12-467E-9855-B234E3965E93}">
-  <dimension ref="B2:W17"/>
+  <dimension ref="B2:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="C7:F7"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="27.26953125" customWidth="1"/>
+    <col min="2" max="2" width="38.1796875" customWidth="1"/>
     <col min="8" max="8" width="22.08984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6200,7 +12562,7 @@
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <f>$H$6*C3</f>
@@ -6245,7 +12607,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.35">
@@ -6253,92 +12615,467 @@
         <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:W16" si="1">C16+$C$15</f>
-        <v>-8</v>
+        <f>C16+$C$15</f>
+        <v>0.3</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
-        <v>-6</v>
+        <f t="shared" ref="D16:W16" si="1">D16+$C$15</f>
+        <v>0.6</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>1.2</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="M16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2.9999999999999996</v>
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>3.2999999999999994</v>
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>3.5999999999999992</v>
       </c>
       <c r="P16">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="Q16">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>4.1999999999999993</v>
       </c>
       <c r="R16">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>4.4999999999999991</v>
       </c>
       <c r="S16">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>4.7999999999999989</v>
       </c>
       <c r="T16">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>5.0999999999999988</v>
       </c>
       <c r="U16">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>5.3999999999999986</v>
       </c>
       <c r="V16">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>5.6999999999999984</v>
       </c>
       <c r="W16">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>5.9999999999999982</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="C17">
+        <f>$I$13*C16+$I$14</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:W17" si="2">$I$13*D16+$I$14</f>
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>26.999999999999996</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>29.999999999999996</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>32.999999999999993</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>35.999999999999993</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>38.999999999999993</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>41.999999999999993</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>44.999999999999993</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="2"/>
+        <v>47.999999999999986</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="2"/>
+        <v>50.999999999999986</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="2"/>
+        <v>53.999999999999986</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="2"/>
+        <v>56.999999999999986</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="2"/>
+        <v>59.999999999999986</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="E50" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="C51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f>E51+$E$50</f>
+        <v>0.2</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ref="G51:Y51" si="3">F51+$E$50</f>
+        <v>0.4</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="3"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="3"/>
+        <v>1.4</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="3"/>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="3"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="3"/>
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="3"/>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="3"/>
+        <v>2.4</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="3"/>
+        <v>2.6</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="3"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="3"/>
+        <v>3.2000000000000006</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="3"/>
+        <v>3.4000000000000008</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="3"/>
+        <v>3.600000000000001</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="3"/>
+        <v>3.8000000000000012</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000009</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B52" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="2">
+        <v>30</v>
+      </c>
+      <c r="E52">
+        <f>$D$52*E51</f>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ref="F52:Y52" si="4">$D$52*F51</f>
+        <v>6</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="4"/>
+        <v>18.000000000000004</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="4"/>
+        <v>47.999999999999993</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="4"/>
+        <v>53.999999999999993</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="4"/>
+        <v>59.999999999999993</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="4"/>
+        <v>65.999999999999986</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="4"/>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="4"/>
+        <v>90.000000000000014</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="4"/>
+        <v>96.000000000000014</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="4"/>
+        <v>102.00000000000003</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="4"/>
+        <v>108.00000000000003</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="4"/>
+        <v>114.00000000000003</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="4"/>
+        <v>120.00000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="2:25" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E54">
+        <f>$D$54*E51+$D$55</f>
+        <v>100</v>
+      </c>
+      <c r="F54">
+        <f>$D$54*F51+$D$55</f>
+        <v>90</v>
+      </c>
+      <c r="G54">
+        <f t="shared" ref="F54:Y54" si="5">$D$54*G51+$D$55</f>
+        <v>80</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="5"/>
+        <v>10.000000000000014</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="5"/>
+        <v>-9.9999999999999858</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="5"/>
+        <v>-20</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="5"/>
+        <v>-30</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="5"/>
+        <v>-40</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="5"/>
+        <v>-50.000000000000028</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="5"/>
+        <v>-60.000000000000028</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="5"/>
+        <v>-70.000000000000028</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="5"/>
+        <v>-80.000000000000057</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="5"/>
+        <v>-90.000000000000057</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="5"/>
+        <v>-100.00000000000006</v>
+      </c>
+    </row>
+    <row r="55" spans="2:25" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_02_Messprotokoll.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_02_Messprotokoll.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\Informatik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC96B7F-9766-47B1-A467-5A66DDE810E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D2485C-03CF-4A99-AEF0-B220D1BAC69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Messprotokoll_A" sheetId="3" r:id="rId1"/>
-    <sheet name="Messprotokoll_B" sheetId="4" r:id="rId2"/>
-    <sheet name="Messprotokoll_C" sheetId="5" r:id="rId3"/>
-    <sheet name="Messprotokoll_D" sheetId="2" r:id="rId4"/>
+    <sheet name="Kinematik_1_A" sheetId="3" r:id="rId1"/>
+    <sheet name="Kinematik_2_A" sheetId="6" r:id="rId2"/>
+    <sheet name="Kinematik_1_B" sheetId="4" r:id="rId3"/>
+    <sheet name="Kinematik_2_B" sheetId="7" r:id="rId4"/>
+    <sheet name="Kinematik_1_C" sheetId="5" r:id="rId5"/>
+    <sheet name="Kinematik_2_C" sheetId="8" r:id="rId6"/>
+    <sheet name="Messprotokoll_D" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
   <si>
     <t>y:</t>
   </si>
@@ -647,12 +650,213 @@
       <t xml:space="preserve"> * t      </t>
     </r>
   </si>
+  <si>
+    <t>Beschleunigte Bewegung</t>
+  </si>
+  <si>
+    <t>t [s]</t>
+  </si>
+  <si>
+    <r>
+      <t>[m/s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Beschleunigung a:</t>
+  </si>
+  <si>
+    <t>Anfangsgeschwindigkeit v0:</t>
+  </si>
+  <si>
+    <t>[m/s]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Beschleunigung </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Anfangsgeschwindigkeit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">v = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * t +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>Senkrechte Linie</t>
+  </si>
+  <si>
+    <r>
+      <t>Beschleunigung a [m/s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Anfangsgeschwindigkeit v0 [m/s]</t>
+  </si>
+  <si>
+    <t>v = a * t + v0  [m/s]</t>
+  </si>
+  <si>
+    <t>Senkrechte Linie:</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Waagrechte Linie:</t>
+  </si>
+  <si>
+    <t>v = a * t + v0 [m/s]</t>
+  </si>
+  <si>
+    <t>tx [s]</t>
+  </si>
+  <si>
+    <t>Horizontal Linie:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -751,6 +955,38 @@
       <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1035,7 +1271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1092,10 +1328,23 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1139,7 +1388,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Messprotokoll_A!$B$3</c:f>
+              <c:f>Kinematik_1_A!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1172,7 +1421,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Messprotokoll_A!$C$4:$F$4</c:f>
+              <c:f>Kinematik_1_A!$C$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1193,7 +1442,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messprotokoll_A!$C$5:$F$5</c:f>
+              <c:f>Kinematik_1_A!$C$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1224,7 +1473,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Messprotokoll_A!$B$9</c:f>
+              <c:f>Kinematik_1_A!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1248,7 +1497,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Messprotokoll_A!$C$4:$F$4</c:f>
+              <c:f>Kinematik_1_A!$C$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1269,7 +1518,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messprotokoll_A!$C$9:$F$9</c:f>
+              <c:f>Kinematik_1_A!$C$9:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1300,7 +1549,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Messprotokoll_A!$K$25</c:f>
+              <c:f>Kinematik_1_A!$K$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1323,7 +1572,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Messprotokoll_A!$L$24:$AG$24</c:f>
+              <c:f>Kinematik_1_A!$L$24:$AG$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -1398,7 +1647,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messprotokoll_A!$L$25:$AG$25</c:f>
+              <c:f>Kinematik_1_A!$L$25:$AG$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -1665,6 +1914,1114 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Messprotokoll_D!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Messprotokoll:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Messprotokoll_D!$C$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Messprotokoll_D!$C$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF00-4A03-8635-F2FD59A6C0D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Messprotokoll_D!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weg s = v * t [m] berechnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Messprotokoll_D!$C$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Messprotokoll_D!$C$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.022916666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.045833333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.068750000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.091666666666669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-98B0-4490-A89B-18AEA382067C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Messprotokoll_D!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y = m*x + b  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Messprotokoll_D!$C$16:$W$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5999999999999992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.4999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.6999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.9999999999999982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Messprotokoll_D!$C$17:$W$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>53.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59.999999999999986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B895-4DB4-86A6-B058E7564B05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="508582640"/>
+        <c:axId val="508584080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="508582640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508584080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="508584080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508582640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Messprotokoll_D!$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fz_1: s1 = v1 * t      </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Messprotokoll_D!$E$51:$Y$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.0000000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Messprotokoll_D!$E$52:$Y$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>102.00000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>108.00000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>114.00000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120.00000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA5E-4CE0-B2CD-C04041C4193F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Messprotokoll_D!$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fz_2: s2 = v2 * t + s20  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Messprotokoll_D!$E$51:$Y$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.0000000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Messprotokoll_D!$E$54:$Y$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-9.9999999999999858</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-50.000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-60.000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-70.000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-80.000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-90.000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-100.00000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BA5E-4CE0-B2CD-C04041C4193F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="58137039"/>
+        <c:axId val="58129839"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="58137039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="58129839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="58129839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="58137039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1690,7 +3047,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Messprotokoll_A!$B$42</c:f>
+              <c:f>Kinematik_1_A!$B$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1713,7 +3070,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Messprotokoll_A!$E$41:$Y$41</c:f>
+              <c:f>Kinematik_1_A!$E$41:$Y$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1785,7 +3142,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messprotokoll_A!$E$42:$Y$42</c:f>
+              <c:f>Kinematik_1_A!$E$42:$Y$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1867,7 +3224,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Messprotokoll_A!$B$44</c:f>
+              <c:f>Kinematik_1_A!$B$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1890,7 +3247,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Messprotokoll_A!$E$41:$Y$41</c:f>
+              <c:f>Kinematik_1_A!$E$41:$Y$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1962,7 +3319,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messprotokoll_A!$E$44:$Y$44</c:f>
+              <c:f>Kinematik_1_A!$E$44:$Y$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2242,6 +3599,454 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kinematik_2_A!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v = a * t + v0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kinematik_2_A!$C$8:$W$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kinematik_2_A!$C$9:$W$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0DDD-4AC0-B42D-A6E06453AA3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kinematik_2_A!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Senkrechte Linie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kinematik_2_A!$M$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kinematik_2_A!$M$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0DDD-4AC0-B42D-A6E06453AA3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1546550176"/>
+        <c:axId val="1546554496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1546550176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1546554496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1546554496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1546550176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
@@ -2261,7 +4066,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Messprotokoll_B!$B$5</c:f>
+              <c:f>Kinematik_1_B!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2294,7 +4099,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Messprotokoll_B!$C$4:$F$4</c:f>
+              <c:f>Kinematik_1_B!$C$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2315,7 +4120,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messprotokoll_B!$C$5:$F$5</c:f>
+              <c:f>Kinematik_1_B!$C$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2346,7 +4151,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Messprotokoll_B!$B$8</c:f>
+              <c:f>Kinematik_1_B!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2370,7 +4175,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Messprotokoll_B!$C$4:$F$4</c:f>
+              <c:f>Kinematik_1_B!$C$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2391,7 +4196,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messprotokoll_B!$C$8:$F$8</c:f>
+              <c:f>Kinematik_1_B!$C$8:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2422,7 +4227,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Messprotokoll_B!$I$18</c:f>
+              <c:f>Kinematik_1_B!$I$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2445,7 +4250,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Messprotokoll_B!$J$17:$AO$17</c:f>
+              <c:f>Kinematik_1_B!$J$17:$AO$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2550,7 +4355,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messprotokoll_B!$J$18:$AO$18</c:f>
+              <c:f>Kinematik_1_B!$J$18:$AO$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2847,7 +4652,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2872,7 +4677,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Messprotokoll_B!$B$42</c:f>
+              <c:f>Kinematik_1_B!$B$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2895,7 +4700,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Messprotokoll_B!$E$41:$Y$41</c:f>
+              <c:f>Kinematik_1_B!$E$41:$Y$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2967,7 +4772,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messprotokoll_B!$E$42:$Y$42</c:f>
+              <c:f>Kinematik_1_B!$E$42:$Y$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3049,7 +4854,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Messprotokoll_B!$B$44</c:f>
+              <c:f>Kinematik_1_B!$B$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3072,7 +4877,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Messprotokoll_B!$E$41:$Y$41</c:f>
+              <c:f>Kinematik_1_B!$E$41:$Y$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3144,7 +4949,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messprotokoll_B!$E$44:$Y$44</c:f>
+              <c:f>Kinematik_1_B!$E$44:$Y$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3408,7 +5213,529 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.9358705161854772E-2"/>
+          <c:y val="5.0208092236254769E-2"/>
+          <c:w val="0.89019685039370078"/>
+          <c:h val="0.84390638365164139"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kinematik_2_B!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v = a * t + v0  [m/s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kinematik_2_B!$D$10:$X$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kinematik_2_B!$D$12:$X$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-464A-4071-8463-683F2D264F55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kinematik_2_B!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Senkrechte Linie:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kinematik_2_B!$N$4:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kinematik_2_B!$N$5:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-464A-4071-8463-683F2D264F55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kinematik_2_B!$R$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Waagrechte Linie:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kinematik_2_B!$R$4:$S$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kinematik_2_B!$R$5:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-464A-4071-8463-683F2D264F55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1633885632"/>
+        <c:axId val="1633889472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1633885632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1633889472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1633889472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1633885632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -3443,7 +5770,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Messprotokoll_C!$B$3</c:f>
+              <c:f>Kinematik_1_C!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3476,7 +5803,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Messprotokoll_C!$C$4:$F$4</c:f>
+              <c:f>Kinematik_1_C!$C$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3497,7 +5824,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messprotokoll_C!$C$5:$F$5</c:f>
+              <c:f>Kinematik_1_C!$C$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3528,7 +5855,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Messprotokoll_C!$B$9</c:f>
+              <c:f>Kinematik_1_C!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3552,7 +5879,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Messprotokoll_C!$C$4:$F$4</c:f>
+              <c:f>Kinematik_1_C!$C$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3573,7 +5900,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messprotokoll_C!$C$9:$F$9</c:f>
+              <c:f>Kinematik_1_C!$C$9:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3604,7 +5931,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Messprotokoll_C!$I$18</c:f>
+              <c:f>Kinematik_1_C!$I$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3628,7 +5955,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Messprotokoll_C!$J$17:$T$17</c:f>
+              <c:f>Kinematik_1_C!$J$17:$T$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3670,7 +5997,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messprotokoll_C!$J$18:$T$18</c:f>
+              <c:f>Kinematik_1_C!$J$18:$T$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3904,7 +6231,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -3929,7 +6256,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Messprotokoll_C!$B$42</c:f>
+              <c:f>Kinematik_1_C!$B$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3952,7 +6279,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Messprotokoll_C!$E$41:$Y$41</c:f>
+              <c:f>Kinematik_1_C!$E$41:$Y$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -4024,7 +6351,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messprotokoll_C!$E$42:$Y$42</c:f>
+              <c:f>Kinematik_1_C!$E$42:$Y$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -4106,7 +6433,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Messprotokoll_C!$B$44</c:f>
+              <c:f>Kinematik_1_C!$B$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4129,7 +6456,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Messprotokoll_C!$E$41:$Y$41</c:f>
+              <c:f>Kinematik_1_C!$E$41:$Y$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -4201,7 +6528,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messprotokoll_C!$E$44:$Y$44</c:f>
+              <c:f>Kinematik_1_C!$E$44:$Y$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -4465,7 +6792,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -4490,182 +6817,19 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Messprotokoll_D!$B$2</c:f>
+              <c:f>Kinematik_2_C!$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Messprotokoll:</c:v>
+                  <c:v>v = a * t + v0 [m/s]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Messprotokoll_D!$C$3:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Messprotokoll_D!$C$4:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.05</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EF00-4A03-8635-F2FD59A6C0D4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Messprotokoll_D!$B$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Weg s = v * t [m] berechnet</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Messprotokoll_D!$C$3:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Messprotokoll_D!$C$7:$F$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>10.022916666666667</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.045833333333334</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.068750000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40.091666666666669</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-98B0-4490-A89B-18AEA382067C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Messprotokoll_D!$D$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>y = m*x + b  </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
-                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4676,7 +6840,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Messprotokoll_D!$C$16:$W$16</c:f>
+              <c:f>Kinematik_2_C!$D$10:$X$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -4684,136 +6848,136 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6999999999999997</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9999999999999996</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2999999999999994</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.5999999999999992</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.899999999999999</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.1999999999999993</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.4999999999999991</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.7999999999999989</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.0999999999999988</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.3999999999999986</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.6999999999999984</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.9999999999999982</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messprotokoll_D!$C$17:$W$17</c:f>
+              <c:f>Kinematik_2_C!$D$11:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.999999999999996</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.999999999999996</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32.999999999999993</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35.999999999999993</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.999999999999993</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41.999999999999993</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44.999999999999993</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>47.999999999999986</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50.999999999999986</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>53.999999999999986</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>56.999999999999986</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>59.999999999999986</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4821,7 +6985,135 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B895-4DB4-86A6-B058E7564B05}"/>
+              <c16:uniqueId val="{00000000-2F03-4008-8D26-4BFAA6C0B2C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kinematik_2_C!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Senkrechte Linie:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kinematik_2_C!$M$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kinematik_2_C!$M$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2F03-4008-8D26-4BFAA6C0B2C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kinematik_2_C!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horizontal Linie:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kinematik_2_C!$Q$3:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kinematik_2_C!$Q$4:$R$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2F03-4008-8D26-4BFAA6C0B2C0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4833,11 +7125,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="508582640"/>
-        <c:axId val="508584080"/>
+        <c:axId val="1638134912"/>
+        <c:axId val="1638140672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="508582640"/>
+        <c:axId val="1638134912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4894,12 +7186,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508584080"/>
+        <c:crossAx val="1638140672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="508584080"/>
+        <c:axId val="1638140672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4956,568 +7248,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508582640"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Messprotokoll_D!$B$52</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fz_1: s1 = v1 * t      </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Messprotokoll_D!$E$51:$Y$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.60000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5999999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.9999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.1999999999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.8000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.0000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.2000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.4000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.8000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.0000000000000009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Messprotokoll_D!$E$52:$Y$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>47.999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>53.999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>59.999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>65.999999999999986</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>84.000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>90.000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>96.000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>102.00000000000003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>108.00000000000003</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>114.00000000000003</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>120.00000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BA5E-4CE0-B2CD-C04041C4193F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Messprotokoll_D!$B$54</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fz_2: s2 = v2 * t + s20  </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Messprotokoll_D!$E$51:$Y$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.60000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5999999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.9999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.1999999999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.8000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.0000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.2000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.4000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.8000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.0000000000000009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Messprotokoll_D!$E$54:$Y$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-9.9999999999999858</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-30</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-40</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-50.000000000000028</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-60.000000000000028</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-70.000000000000028</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-80.000000000000057</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-90.000000000000057</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-100.00000000000006</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BA5E-4CE0-B2CD-C04041C4193F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="58137039"/>
-        <c:axId val="58129839"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="58137039"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="58129839"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="58129839"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="58137039"/>
+        <c:crossAx val="1638134912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5574,6 +7305,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5893,6 +7704,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6409,7 +8260,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6925,7 +8776,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7441,7 +9292,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7957,7 +9808,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8473,7 +10324,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8989,7 +10840,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9505,7 +11356,1555 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10102,6 +13501,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4590F7A-1C3F-8ABC-FDED-5FE0C488BFCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>739774</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -10177,7 +13617,48 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>52294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>440765</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84040D04-56A6-8608-5A8E-4EF33D3C129C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10254,7 +13735,48 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7AD53D-FE55-E74F-1919-670D6630C386}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10598,7 +14120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFC3FD5-7454-487E-B548-6F210376BA54}">
   <dimension ref="B3:AG45"/>
   <sheetViews>
-    <sheetView topLeftCell="E38" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B40" sqref="B40:Y46"/>
     </sheetView>
   </sheetViews>
@@ -11218,11 +14740,268 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCC271D-EC88-4808-A4D3-B329017F8058}">
+  <dimension ref="B2:W9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:23" ht="21" x14ac:dyDescent="0.5">
+      <c r="B2" s="43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="44"/>
+      <c r="E4" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="46">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="2">
+        <v>7</v>
+      </c>
+      <c r="M4">
+        <f>K4</f>
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <f>M4</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D5" s="47"/>
+      <c r="E5" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="24">
+        <v>20</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>$F$4*$K$4+$F$5</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>C8+$C$7</f>
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f>D8+$C$7</f>
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <f>E8+$C$7</f>
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <f>F8+$C$7</f>
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <f>G8+$C$7</f>
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <f>H8+$C$7</f>
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <f>I8+$C$7</f>
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <f>J8+$C$7</f>
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <f>K8+$C$7</f>
+        <v>9</v>
+      </c>
+      <c r="M8">
+        <f>L8+$C$7</f>
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <f>M8+$C$7</f>
+        <v>11</v>
+      </c>
+      <c r="O8">
+        <f>N8+$C$7</f>
+        <v>12</v>
+      </c>
+      <c r="P8">
+        <f>O8+$C$7</f>
+        <v>13</v>
+      </c>
+      <c r="Q8">
+        <f>P8+$C$7</f>
+        <v>14</v>
+      </c>
+      <c r="R8">
+        <f>Q8+$C$7</f>
+        <v>15</v>
+      </c>
+      <c r="S8">
+        <f>R8+$C$7</f>
+        <v>16</v>
+      </c>
+      <c r="T8">
+        <f>S8+$C$7</f>
+        <v>17</v>
+      </c>
+      <c r="U8">
+        <f>T8+$C$7</f>
+        <v>18</v>
+      </c>
+      <c r="V8">
+        <f>U8+$C$7</f>
+        <v>19</v>
+      </c>
+      <c r="W8">
+        <f>V8+$C$7</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9">
+        <f>$F$4*C8 + $F$5</f>
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:W9" si="0">$F$4*D8 + $F$5</f>
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96115A17-1A1D-465A-AB11-E83075F9A2A8}">
   <dimension ref="B3:AO45"/>
   <sheetViews>
-    <sheetView topLeftCell="L33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:Y45"/>
+    <sheetView topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11934,12 +15713,288 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189A19E3-B37A-474A-BC1C-D505FB6C8E4E}">
+  <dimension ref="B3:X12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:24" ht="21" x14ac:dyDescent="0.5">
+      <c r="B3" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" ht="21" x14ac:dyDescent="0.5">
+      <c r="B4" s="43"/>
+      <c r="K4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="2">
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <f>L4</f>
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <f>L4</f>
+        <v>6</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f>L4</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" ht="23" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="43"/>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f>$H$5*$L$4+$H$6</f>
+        <v>40</v>
+      </c>
+      <c r="R5">
+        <f>H6</f>
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <f>R5</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="43"/>
+      <c r="G6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="43"/>
+    </row>
+    <row r="8" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>D10+$D$9</f>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f>E10+$D$9</f>
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f>F10+$D$9</f>
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <f>G10+$D$9</f>
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <f>H10+$D$9</f>
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <f>I10+$D$9</f>
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <f>J10+$D$9</f>
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <f>K10+$D$9</f>
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <f>L10+$D$9</f>
+        <v>9</v>
+      </c>
+      <c r="N10">
+        <f>M10+$D$9</f>
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <f>N10+$D$9</f>
+        <v>11</v>
+      </c>
+      <c r="P10">
+        <f>O10+$D$9</f>
+        <v>12</v>
+      </c>
+      <c r="Q10">
+        <f>P10+$D$9</f>
+        <v>13</v>
+      </c>
+      <c r="R10">
+        <f>Q10+$D$9</f>
+        <v>14</v>
+      </c>
+      <c r="S10">
+        <f>R10+$D$9</f>
+        <v>15</v>
+      </c>
+      <c r="T10">
+        <f>S10+$D$9</f>
+        <v>16</v>
+      </c>
+      <c r="U10">
+        <f>T10+$D$9</f>
+        <v>17</v>
+      </c>
+      <c r="V10">
+        <f>U10+$D$9</f>
+        <v>18</v>
+      </c>
+      <c r="W10">
+        <f>V10+$D$9</f>
+        <v>19</v>
+      </c>
+      <c r="X10">
+        <f>W10+$D$9</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="C12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12">
+        <f>$H$5*D10 + $H$6</f>
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:X12" si="0">$H$5*E10 + $H$6</f>
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E94CB8-F6FD-4B8D-BDC9-63BA534F6C1E}">
   <dimension ref="B3:Y45"/>
   <sheetViews>
-    <sheetView topLeftCell="B29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:D45"/>
+    <sheetView topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12041,10 +16096,10 @@
       <c r="H11" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="41"/>
+      <c r="J11" s="42"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H12" s="19"/>
@@ -12477,11 +16532,281 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652866E9-C476-4655-AFFD-2F3678720FB2}">
+  <dimension ref="B2:X11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24" ht="21" x14ac:dyDescent="0.5">
+      <c r="B2" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="F3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="2">
+        <v>15</v>
+      </c>
+      <c r="M3">
+        <f>K3</f>
+        <v>15</v>
+      </c>
+      <c r="N3">
+        <f>K3</f>
+        <v>15</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>K3</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="F4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="2">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>G3*K3+G4</f>
+        <v>80</v>
+      </c>
+      <c r="Q4">
+        <f>G4</f>
+        <v>20</v>
+      </c>
+      <c r="R4">
+        <f>Q4</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>D10+$D$9</f>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:X10" si="0">E10+$D$9</f>
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="C11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11">
+        <f>$G$3*D10+$G$4</f>
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:X11" si="1">$G$3*E10+$G$4</f>
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C99E67E-EA12-467E-9855-B234E3965E93}">
   <dimension ref="B2:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A62" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
@@ -12622,7 +16947,7 @@
         <v>0.3</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="D16:W16" si="1">D16+$C$15</f>
+        <f t="shared" ref="E16:W16" si="1">D16+$C$15</f>
         <v>0.6</v>
       </c>
       <c r="F16">
@@ -12881,7 +17206,7 @@
       </c>
     </row>
     <row r="52" spans="2:25" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="40" t="s">
         <v>53</v>
       </c>
       <c r="C52" t="s">
@@ -12994,7 +17319,7 @@
         <v>90</v>
       </c>
       <c r="G54">
-        <f t="shared" ref="F54:Y54" si="5">$D$54*G51+$D$55</f>
+        <f t="shared" ref="G54:Y54" si="5">$D$54*G51+$D$55</f>
         <v>80</v>
       </c>
       <c r="H54">

--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_02_Messprotokoll.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_02_Messprotokoll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\Informatik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D2485C-03CF-4A99-AEF0-B220D1BAC69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15EBA70-24B7-4C97-95D6-1DE9C45DA41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kinematik_1_A" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Kinematik_2_B" sheetId="7" r:id="rId4"/>
     <sheet name="Kinematik_1_C" sheetId="5" r:id="rId5"/>
     <sheet name="Kinematik_2_C" sheetId="8" r:id="rId6"/>
-    <sheet name="Messprotokoll_D" sheetId="2" r:id="rId7"/>
+    <sheet name="Kinematik_1_D" sheetId="2" r:id="rId7"/>
+    <sheet name="Kinematik_2_D" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
   <si>
     <t>y:</t>
   </si>
@@ -851,12 +852,21 @@
   <si>
     <t>Horizontal Linie:</t>
   </si>
+  <si>
+    <t>v = a * t + v0</t>
+  </si>
+  <si>
+    <t>Seknrechte Hilfslinie</t>
+  </si>
+  <si>
+    <t>Vertikale Hilfslinie</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -987,6 +997,15 @@
       <vertAlign val="subscript"/>
       <sz val="11"/>
       <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1271,7 +1290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1331,8 +1350,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1346,6 +1363,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1939,7 +1959,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Messprotokoll_D!$B$2</c:f>
+              <c:f>Kinematik_1_D!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1972,7 +1992,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Messprotokoll_D!$C$3:$F$3</c:f>
+              <c:f>Kinematik_1_D!$C$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1993,7 +2013,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messprotokoll_D!$C$4:$F$4</c:f>
+              <c:f>Kinematik_1_D!$C$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2024,7 +2044,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Messprotokoll_D!$B$7</c:f>
+              <c:f>Kinematik_1_D!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2048,7 +2068,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Messprotokoll_D!$C$3:$F$3</c:f>
+              <c:f>Kinematik_1_D!$C$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2069,7 +2089,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messprotokoll_D!$C$7:$F$7</c:f>
+              <c:f>Kinematik_1_D!$C$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2100,7 +2120,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Messprotokoll_D!$D$13</c:f>
+              <c:f>Kinematik_1_D!$D$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2125,7 +2145,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Messprotokoll_D!$C$16:$W$16</c:f>
+              <c:f>Kinematik_1_D!$C$16:$W$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2197,7 +2217,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messprotokoll_D!$C$17:$W$17</c:f>
+              <c:f>Kinematik_1_D!$C$17:$W$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2486,7 +2506,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Messprotokoll_D!$B$52</c:f>
+              <c:f>Kinematik_1_D!$B$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2509,7 +2529,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Messprotokoll_D!$E$51:$Y$51</c:f>
+              <c:f>Kinematik_1_D!$E$51:$Y$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2581,7 +2601,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messprotokoll_D!$E$52:$Y$52</c:f>
+              <c:f>Kinematik_1_D!$E$52:$Y$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2663,7 +2683,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Messprotokoll_D!$B$54</c:f>
+              <c:f>Kinematik_1_D!$B$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2686,7 +2706,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Messprotokoll_D!$E$51:$Y$51</c:f>
+              <c:f>Kinematik_1_D!$E$51:$Y$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2758,7 +2778,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messprotokoll_D!$E$54:$Y$54</c:f>
+              <c:f>Kinematik_1_D!$E$54:$Y$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2967,6 +2987,518 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="58137039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kinematik_2_D!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v = a * t + v0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kinematik_2_D!$E$9:$Y$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kinematik_2_D!$E$10:$Y$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5BB-4B4D-883F-3319D7F46756}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kinematik_2_D!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Seknrechte Hilfslinie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kinematik_2_D!$P$3:$Q$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kinematik_2_D!$P$4:$Q$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A5BB-4B4D-883F-3319D7F46756}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kinematik_2_D!$T$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vertikale Hilfslinie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kinematik_2_D!$T$3:$U$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kinematik_2_D!$T$4:$U$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A5BB-4B4D-883F-3319D7F46756}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1130405664"/>
+        <c:axId val="1130406144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1130405664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1130406144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1130406144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1130405664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7385,6 +7917,46 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8777,6 +9349,522 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13855,6 +14943,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{397BD5F5-5D28-16D2-1DF8-B5ADC62C9E27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -14754,7 +15883,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="21" x14ac:dyDescent="0.5">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="41" t="s">
         <v>54</v>
       </c>
     </row>
@@ -14764,11 +15893,11 @@
       </c>
     </row>
     <row r="4" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="44"/>
-      <c r="E4" s="45" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="44">
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -14790,8 +15919,8 @@
       </c>
     </row>
     <row r="5" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D5" s="47"/>
-      <c r="E5" s="48" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="46" t="s">
         <v>61</v>
       </c>
       <c r="F5" s="24">
@@ -14821,88 +15950,88 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <f>C8+$C$7</f>
+        <f t="shared" ref="D8:W8" si="0">C8+$C$7</f>
         <v>1</v>
       </c>
       <c r="E8">
-        <f>D8+$C$7</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F8">
-        <f>E8+$C$7</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G8">
-        <f>F8+$C$7</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H8">
-        <f>G8+$C$7</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I8">
-        <f>H8+$C$7</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J8">
-        <f>I8+$C$7</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="K8">
-        <f>J8+$C$7</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="L8">
-        <f>K8+$C$7</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="M8">
-        <f>L8+$C$7</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N8">
-        <f>M8+$C$7</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="O8">
-        <f>N8+$C$7</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="P8">
-        <f>O8+$C$7</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="Q8">
-        <f>P8+$C$7</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="R8">
-        <f>Q8+$C$7</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="S8">
-        <f>R8+$C$7</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="T8">
-        <f>S8+$C$7</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="U8">
-        <f>T8+$C$7</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="V8">
-        <f>U8+$C$7</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="W8">
-        <f>V8+$C$7</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:23" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="47" t="s">
         <v>62</v>
       </c>
       <c r="C9">
@@ -14910,83 +16039,83 @@
         <v>20</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:W9" si="0">$F$4*D8 + $F$5</f>
+        <f t="shared" ref="D9:W9" si="1">$F$4*D8 + $F$5</f>
         <v>21</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="L9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="M9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="O9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="P9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="R9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="S9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="T9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="U9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="V9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="W9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -15727,7 +16856,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:24" ht="21" x14ac:dyDescent="0.5">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="41" t="s">
         <v>54</v>
       </c>
       <c r="K3" t="s">
@@ -15738,7 +16867,7 @@
       </c>
     </row>
     <row r="4" spans="2:24" ht="21" x14ac:dyDescent="0.5">
-      <c r="B4" s="43"/>
+      <c r="B4" s="41"/>
       <c r="K4" s="1" t="s">
         <v>68</v>
       </c>
@@ -15762,7 +16891,7 @@
       </c>
     </row>
     <row r="5" spans="2:24" ht="23" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="43"/>
+      <c r="B5" s="41"/>
       <c r="F5" t="s">
         <v>64</v>
       </c>
@@ -15786,7 +16915,7 @@
       </c>
     </row>
     <row r="6" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="43"/>
+      <c r="B6" s="41"/>
       <c r="G6" s="1" t="s">
         <v>65</v>
       </c>
@@ -15795,7 +16924,7 @@
       </c>
     </row>
     <row r="7" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="43"/>
+      <c r="B7" s="41"/>
     </row>
     <row r="8" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -15811,83 +16940,83 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <f>D10+$D$9</f>
+        <f t="shared" ref="E10:X10" si="0">D10+$D$9</f>
         <v>1</v>
       </c>
       <c r="F10">
-        <f>E10+$D$9</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G10">
-        <f>F10+$D$9</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H10">
-        <f>G10+$D$9</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I10">
-        <f>H10+$D$9</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J10">
-        <f>I10+$D$9</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K10">
-        <f>J10+$D$9</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="L10">
-        <f>K10+$D$9</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M10">
-        <f>L10+$D$9</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="N10">
-        <f>M10+$D$9</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="O10">
-        <f>N10+$D$9</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="P10">
-        <f>O10+$D$9</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="Q10">
-        <f>P10+$D$9</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="R10">
-        <f>Q10+$D$9</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="S10">
-        <f>R10+$D$9</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="T10">
-        <f>S10+$D$9</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="U10">
-        <f>T10+$D$9</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="V10">
-        <f>U10+$D$9</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="W10">
-        <f>V10+$D$9</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="X10">
-        <f>W10+$D$9</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -15903,83 +17032,83 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:X12" si="0">$H$5*E10 + $H$6</f>
+        <f t="shared" ref="E12:X12" si="1">$H$5*E10 + $H$6</f>
         <v>15</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="K12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="L12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="M12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="N12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="O12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="P12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="R12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="S12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="T12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="U12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="V12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="W12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="X12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
@@ -16096,10 +17225,10 @@
       <c r="H11" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="42"/>
+      <c r="J11" s="49"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H12" s="19"/>
@@ -16536,7 +17665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652866E9-C476-4655-AFFD-2F3678720FB2}">
   <dimension ref="B2:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
@@ -16546,7 +17675,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="21" x14ac:dyDescent="0.5">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="41" t="s">
         <v>54</v>
       </c>
       <c r="M2" t="s">
@@ -16806,8 +17935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C99E67E-EA12-467E-9855-B234E3965E93}">
   <dimension ref="B2:Y55"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17407,4 +18536,279 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6644B65-9415-4C8E-AE7F-C0B8FA4247A3}">
+  <dimension ref="B2:Y10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:25" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="50"/>
+      <c r="G3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="2">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <f>N3</f>
+        <v>13</v>
+      </c>
+      <c r="Q3">
+        <f>P3</f>
+        <v>13</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>N3</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="50"/>
+      <c r="G4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="2">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>H3*N3+H4</f>
+        <v>67</v>
+      </c>
+      <c r="T4">
+        <f>H4</f>
+        <v>15</v>
+      </c>
+      <c r="U4">
+        <f>H4</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="50"/>
+    </row>
+    <row r="6" spans="2:25" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:25" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:25" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>E9+$E$8</f>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:Y9" si="0">F9+$E$8</f>
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="X9">
+        <f>W9+$E$8</f>
+        <v>19</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="D10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10">
+        <f>$H$3*E9+$H$4</f>
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:Y10" si="1">$H$3*F9+$H$4</f>
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_02_Messprotokoll.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_02_Messprotokoll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\Informatik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15EBA70-24B7-4C97-95D6-1DE9C45DA41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355510DD-6E2B-4785-8C4B-F83F498C203F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kinematik_1_A" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
   <si>
     <t>y:</t>
   </si>
@@ -844,9 +844,6 @@
     <t>Waagrechte Linie:</t>
   </si>
   <si>
-    <t>v = a * t + v0 [m/s]</t>
-  </si>
-  <si>
     <t>tx [s]</t>
   </si>
   <si>
@@ -861,12 +858,240 @@
   <si>
     <t>Vertikale Hilfslinie</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">s = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2 * t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="0.39994506668294322"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">*t </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s = a/2 * t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + V0 * t [m]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Anfangsgeschwindigkeit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">v = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * t + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [m/s]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">s = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2 * t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * t [m]</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1006,6 +1231,13 @@
       <u/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="0.39994506668294322"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1363,9 +1595,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4243,64 +4475,64 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>34</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>39</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4364,7 +4596,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4373,6 +4605,183 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0DDD-4AC0-B42D-A6E06453AA3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kinematik_2_A!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s = a/2 * t2 + v0*t </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kinematik_2_A!$C$8:$W$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kinematik_2_A!$C$10:$W$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C75A-4901-BC6A-58B60A79C907}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5780,7 +6189,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Kinematik_2_B!$C$12</c:f>
+              <c:f>Kinematik_2_B!$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5875,72 +6284,72 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Kinematik_2_B!$D$12:$X$12</c:f>
+              <c:f>Kinematik_2_B!$D$11:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="16">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5986,10 +6395,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6004,7 +6413,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6053,7 +6462,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6065,10 +6474,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6077,6 +6486,183 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-464A-4071-8463-683F2D264F55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kinematik_2_B!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s = a/2 * t2 + V0 * t [m]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kinematik_2_B!$D$10:$X$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kinematik_2_B!$D$12:$X$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9277-448E-B564-711154D4E24C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7449,67 +8035,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>64</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>68</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>72</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>76</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>84</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>88</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>92</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>96</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>100</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7536,9 +8122,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="6350" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:prstDash val="lgDash"/>
               <a:round/>
@@ -7573,7 +8159,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7634,10 +8220,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7646,6 +8232,183 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2F03-4008-8D26-4BFAA6C0B2C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kinematik_2_C!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s = a/2 * t2 + V0 * t [m]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kinematik_2_C!$D$10:$X$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kinematik_2_C!$D$12:$X$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F033-410B-BADF-30FE6FE34EAB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14590,15 +15353,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>606425</xdr:colOff>
+      <xdr:colOff>612775</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>606425</xdr:colOff>
+      <xdr:colOff>612775</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14710,15 +15473,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>52294</xdr:rowOff>
+      <xdr:colOff>100239</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>72572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>440765</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>404479</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15870,15 +16633,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCC271D-EC88-4808-A4D3-B329017F8058}">
-  <dimension ref="B2:W9"/>
+  <dimension ref="B2:W10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
     <col min="4" max="4" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15898,7 +16661,7 @@
         <v>60</v>
       </c>
       <c r="F4" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>56</v>
@@ -15934,7 +16697,7 @@
       </c>
       <c r="N5">
         <f>$F$4*$K$4+$F$5</f>
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.35">
@@ -16040,83 +16803,172 @@
       </c>
       <c r="D9">
         <f t="shared" ref="D9:W9" si="1">$F$4*D8 + $F$5</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="P9">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="R9">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="S9">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="T9">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="U9">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="V9">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="W9">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <f>($F$4/2)*C8^2 + $F$5 * C8</f>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f>($F$4/2)*D8^2 + $F$5 * D8</f>
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="D10:W10" si="2">($F$4/2)*E8^2 + $F$5 * E8</f>
+        <v>44</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>224</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>261</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>341</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>384</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>429</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>476</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>525</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>576</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="2"/>
+        <v>629</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>684</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>741</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="2"/>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -16846,13 +17698,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189A19E3-B37A-474A-BC1C-D505FB6C8E4E}">
   <dimension ref="B3:X12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:24" ht="21" x14ac:dyDescent="0.5">
@@ -16872,22 +17724,22 @@
         <v>68</v>
       </c>
       <c r="L4" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N4">
         <f>L4</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O4">
         <f>L4</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
         <f>L4</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="23" customHeight="1" x14ac:dyDescent="0.5">
@@ -16896,22 +17748,22 @@
         <v>64</v>
       </c>
       <c r="H5" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
         <f>$H$5*$L$4+$H$6</f>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="R5">
         <f>H6</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S5">
         <f>R5</f>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.5">
@@ -16920,7 +17772,7 @@
         <v>65</v>
       </c>
       <c r="H6" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.5">
@@ -17020,96 +17872,182 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="C12" s="1" t="s">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="C11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D12">
+      <c r="D11">
         <f>$H$5*D10 + $H$6</f>
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ref="E12:X12" si="1">$H$5*E10 + $H$6</f>
-        <v>15</v>
-      </c>
-      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:X11" si="1">$H$5*E10 + $H$6</f>
+        <v>22</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="G12">
+        <v>24</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="H12">
+        <v>26</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="I12">
+      <c r="J11">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="J12">
+        <v>32</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="K12">
+      <c r="O11">
         <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="L12">
+        <v>42</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="M12">
+      <c r="T11">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="N12">
+        <v>52</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="X11">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
+    </row>
+    <row r="12" spans="2:24" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12">
+        <f>$H$5/2 * D10^2 + $H$6 * D10</f>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:X12" si="2">$H$5/2 * E10^2 + $H$6 * E10</f>
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>224</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>261</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
       <c r="O12">
-        <f t="shared" si="1"/>
-        <v>65</v>
+        <f t="shared" si="2"/>
+        <v>341</v>
       </c>
       <c r="P12">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <f t="shared" si="2"/>
+        <v>384</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <f t="shared" si="2"/>
+        <v>429</v>
       </c>
       <c r="R12">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f t="shared" si="2"/>
+        <v>476</v>
       </c>
       <c r="S12">
-        <f t="shared" si="1"/>
-        <v>85</v>
+        <f t="shared" si="2"/>
+        <v>525</v>
       </c>
       <c r="T12">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <f t="shared" si="2"/>
+        <v>576</v>
       </c>
       <c r="U12">
-        <f t="shared" si="1"/>
-        <v>95</v>
+        <f t="shared" si="2"/>
+        <v>629</v>
       </c>
       <c r="V12">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>684</v>
       </c>
       <c r="W12">
-        <f t="shared" si="1"/>
-        <v>105</v>
+        <f t="shared" si="2"/>
+        <v>741</v>
       </c>
       <c r="X12">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <f t="shared" si="2"/>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -17225,10 +18163,10 @@
       <c r="H11" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="49"/>
+      <c r="J11" s="50"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H12" s="19"/>
@@ -17663,10 +18601,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652866E9-C476-4655-AFFD-2F3678720FB2}">
-  <dimension ref="B2:X11"/>
+  <dimension ref="B2:X12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17682,21 +18620,21 @@
         <v>67</v>
       </c>
       <c r="Q2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="2:24" ht="16.5" x14ac:dyDescent="0.35">
       <c r="F3" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
         <v>56</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K3" s="2">
         <v>15</v>
@@ -17719,10 +18657,10 @@
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.35">
       <c r="F4" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="G4" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
         <v>59</v>
@@ -17732,15 +18670,15 @@
       </c>
       <c r="N4">
         <f>G3*K3+G4</f>
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="Q4">
         <f>G4</f>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R4">
         <f>Q4</f>
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.35">
@@ -17838,96 +18776,186 @@
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D11">
         <f>$G$3*D10+$G$4</f>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <f t="shared" ref="E11:X11" si="1">$G$3*E10+$G$4</f>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="M11">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="N11">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="P11">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="R11">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="S11">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="T11">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="U11">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="V11">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="W11">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="X11">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="C12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12">
+        <f>$G$3/2 * D10^2 + $G$4 * D10</f>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:X12" si="2">$G$3/2 * E10^2 + $G$4 * E10</f>
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>204</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>234</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>266</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>374</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="2"/>
+        <v>414</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="2"/>
+        <v>456</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -18542,25 +19570,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6644B65-9415-4C8E-AE7F-C0B8FA4247A3}">
   <dimension ref="B2:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:25" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="48" t="s">
         <v>54</v>
       </c>
       <c r="M2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T2" t="s">
         <v>74</v>
-      </c>
-      <c r="T2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="50"/>
+      <c r="B3" s="48"/>
       <c r="G3" s="1" t="s">
         <v>57</v>
       </c>
@@ -18593,7 +19621,7 @@
       </c>
     </row>
     <row r="4" spans="2:25" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="50"/>
+      <c r="B4" s="48"/>
       <c r="G4" s="1" t="s">
         <v>58</v>
       </c>
@@ -18620,7 +19648,7 @@
       </c>
     </row>
     <row r="5" spans="2:25" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="50"/>
+      <c r="B5" s="48"/>
     </row>
     <row r="6" spans="2:25" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:25" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18719,7 +19747,7 @@
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.35">
       <c r="D10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <f>$H$3*E9+$H$4</f>

--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_02_Messprotokoll.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_02_Messprotokoll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\Informatik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355510DD-6E2B-4785-8C4B-F83F498C203F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79F4BB6-B735-4A03-84AE-4F0DD35A4994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kinematik_1_A" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
   <si>
     <t>y:</t>
   </si>
@@ -1086,6 +1086,32 @@
       <t xml:space="preserve"> * t [m]</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>v = a/2 * t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + v0*t</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -3288,6 +3314,66 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>Geschwindigkeit-Zeit</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-CH" baseline="0"/>
+              <a:t> Diagramm</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-CH"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -3402,64 +3488,64 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3523,7 +3609,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3617,20 +3703,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Zeit t [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3693,6 +3820,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Geschwindigkeit v [m/s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3731,6 +3913,565 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1130405664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Weg-Zeit Diagramm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kinematik_2_D!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v = a/2 * t2 + v0*t</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kinematik_2_D!$E$9:$Y$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kinematik_2_D!$E$11:$Y$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-630D-4EC4-B2CF-F9F2CB1F2A6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="631584816"/>
+        <c:axId val="631581936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="631584816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Zeit [t]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631581936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="631581936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Strecke</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-CH" baseline="0"/>
+                  <a:t> s [m]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-CH"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631584816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8720,6 +9461,46 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10628,6 +11409,522 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15710,16 +17007,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>225425</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>225425</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15739,6 +17036,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D34ACAE9-11DB-399B-D450-179027AD2E04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16895,7 +18228,7 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="D10:W10" si="2">($F$4/2)*E8^2 + $F$5 * E8</f>
+        <f t="shared" ref="E10:W10" si="2">($F$4/2)*E8^2 + $F$5 * E8</f>
         <v>44</v>
       </c>
       <c r="F10">
@@ -18603,7 +19936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652866E9-C476-4655-AFFD-2F3678720FB2}">
   <dimension ref="B2:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -19568,10 +20901,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6644B65-9415-4C8E-AE7F-C0B8FA4247A3}">
-  <dimension ref="B2:Y10"/>
+  <dimension ref="B2:Y11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19593,7 +20926,7 @@
         <v>57</v>
       </c>
       <c r="H3" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3" t="s">
         <v>56</v>
@@ -19636,7 +20969,7 @@
       </c>
       <c r="Q4">
         <f>H3*N3+H4</f>
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="T4">
         <f>H4</f>
@@ -19755,83 +21088,172 @@
       </c>
       <c r="F10">
         <f t="shared" ref="F10:Y10" si="1">$H$3*F9+$H$4</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M10">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="P10">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="Q10">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="R10">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="S10">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="T10">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="U10">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="V10">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="W10">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="X10">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="Y10">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="D11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11">
+        <f>$H$3/2 * E9^2 + $H$4*E9</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:Y11" si="2">$H$3/2 * F9^2 + $H$4*F9</f>
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>216</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>286</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>364</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>406</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>496</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>544</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>594</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="2"/>
+        <v>646</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="2"/>
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_02_Messprotokoll.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_02_Messprotokoll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\Informatik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79F4BB6-B735-4A03-84AE-4F0DD35A4994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379826DB-5620-40C4-AEAF-893C6E939CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kinematik_1_A" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="Kinematik_2_C" sheetId="8" r:id="rId6"/>
     <sheet name="Kinematik_1_D" sheetId="2" r:id="rId7"/>
     <sheet name="Kinematik_2_D" sheetId="9" r:id="rId8"/>
+    <sheet name="Kinematik_2_Berechnungen_D" sheetId="11" r:id="rId9"/>
+    <sheet name="Tabelle3" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="111">
   <si>
     <t>y:</t>
   </si>
@@ -853,9 +855,6 @@
     <t>v = a * t + v0</t>
   </si>
   <si>
-    <t>Seknrechte Hilfslinie</t>
-  </si>
-  <si>
     <t>Vertikale Hilfslinie</t>
   </si>
   <si>
@@ -1112,12 +1111,176 @@
       <t xml:space="preserve"> + v0*t</t>
     </r>
   </si>
+  <si>
+    <t>Vertikale</t>
+  </si>
+  <si>
+    <t>Senkrechte</t>
+  </si>
+  <si>
+    <t>Senkrechte_2</t>
+  </si>
+  <si>
+    <t>Vertikale_2</t>
+  </si>
+  <si>
+    <t>t:</t>
+  </si>
+  <si>
+    <r>
+      <t>Beschleunigte Bewegung</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Kinematik II a&gt;0 und a ist konstant)</t>
+    </r>
+  </si>
+  <si>
+    <t>Anfangs
+geschwindigkeit</t>
+  </si>
+  <si>
+    <t>Geschwindigkeit</t>
+  </si>
+  <si>
+    <t>Strecke</t>
+  </si>
+  <si>
+    <t>Zeit</t>
+  </si>
+  <si>
+    <t>Beschleunigung</t>
+  </si>
+  <si>
+    <t>v0 [m/s]</t>
+  </si>
+  <si>
+    <t>v [m/s]</t>
+  </si>
+  <si>
+    <t>s [m]</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Fall</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <r>
+      <t>s = v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t + t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v = at + v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>a [m/s2]</t>
+  </si>
+  <si>
+    <t>Zelle formatieren</t>
+  </si>
+  <si>
+    <t>Ctrl-1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1268,8 +1431,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1300,8 +1471,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1544,11 +1721,258 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1624,6 +2048,108 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3385,7 +3911,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Kinematik_2_D!$D$10</c:f>
+              <c:f>Kinematik_2_D!$C$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3485,67 +4011,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>47</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>49</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>51</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>53</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>55</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3566,17 +4092,17 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Seknrechte Hilfslinie</c:v>
+                  <c:v>Senkrechte</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3586,22 +4112,22 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Kinematik_2_D!$P$3:$Q$3</c:f>
+              <c:f>Kinematik_2_D!$M$3:$N$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Kinematik_2_D!$P$4:$Q$4</c:f>
+              <c:f>Kinematik_2_D!$M$4:$N$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3609,7 +4135,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3626,7 +4152,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Kinematik_2_D!$T$2</c:f>
+              <c:f>Kinematik_2_D!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3650,7 +4176,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Kinematik_2_D!$T$3:$U$3</c:f>
+              <c:f>Kinematik_2_D!$P$3:$Q$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3658,22 +4184,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Kinematik_2_D!$T$4:$U$4</c:f>
+              <c:f>Kinematik_2_D!$P$4:$Q$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3682,6 +4208,69 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A5BB-4B4D-883F-3319D7F46756}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kinematik_2_D!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vertikale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kinematik_2_D!$S$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kinematik_2_D!$S$4:$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8020-4E87-B567-157405C2BD15}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4053,7 +4642,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Kinematik_2_D!$D$11</c:f>
+              <c:f>Kinematik_2_D!$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4156,64 +4745,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>126</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>154</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>184</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>216</c:v>
+                  <c:v>279</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>250</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>286</c:v>
+                  <c:v>407</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>324</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>364</c:v>
+                  <c:v>559</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>406</c:v>
+                  <c:v>644</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>450</c:v>
+                  <c:v>735</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>496</c:v>
+                  <c:v>832</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>544</c:v>
+                  <c:v>935</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>594</c:v>
+                  <c:v>1044</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>646</c:v>
+                  <c:v>1159</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>700</c:v>
+                  <c:v>1280</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4222,6 +4811,132 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-630D-4EC4-B2CF-F9F2CB1F2A6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kinematik_2_D!$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Senkrechte_2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kinematik_2_D!$W$3:$X$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kinematik_2_D!$W$4:$X$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5934-4A3D-AC4F-58A3941EEC57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kinematik_2_D!$Z$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vertikale_2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Kinematik_2_D!$Z$3:$AA$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Kinematik_2_D!$Z$4:$AA$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5934-4A3D-AC4F-58A3941EEC57}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4278,7 +4993,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-CH"/>
-                  <a:t>Zeit [t]</a:t>
+                  <a:t>Zeit t [s]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -17964,6 +18679,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FE41D1-469F-48ED-A592-C01745EAE5A7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCC271D-EC88-4808-A4D3-B329017F8058}">
   <dimension ref="B2:W10"/>
@@ -18217,7 +18944,7 @@
     </row>
     <row r="10" spans="2:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10">
         <f>($F$4/2)*C8^2 + $F$5 * C8</f>
@@ -19296,7 +20023,7 @@
     </row>
     <row r="12" spans="2:24" ht="16.5" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12">
         <f>$H$5/2 * D10^2 + $H$6 * D10</f>
@@ -19990,7 +20717,7 @@
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.35">
       <c r="F4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2">
         <v>5</v>
@@ -20109,7 +20836,7 @@
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11">
         <f>$G$3*D10+$G$4</f>
@@ -20198,7 +20925,7 @@
     </row>
     <row r="12" spans="2:24" ht="16.5" x14ac:dyDescent="0.35">
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12">
         <f>$G$3/2 * D10^2 + $G$4 * D10</f>
@@ -20901,364 +21628,834 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6644B65-9415-4C8E-AE7F-C0B8FA4247A3}">
-  <dimension ref="B2:Y11"/>
+  <dimension ref="B2:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:27" ht="24" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="P2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="T2" t="s">
-        <v>74</v>
-      </c>
+      <c r="Q2" s="7"/>
+      <c r="S2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="W2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" s="7"/>
+      <c r="Z2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA2" s="7"/>
     </row>
-    <row r="3" spans="2:25" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:27" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="48"/>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="39">
+        <v>8</v>
+      </c>
+      <c r="M3" s="7">
+        <f>K3</f>
+        <v>8</v>
+      </c>
+      <c r="N3" s="7">
+        <f>M3</f>
+        <v>8</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <f>K3</f>
+        <v>8</v>
+      </c>
+      <c r="S3" s="7">
+        <v>0</v>
+      </c>
+      <c r="T3" s="7">
+        <f>N3</f>
+        <v>8</v>
+      </c>
+      <c r="W3" s="7">
+        <f>Q3</f>
+        <v>8</v>
+      </c>
+      <c r="X3" s="7">
+        <f>W3</f>
+        <v>8</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="7">
+        <f>X3</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="48"/>
+      <c r="C4" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="2">
+      <c r="D4" s="61"/>
+      <c r="E4" s="51">
+        <v>6</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <f>E4*K3+E5</f>
+        <v>52</v>
+      </c>
+      <c r="P4" s="7">
+        <f>E5</f>
+        <v>4</v>
+      </c>
+      <c r="Q4" s="7">
+        <f>E5</f>
+        <v>4</v>
+      </c>
+      <c r="S4" s="7">
+        <f>N4</f>
+        <v>52</v>
+      </c>
+      <c r="T4" s="7">
+        <f>S4</f>
+        <v>52</v>
+      </c>
+      <c r="W4" s="7">
+        <v>0</v>
+      </c>
+      <c r="X4" s="7">
+        <f>$E$4/2 * $K$3^2 + $E$5*$K$3</f>
+        <v>224</v>
+      </c>
+      <c r="Z4" s="7">
+        <f>X4</f>
+        <v>224</v>
+      </c>
+      <c r="AA4" s="7">
+        <f>$E$4/2 * $K$3^2 + $E$5*$K$3</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="48"/>
+      <c r="C5" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="63"/>
+      <c r="E5" s="53">
+        <v>4</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N3" s="2">
-        <v>13</v>
-      </c>
-      <c r="P3">
-        <f>N3</f>
-        <v>13</v>
-      </c>
-      <c r="Q3">
-        <f>P3</f>
-        <v>13</v>
-      </c>
-      <c r="T3">
+      <c r="D8" s="57"/>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="C9" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="58"/>
+      <c r="E9" s="6">
         <v>0</v>
       </c>
-      <c r="U3">
-        <f>N3</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:25" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="48"/>
-      <c r="G4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="2">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>59</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <f>H3*N3+H4</f>
-        <v>41</v>
-      </c>
-      <c r="T4">
-        <f>H4</f>
-        <v>15</v>
-      </c>
-      <c r="U4">
-        <f>H4</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:25" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="48"/>
-    </row>
-    <row r="6" spans="2:25" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:25" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:25" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="D9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="F9" s="59">
         <f>E9+$E$8</f>
         <v>1</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="59">
         <f t="shared" ref="G9:Y9" si="0">F9+$E$8</f>
         <v>2</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="59">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="59">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="59">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="59">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="59">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="59">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="59">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="59">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="59">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="59">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="59">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="59">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="59">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="59">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="59">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="59">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="59">
         <f>W9+$E$8</f>
         <v>19</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="59">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="Z9" s="59">
+        <f t="shared" ref="Z9" si="1">Y9+$E$8</f>
+        <v>21</v>
+      </c>
+      <c r="AA9" s="59">
+        <f t="shared" ref="AA9" si="2">Z9+$E$8</f>
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="D10" s="1" t="s">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="C10" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="E10">
-        <f>$H$3*E9+$H$4</f>
-        <v>15</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ref="F10:Y10" si="1">$H$3*F9+$H$4</f>
-        <v>17</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="1"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="7">
+        <f>$E$4*E9+$E$5</f>
+        <v>4</v>
+      </c>
+      <c r="F10" s="7">
+        <f>$E$4*F9+$E$5</f>
+        <v>10</v>
+      </c>
+      <c r="G10" s="7">
+        <f>$E$4*G9+$E$5</f>
+        <v>16</v>
+      </c>
+      <c r="H10" s="7">
+        <f>$E$4*H9+$E$5</f>
+        <v>22</v>
+      </c>
+      <c r="I10" s="7">
+        <f>$E$4*I9+$E$5</f>
+        <v>28</v>
+      </c>
+      <c r="J10" s="7">
+        <f>$E$4*J9+$E$5</f>
+        <v>34</v>
+      </c>
+      <c r="K10" s="7">
+        <f>$E$4*K9+$E$5</f>
+        <v>40</v>
+      </c>
+      <c r="L10" s="7">
+        <f>$E$4*L9+$E$5</f>
+        <v>46</v>
+      </c>
+      <c r="M10" s="7">
+        <f>$E$4*M9+$E$5</f>
+        <v>52</v>
+      </c>
+      <c r="N10" s="7">
+        <f>$E$4*N9+$E$5</f>
+        <v>58</v>
+      </c>
+      <c r="O10" s="7">
+        <f>$E$4*O9+$E$5</f>
+        <v>64</v>
+      </c>
+      <c r="P10" s="7">
+        <f>$E$4*P9+$E$5</f>
+        <v>70</v>
+      </c>
+      <c r="Q10" s="7">
+        <f>$E$4*Q9+$E$5</f>
+        <v>76</v>
+      </c>
+      <c r="R10" s="7">
+        <f>$E$4*R9+$E$5</f>
+        <v>82</v>
+      </c>
+      <c r="S10" s="7">
+        <f>$E$4*S9+$E$5</f>
+        <v>88</v>
+      </c>
+      <c r="T10" s="7">
+        <f>$E$4*T9+$E$5</f>
+        <v>94</v>
+      </c>
+      <c r="U10" s="7">
+        <f>$E$4*U9+$E$5</f>
+        <v>100</v>
+      </c>
+      <c r="V10" s="7">
+        <f>$E$4*V9+$E$5</f>
+        <v>106</v>
+      </c>
+      <c r="W10" s="7">
+        <f>$E$4*W9+$E$5</f>
+        <v>112</v>
+      </c>
+      <c r="X10" s="7">
+        <f>$E$4*X9+$E$5</f>
+        <v>118</v>
+      </c>
+      <c r="Y10" s="7">
+        <f>$E$4*Y9+$E$5</f>
+        <v>124</v>
+      </c>
+      <c r="Z10" s="7">
+        <f t="shared" ref="Z10:AA10" si="3">$E$4*Z9+$E$5</f>
+        <v>130</v>
+      </c>
+      <c r="AA10" s="7">
+        <f t="shared" si="3"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="C11" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="55"/>
+      <c r="E11" s="7">
+        <f>$E$4/2 * E9^2 + $E$5*E9</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <f>$E$4/2 * F9^2 + $E$5*F9</f>
+        <v>7</v>
+      </c>
+      <c r="G11" s="7">
+        <f>$E$4/2 * G9^2 + $E$5*G9</f>
+        <v>20</v>
+      </c>
+      <c r="H11" s="7">
+        <f>$E$4/2 * H9^2 + $E$5*H9</f>
         <v>39</v>
       </c>
-      <c r="R10">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="2:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="D11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11">
-        <f>$H$3/2 * E9^2 + $H$4*E9</f>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ref="F11:Y11" si="2">$H$3/2 * F9^2 + $H$4*F9</f>
-        <v>16</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="2"/>
-        <v>126</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="2"/>
-        <v>154</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="2"/>
-        <v>184</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="2"/>
-        <v>216</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="2"/>
-        <v>286</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="2"/>
-        <v>324</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="2"/>
-        <v>364</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="2"/>
-        <v>406</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="2"/>
-        <v>450</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="2"/>
-        <v>496</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="2"/>
-        <v>544</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="2"/>
-        <v>594</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="2"/>
-        <v>646</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="2"/>
-        <v>700</v>
+      <c r="I11" s="7">
+        <f>$E$4/2 * I9^2 + $E$5*I9</f>
+        <v>64</v>
+      </c>
+      <c r="J11" s="7">
+        <f>$E$4/2 * J9^2 + $E$5*J9</f>
+        <v>95</v>
+      </c>
+      <c r="K11" s="7">
+        <f>$E$4/2 * K9^2 + $E$5*K9</f>
+        <v>132</v>
+      </c>
+      <c r="L11" s="7">
+        <f>$E$4/2 * L9^2 + $E$5*L9</f>
+        <v>175</v>
+      </c>
+      <c r="M11" s="7">
+        <f>$E$4/2 * M9^2 + $E$5*M9</f>
+        <v>224</v>
+      </c>
+      <c r="N11" s="7">
+        <f>$E$4/2 * N9^2 + $E$5*N9</f>
+        <v>279</v>
+      </c>
+      <c r="O11" s="7">
+        <f>$E$4/2 * O9^2 + $E$5*O9</f>
+        <v>340</v>
+      </c>
+      <c r="P11" s="7">
+        <f>$E$4/2 * P9^2 + $E$5*P9</f>
+        <v>407</v>
+      </c>
+      <c r="Q11" s="7">
+        <f>$E$4/2 * Q9^2 + $E$5*Q9</f>
+        <v>480</v>
+      </c>
+      <c r="R11" s="7">
+        <f>$E$4/2 * R9^2 + $E$5*R9</f>
+        <v>559</v>
+      </c>
+      <c r="S11" s="7">
+        <f>$E$4/2 * S9^2 + $E$5*S9</f>
+        <v>644</v>
+      </c>
+      <c r="T11" s="7">
+        <f>$E$4/2 * T9^2 + $E$5*T9</f>
+        <v>735</v>
+      </c>
+      <c r="U11" s="7">
+        <f>$E$4/2 * U9^2 + $E$5*U9</f>
+        <v>832</v>
+      </c>
+      <c r="V11" s="7">
+        <f>$E$4/2 * V9^2 + $E$5*V9</f>
+        <v>935</v>
+      </c>
+      <c r="W11" s="7">
+        <f>$E$4/2 * W9^2 + $E$5*W9</f>
+        <v>1044</v>
+      </c>
+      <c r="X11" s="7">
+        <f>$E$4/2 * X9^2 + $E$5*X9</f>
+        <v>1159</v>
+      </c>
+      <c r="Y11" s="7">
+        <f>$E$4/2 * Y9^2 + $E$5*Y9</f>
+        <v>1280</v>
+      </c>
+      <c r="Z11" s="7">
+        <f t="shared" ref="Z11:AA11" si="4">$E$4/2 * Z9^2 + $E$5*Z9</f>
+        <v>1407</v>
+      </c>
+      <c r="AA11" s="7">
+        <f t="shared" si="4"/>
+        <v>1540</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA467A4D-486D-4722-8BC0-28E89D3D0FE7}">
+  <dimension ref="B2:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" customWidth="1"/>
+    <col min="7" max="12" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="J4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="70"/>
+      <c r="E6" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="70"/>
+      <c r="G6" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="70"/>
+      <c r="I6" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="70"/>
+      <c r="K6" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="72"/>
+    </row>
+    <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="78"/>
+      <c r="G7" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="78"/>
+      <c r="I7" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="78"/>
+      <c r="K7" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="L7" s="80"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="84"/>
+      <c r="I8" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="84"/>
+      <c r="K8" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" s="85"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="81"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="81"/>
+      <c r="K9" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" s="86"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B10" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="65"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="81"/>
+      <c r="G10" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="81"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" s="86"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B11" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="65"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="81"/>
+      <c r="G11" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="81"/>
+      <c r="I11" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="81"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="66"/>
+    </row>
+    <row r="12" spans="2:12" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B12" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="87">
+        <v>10</v>
+      </c>
+      <c r="D12" s="81"/>
+      <c r="E12" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="64">
+        <f>K12*I12+C12</f>
+        <v>20</v>
+      </c>
+      <c r="G12" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="64">
+        <f>C12*I12+I12^2/2</f>
+        <v>62.5</v>
+      </c>
+      <c r="I12" s="71">
+        <v>5</v>
+      </c>
+      <c r="J12" s="81"/>
+      <c r="K12" s="71">
+        <v>2</v>
+      </c>
+      <c r="L12" s="86"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B13" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="81"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="81"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="L13" s="86"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B14" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="81"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="81"/>
+      <c r="I14" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="81"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="66"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B15" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="81"/>
+      <c r="E15" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="81"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="86"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B16" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="81"/>
+      <c r="E16" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="81"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" s="81"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="66"/>
+    </row>
+    <row r="17" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="89"/>
+      <c r="G17" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="89"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E15:F15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_02_Messprotokoll.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_02_Messprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\Informatik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379826DB-5620-40C4-AEAF-893C6E939CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34325F4F-4911-4B20-8FF2-C605F165DF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,6 @@
     <sheet name="Kinematik_1_D" sheetId="2" r:id="rId7"/>
     <sheet name="Kinematik_2_D" sheetId="9" r:id="rId8"/>
     <sheet name="Kinematik_2_Berechnungen_D" sheetId="11" r:id="rId9"/>
-    <sheet name="Tabelle3" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="115">
   <si>
     <t>y:</t>
   </si>
@@ -1086,32 +1085,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>v = a/2 * t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + v0*t</t>
-    </r>
-  </si>
-  <si>
     <t>Vertikale</t>
   </si>
   <si>
@@ -1204,29 +1177,17 @@
     <t>J</t>
   </si>
   <si>
+    <t>a [m/s2]</t>
+  </si>
+  <si>
+    <t>Zelle formatieren</t>
+  </si>
+  <si>
+    <t>Ctrl-1</t>
+  </si>
+  <si>
     <r>
-      <t>s = v</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t + t</t>
+      <t>s = a/2 * t</t>
     </r>
     <r>
       <rPr>
@@ -1247,8 +1208,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/2</t>
+      <t xml:space="preserve"> + v0*t</t>
     </r>
+  </si>
+  <si>
+    <t>v0 = v - at</t>
+  </si>
+  <si>
+    <t>a = (v - v0)/t</t>
+  </si>
+  <si>
+    <t>t = (v - v0)/a</t>
   </si>
   <si>
     <r>
@@ -1256,9 +1226,10 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1267,20 +1238,88 @@
     </r>
   </si>
   <si>
-    <t>a [m/s2]</t>
+    <r>
+      <t>s = (a/2)t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + v</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
   </si>
   <si>
-    <t>Zelle formatieren</t>
-  </si>
-  <si>
-    <t>Ctrl-1</t>
+    <r>
+      <t>v0 = (s - (a/2)t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)/t</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1435,6 +1474,72 @@
       <u/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="14"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1972,7 +2077,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2046,12 +2151,38 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2061,10 +2192,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2077,65 +2204,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2144,11 +2222,59 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4011,67 +4137,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="16">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>112</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>118</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>124</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4117,10 +4243,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4135,7 +4261,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4184,7 +4310,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4196,10 +4322,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4247,7 +4373,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4259,10 +4385,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4646,7 +4772,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>v = a/2 * t2 + v0*t</c:v>
+                  <c:v>s = a/2 * t2 + v0*t</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4745,64 +4871,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>132</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>175</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>224</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>279</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>340</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>407</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>480</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>559</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>644</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>735</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>832</c:v>
+                  <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>935</c:v>
+                  <c:v>459</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1044</c:v>
+                  <c:v>504</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1159</c:v>
+                  <c:v>551</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1280</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4847,10 +4973,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4865,7 +4991,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>224</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4913,7 +5039,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4925,10 +5051,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>224</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>224</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18679,18 +18805,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FE41D1-469F-48ED-A592-C01745EAE5A7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCC271D-EC88-4808-A4D3-B329017F8058}">
   <dimension ref="B2:W10"/>
@@ -20223,10 +20337,10 @@
       <c r="H11" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="49" t="s">
+      <c r="I11" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="50"/>
+      <c r="J11" s="65"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H12" s="19"/>
@@ -21631,7 +21745,7 @@
   <dimension ref="B2:AA11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21642,10 +21756,10 @@
   <sheetData>
     <row r="2" spans="2:27" ht="24" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N2" s="7"/>
       <c r="P2" s="7" t="s">
@@ -21653,74 +21767,74 @@
       </c>
       <c r="Q2" s="7"/>
       <c r="S2" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T2" s="7"/>
       <c r="W2" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X2" s="7"/>
       <c r="Z2" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA2" s="7"/>
     </row>
     <row r="3" spans="2:27" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="48"/>
       <c r="J3" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K3" s="39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M3" s="7">
         <f>K3</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N3" s="7">
         <f>M3</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P3" s="7">
         <v>0</v>
       </c>
       <c r="Q3" s="7">
         <f>K3</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S3" s="7">
         <v>0</v>
       </c>
       <c r="T3" s="7">
         <f>N3</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W3" s="7">
         <f>Q3</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X3" s="7">
         <f>W3</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z3" s="7">
         <v>0</v>
       </c>
       <c r="AA3" s="7">
         <f>X3</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="48"/>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="51">
-        <v>6</v>
-      </c>
-      <c r="F4" s="52" t="s">
+      <c r="D4" s="71"/>
+      <c r="E4" s="49">
+        <v>2</v>
+      </c>
+      <c r="F4" s="50" t="s">
         <v>56</v>
       </c>
       <c r="M4" s="7">
@@ -21728,60 +21842,60 @@
       </c>
       <c r="N4" s="7">
         <f>E4*K3+E5</f>
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="P4" s="7">
         <f>E5</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="7">
         <f>E5</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S4" s="7">
         <f>N4</f>
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="T4" s="7">
         <f>S4</f>
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="W4" s="7">
         <v>0</v>
       </c>
       <c r="X4" s="7">
         <f>$E$4/2 * $K$3^2 + $E$5*$K$3</f>
-        <v>224</v>
+        <v>119</v>
       </c>
       <c r="Z4" s="7">
         <f>X4</f>
-        <v>224</v>
+        <v>119</v>
       </c>
       <c r="AA4" s="7">
         <f>$E$4/2 * $K$3^2 + $E$5*$K$3</f>
-        <v>224</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="2:27" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="48"/>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="53">
-        <v>4</v>
-      </c>
-      <c r="F5" s="54" t="s">
+      <c r="D5" s="73"/>
+      <c r="E5" s="51">
+        <v>10</v>
+      </c>
+      <c r="F5" s="52" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="57"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="6">
         <v>1</v>
       </c>
@@ -21809,296 +21923,296 @@
       <c r="AA8" s="7"/>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="58"/>
+      <c r="D9" s="66"/>
       <c r="E9" s="6">
         <v>0</v>
       </c>
-      <c r="F9" s="59">
+      <c r="F9" s="53">
         <f>E9+$E$8</f>
         <v>1</v>
       </c>
-      <c r="G9" s="59">
+      <c r="G9" s="53">
         <f t="shared" ref="G9:Y9" si="0">F9+$E$8</f>
         <v>2</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="53">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I9" s="59">
+      <c r="I9" s="53">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="53">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K9" s="59">
+      <c r="K9" s="53">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L9" s="59">
+      <c r="L9" s="53">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M9" s="59">
+      <c r="M9" s="53">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="N9" s="59">
+      <c r="N9" s="53">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="O9" s="59">
+      <c r="O9" s="53">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="P9" s="59">
+      <c r="P9" s="53">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="Q9" s="59">
+      <c r="Q9" s="53">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="R9" s="59">
+      <c r="R9" s="53">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="S9" s="59">
+      <c r="S9" s="53">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="T9" s="59">
+      <c r="T9" s="53">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="U9" s="59">
+      <c r="U9" s="53">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="V9" s="59">
+      <c r="V9" s="53">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="W9" s="59">
+      <c r="W9" s="53">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="X9" s="59">
+      <c r="X9" s="53">
         <f>W9+$E$8</f>
         <v>19</v>
       </c>
-      <c r="Y9" s="59">
+      <c r="Y9" s="53">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Z9" s="59">
+      <c r="Z9" s="53">
         <f t="shared" ref="Z9" si="1">Y9+$E$8</f>
         <v>21</v>
       </c>
-      <c r="AA9" s="59">
+      <c r="AA9" s="53">
         <f t="shared" ref="AA9" si="2">Z9+$E$8</f>
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="55"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="7">
-        <f>$E$4*E9+$E$5</f>
-        <v>4</v>
+        <f t="shared" ref="E10:Y10" si="3">$E$4*E9+$E$5</f>
+        <v>10</v>
       </c>
       <c r="F10" s="7">
-        <f>$E$4*F9+$E$5</f>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="G10" s="7">
-        <f>$E$4*G9+$E$5</f>
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="H10" s="7">
-        <f>$E$4*H9+$E$5</f>
+      <c r="I10" s="7">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="I10" s="7">
-        <f>$E$4*I9+$E$5</f>
+      <c r="L10" s="7">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="M10" s="7">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="N10" s="7">
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="J10" s="7">
-        <f>$E$4*J9+$E$5</f>
+      <c r="O10" s="7">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="P10" s="7">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="Q10" s="7">
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="K10" s="7">
-        <f>$E$4*K9+$E$5</f>
+      <c r="R10" s="7">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="S10" s="7">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="T10" s="7">
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="L10" s="7">
-        <f>$E$4*L9+$E$5</f>
+      <c r="U10" s="7">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="V10" s="7">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="W10" s="7">
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="M10" s="7">
-        <f>$E$4*M9+$E$5</f>
+      <c r="X10" s="7">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="Y10" s="7">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="Z10" s="7">
+        <f t="shared" ref="Z10:AA10" si="4">$E$4*Z9+$E$5</f>
         <v>52</v>
       </c>
-      <c r="N10" s="7">
-        <f>$E$4*N9+$E$5</f>
-        <v>58</v>
-      </c>
-      <c r="O10" s="7">
-        <f>$E$4*O9+$E$5</f>
-        <v>64</v>
-      </c>
-      <c r="P10" s="7">
-        <f>$E$4*P9+$E$5</f>
-        <v>70</v>
-      </c>
-      <c r="Q10" s="7">
-        <f>$E$4*Q9+$E$5</f>
-        <v>76</v>
-      </c>
-      <c r="R10" s="7">
-        <f>$E$4*R9+$E$5</f>
-        <v>82</v>
-      </c>
-      <c r="S10" s="7">
-        <f>$E$4*S9+$E$5</f>
-        <v>88</v>
-      </c>
-      <c r="T10" s="7">
-        <f>$E$4*T9+$E$5</f>
-        <v>94</v>
-      </c>
-      <c r="U10" s="7">
-        <f>$E$4*U9+$E$5</f>
-        <v>100</v>
-      </c>
-      <c r="V10" s="7">
-        <f>$E$4*V9+$E$5</f>
-        <v>106</v>
-      </c>
-      <c r="W10" s="7">
-        <f>$E$4*W9+$E$5</f>
-        <v>112</v>
-      </c>
-      <c r="X10" s="7">
-        <f>$E$4*X9+$E$5</f>
-        <v>118</v>
-      </c>
-      <c r="Y10" s="7">
-        <f>$E$4*Y9+$E$5</f>
-        <v>124</v>
-      </c>
-      <c r="Z10" s="7">
-        <f t="shared" ref="Z10:AA10" si="3">$E$4*Z9+$E$5</f>
-        <v>130</v>
-      </c>
       <c r="AA10" s="7">
-        <f t="shared" si="3"/>
-        <v>136</v>
+        <f t="shared" si="4"/>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:27" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="C11" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="55"/>
+      <c r="C11" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="67"/>
       <c r="E11" s="7">
-        <f>$E$4/2 * E9^2 + $E$5*E9</f>
+        <f t="shared" ref="E11:Y11" si="5">$E$4/2 * E9^2 + $E$5*E9</f>
         <v>0</v>
       </c>
       <c r="F11" s="7">
-        <f>$E$4/2 * F9^2 + $E$5*F9</f>
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="G11" s="7">
-        <f>$E$4/2 * G9^2 + $E$5*G9</f>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>24</v>
       </c>
       <c r="H11" s="7">
-        <f>$E$4/2 * H9^2 + $E$5*H9</f>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="I11" s="7">
-        <f>$E$4/2 * I9^2 + $E$5*I9</f>
-        <v>64</v>
+        <f t="shared" si="5"/>
+        <v>56</v>
       </c>
       <c r="J11" s="7">
-        <f>$E$4/2 * J9^2 + $E$5*J9</f>
-        <v>95</v>
+        <f t="shared" si="5"/>
+        <v>75</v>
       </c>
       <c r="K11" s="7">
-        <f>$E$4/2 * K9^2 + $E$5*K9</f>
-        <v>132</v>
+        <f t="shared" si="5"/>
+        <v>96</v>
       </c>
       <c r="L11" s="7">
-        <f>$E$4/2 * L9^2 + $E$5*L9</f>
-        <v>175</v>
+        <f t="shared" si="5"/>
+        <v>119</v>
       </c>
       <c r="M11" s="7">
-        <f>$E$4/2 * M9^2 + $E$5*M9</f>
-        <v>224</v>
+        <f t="shared" si="5"/>
+        <v>144</v>
       </c>
       <c r="N11" s="7">
-        <f>$E$4/2 * N9^2 + $E$5*N9</f>
-        <v>279</v>
+        <f t="shared" si="5"/>
+        <v>171</v>
       </c>
       <c r="O11" s="7">
-        <f>$E$4/2 * O9^2 + $E$5*O9</f>
-        <v>340</v>
+        <f t="shared" si="5"/>
+        <v>200</v>
       </c>
       <c r="P11" s="7">
-        <f>$E$4/2 * P9^2 + $E$5*P9</f>
-        <v>407</v>
+        <f t="shared" si="5"/>
+        <v>231</v>
       </c>
       <c r="Q11" s="7">
-        <f>$E$4/2 * Q9^2 + $E$5*Q9</f>
-        <v>480</v>
+        <f t="shared" si="5"/>
+        <v>264</v>
       </c>
       <c r="R11" s="7">
-        <f>$E$4/2 * R9^2 + $E$5*R9</f>
-        <v>559</v>
+        <f t="shared" si="5"/>
+        <v>299</v>
       </c>
       <c r="S11" s="7">
-        <f>$E$4/2 * S9^2 + $E$5*S9</f>
-        <v>644</v>
+        <f t="shared" si="5"/>
+        <v>336</v>
       </c>
       <c r="T11" s="7">
-        <f>$E$4/2 * T9^2 + $E$5*T9</f>
-        <v>735</v>
+        <f t="shared" si="5"/>
+        <v>375</v>
       </c>
       <c r="U11" s="7">
-        <f>$E$4/2 * U9^2 + $E$5*U9</f>
-        <v>832</v>
+        <f t="shared" si="5"/>
+        <v>416</v>
       </c>
       <c r="V11" s="7">
-        <f>$E$4/2 * V9^2 + $E$5*V9</f>
-        <v>935</v>
+        <f t="shared" si="5"/>
+        <v>459</v>
       </c>
       <c r="W11" s="7">
-        <f>$E$4/2 * W9^2 + $E$5*W9</f>
-        <v>1044</v>
+        <f t="shared" si="5"/>
+        <v>504</v>
       </c>
       <c r="X11" s="7">
-        <f>$E$4/2 * X9^2 + $E$5*X9</f>
-        <v>1159</v>
+        <f t="shared" si="5"/>
+        <v>551</v>
       </c>
       <c r="Y11" s="7">
-        <f>$E$4/2 * Y9^2 + $E$5*Y9</f>
-        <v>1280</v>
+        <f t="shared" si="5"/>
+        <v>600</v>
       </c>
       <c r="Z11" s="7">
-        <f t="shared" ref="Z11:AA11" si="4">$E$4/2 * Z9^2 + $E$5*Z9</f>
-        <v>1407</v>
+        <f t="shared" ref="Z11:AA11" si="6">$E$4/2 * Z9^2 + $E$5*Z9</f>
+        <v>651</v>
       </c>
       <c r="AA11" s="7">
-        <f t="shared" si="4"/>
-        <v>1540</v>
+        <f t="shared" si="6"/>
+        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -22120,8 +22234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA467A4D-486D-4722-8BC0-28E89D3D0FE7}">
   <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22138,279 +22252,299 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="85"/>
+      <c r="E6" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="69" t="s">
+      <c r="F6" s="85"/>
+      <c r="G6" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="69" t="s">
+      <c r="H6" s="85"/>
+      <c r="I6" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="70"/>
-      <c r="I6" s="69" t="s">
+      <c r="J6" s="85"/>
+      <c r="K6" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" s="72"/>
+      <c r="L6" s="89"/>
     </row>
     <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="87"/>
+      <c r="E7" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="87"/>
+      <c r="G7" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="87"/>
+      <c r="I7" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="87"/>
+      <c r="K7" s="90" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" s="91"/>
+    </row>
+    <row r="8" spans="2:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="78"/>
-      <c r="G7" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="78"/>
-      <c r="I7" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="78"/>
-      <c r="K7" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="L7" s="80"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="74" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="83" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="83" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" s="84"/>
-      <c r="K8" s="83" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" s="85"/>
+      <c r="C8" s="96" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="97">
+        <f>(G8-(K8/2)*I8^2)/I8</f>
+        <v>10</v>
+      </c>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="80">
+        <v>119</v>
+      </c>
+      <c r="H8" s="81"/>
+      <c r="I8" s="80">
+        <v>7</v>
+      </c>
+      <c r="J8" s="81"/>
+      <c r="K8" s="80">
+        <v>2</v>
+      </c>
+      <c r="L8" s="83"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="81"/>
+      <c r="B9" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="54">
+        <f>E9-K9*I9</f>
+        <v>10</v>
+      </c>
+      <c r="E9" s="74">
+        <v>24</v>
+      </c>
+      <c r="F9" s="75"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="81"/>
-      <c r="K9" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="L9" s="86"/>
+      <c r="I9" s="74">
+        <v>7</v>
+      </c>
+      <c r="J9" s="75"/>
+      <c r="K9" s="74">
+        <v>2</v>
+      </c>
+      <c r="L9" s="82"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B10" s="75" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="65"/>
+      <c r="B10" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="55"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="81"/>
+      <c r="E10" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="75"/>
+      <c r="G10" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="75"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="L10" s="86"/>
+      <c r="K10" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="82"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="55"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="75"/>
+      <c r="G11" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="75"/>
+      <c r="I11" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="75"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="56"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="81"/>
-      <c r="G11" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="81"/>
-      <c r="I11" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" s="81"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="66"/>
-    </row>
-    <row r="12" spans="2:12" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B12" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="87">
+      <c r="C12" s="78">
         <v>10</v>
       </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="64">
+      <c r="D12" s="75"/>
+      <c r="E12" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="54">
         <f>K12*I12+C12</f>
-        <v>20</v>
-      </c>
-      <c r="G12" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="H12" s="64">
-        <f>C12*I12+I12^2/2</f>
-        <v>62.5</v>
-      </c>
-      <c r="I12" s="71">
-        <v>5</v>
-      </c>
-      <c r="J12" s="81"/>
-      <c r="K12" s="71">
+        <v>24</v>
+      </c>
+      <c r="G12" s="95" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="54">
+        <f>K12/2 * I12^2 + C12*I12</f>
+        <v>119</v>
+      </c>
+      <c r="I12" s="74">
+        <v>7</v>
+      </c>
+      <c r="J12" s="75"/>
+      <c r="K12" s="74">
         <v>2</v>
       </c>
-      <c r="L12" s="86"/>
+      <c r="L12" s="82"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="87" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="81"/>
+      <c r="B13" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="75"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="81"/>
+      <c r="G13" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="75"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="L13" s="86"/>
+      <c r="K13" s="74">
+        <v>2</v>
+      </c>
+      <c r="L13" s="82"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="75" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="87" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="81"/>
+      <c r="B14" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="75"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="81"/>
-      <c r="I14" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="J14" s="81"/>
+      <c r="G14" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="75"/>
+      <c r="I14" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="75"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="66"/>
+      <c r="L14" s="56"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="75" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="87" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="81"/>
-      <c r="E15" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="81"/>
+      <c r="B15" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="78">
+        <v>10</v>
+      </c>
+      <c r="D15" s="75"/>
+      <c r="E15" s="74">
+        <v>24</v>
+      </c>
+      <c r="F15" s="75"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="L15" s="86"/>
+      <c r="I15" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" s="54">
+        <f>(E15-C15)/K15</f>
+        <v>7</v>
+      </c>
+      <c r="K15" s="74">
+        <v>2</v>
+      </c>
+      <c r="L15" s="82"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B16" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="87" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="81"/>
-      <c r="E16" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="81"/>
+      <c r="B16" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="78">
+        <v>10</v>
+      </c>
+      <c r="D16" s="75"/>
+      <c r="E16" s="74">
+        <v>24</v>
+      </c>
+      <c r="F16" s="75"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="J16" s="81"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="66"/>
+      <c r="I16" s="74">
+        <v>7</v>
+      </c>
+      <c r="J16" s="75"/>
+      <c r="K16" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="63">
+        <f>(E16-C16)/I16</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="76" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="88" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="90" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="89"/>
-      <c r="G17" s="90" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" s="89"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="54"/>
+      <c r="B17" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="77"/>
+      <c r="E17" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="77"/>
+      <c r="G17" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="77"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -22422,38 +22556,38 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_02_Messprotokoll.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_02_Messprotokoll.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\Informatik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34325F4F-4911-4B20-8FF2-C605F165DF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB828DD-FFB9-4452-A9E3-5793B2261F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-18120" windowWidth="29040" windowHeight="18240" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kinematik_1_A" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Kinematik_1_D" sheetId="2" r:id="rId7"/>
     <sheet name="Kinematik_2_D" sheetId="9" r:id="rId8"/>
     <sheet name="Kinematik_2_Berechnungen_D" sheetId="11" r:id="rId9"/>
+    <sheet name="Fourierreihe" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,8 +44,56 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Landwirtschaft</author>
+  </authors>
+  <commentList>
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{C52A2570-9323-444D-93C5-26B4C6F49E76}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Lösung der Quadratischen-Gleichung mit Mitternachtsformel
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{31570081-1D60-43CC-9051-6F179B5A0C93}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anfangswert</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="124">
   <si>
     <t>y:</t>
   </si>
@@ -1177,9 +1226,6 @@
     <t>J</t>
   </si>
   <si>
-    <t>a [m/s2]</t>
-  </si>
-  <si>
     <t>Zelle formatieren</t>
   </si>
   <si>
@@ -1239,6 +1285,58 @@
   </si>
   <si>
     <r>
+      <t>a = 2((s - v0*t)/t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t = (-v0 + sqrt(v0</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + 2as))/a</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>s = (a/2)t</t>
     </r>
     <r>
@@ -1287,6 +1385,18 @@
       </rPr>
       <t>t</t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+s = (v0+v)*t/2</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1311,15 +1421,170 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)/t</t>
+      <t>)/t
+v0 = (2s/t) - v</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>a [m/s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resultierend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>y = a * sin(b*x + c)</t>
+  </si>
+  <si>
+    <t>Fourierreihe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phi [rad] = </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1544,8 +1809,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1582,8 +1892,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="39">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -2073,11 +2413,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2165,18 +2527,56 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -2204,36 +2604,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2258,24 +2628,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -5324,6 +5754,1196 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fourierreihe!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y0 =  sin(x ) = </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Fourierreihe!$I$12:$AC$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.6000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.0000000000000018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Fourierreihe!$I$13:$AC$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38941834230865052</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71735609089952279</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9320390859672264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99957360304150511</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90929742682568171</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67546318055115095</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33498815015590511</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.8374143427579642E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.44252044329485207</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.75680249530792798</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.95160207388951579</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.99616460883584068</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.88345465572015314</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.63126663787232085</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.27941549819892503</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.11654920485049453</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.49411335113860971</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.79366786384915422</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.96791967203148699</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.98935824662338157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A617-4BF7-A82C-D744D19A61BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fourierreihe!$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y0 = 0.33 * sin(3*x ) = </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Fourierreihe!$I$12:$AC$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.6000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.0000000000000018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Fourierreihe!$I$14:$AC$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3106796953224088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22515439351705019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.14750681443161762</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.33205486961194686</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.3138499399641944E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2645559546163842</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28486630269609381</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.810892707432655E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.32697874335549704</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.17885763933347881</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19735783823574099</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32188592551642597</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5917884099814099E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.29585567786050149</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.25032908225722456</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1144383096066329</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.33326430004755642</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.12708349721831227</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.2411649186814166</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.30185945400220693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A617-4BF7-A82C-D744D19A61BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fourierreihe!$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y0 = 0.2 * sin(5*x ) = </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Fourierreihe!$I$12:$AC$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.6000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.0000000000000018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Fourierreihe!$I$15:$AC$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18185948536513635</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.15136049906158566</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.5883099639785008E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19787164932467638</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.10880422217787396</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.107314583600087</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19812147113897408</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.7580663333012719E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.15019744935433521</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18258905014552526</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.7702618580800649E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.18111567240132478</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15251169009592055</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.4181157661573123E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.19760632481857227</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.11028533624833931</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.10581653722400355</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.19835577068862334</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.9273715741879777E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.14902263209586883</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A617-4BF7-A82C-D744D19A61BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fourierreihe!$G$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y0 = 0.14 * sin(7*x ) = </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Fourierreihe!$I$12:$AC$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.6000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.0000000000000018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Fourierreihe!$I$16:$AC$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7855450022272095E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.0180948267474401E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12208555829832564</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.13988253273590243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14151533652783863</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.12679529051164351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7423374295447562E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.6793669017347559E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.6011532179244834E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8700826901124634E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.2530720635104943E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11682375064663454</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.13761717492482298</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.142508202701115</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.13093164970223381</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.10422524819898045</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6.5475064927396021E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9158889663667314E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9371197200369608E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-7.4507286012414242E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A617-4BF7-A82C-D744D19A61BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fourierreihe!$G$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>yResultierend = y0 + y1 + y2 + y3 = </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Fourierreihe!$I$12:$AC$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.6000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.0000000000000018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Fourierreihe!$I$19:$AC$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92981297301846766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70096903708751301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85073473019414947</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72550785001833218</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84887004177600445</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70590926105580454</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91539929828642053</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.23085740285226647</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.91009548278675989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.71437025759475692</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.83854521814695981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.73857060507410499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.83264225644924139</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.7304329553701342</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.8582825549769556</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.44549809890444719</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.86771912348277369</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.74155448004251046</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.81539966629231986</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.76201413870462931</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A617-4BF7-A82C-D744D19A61BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="192074943"/>
+        <c:axId val="192078783"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="192074943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192078783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="192078783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192074943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -10381,6 +12001,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -12766,6 +14426,522 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17921,6 +20097,165 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Textfeld 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{019C7CDC-79FA-429A-985A-B51FE475AB30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18059400" y="6286500"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>34511</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>62948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104921</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>226927</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Pfeil nach links 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51BB0531-F171-41D2-BCAC-FC1793198301}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5298661" y="66123"/>
+          <a:ext cx="822885" cy="294154"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>82827</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>107594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>64060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B33054-7231-4A97-A9F8-31B56B694AD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -18805,6 +21140,660 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156B38E5-43C1-41D2-ADA5-A29109FD68B0}">
+  <sheetPr codeName="Tabelle15">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="C1:AC20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="4.81640625" customWidth="1"/>
+    <col min="7" max="8" width="25.54296875" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" customWidth="1"/>
+    <col min="12" max="12" width="16.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:29" ht="26" x14ac:dyDescent="0.6">
+      <c r="C2" s="121" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="3:29" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="3:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="C11" s="117" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="G11" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="116"/>
+      <c r="I11" s="115">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:29" x14ac:dyDescent="0.35">
+      <c r="C12" s="114" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="114" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="114" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="66"/>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="53">
+        <f>I12+$I$11</f>
+        <v>0.4</v>
+      </c>
+      <c r="K12" s="53">
+        <f>J12+$I$11</f>
+        <v>0.8</v>
+      </c>
+      <c r="L12" s="53">
+        <f>K12+$I$11</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="M12" s="53">
+        <f>L12+$I$11</f>
+        <v>1.6</v>
+      </c>
+      <c r="N12" s="53">
+        <f>M12+$I$11</f>
+        <v>2</v>
+      </c>
+      <c r="O12" s="53">
+        <f>N12+$I$11</f>
+        <v>2.4</v>
+      </c>
+      <c r="P12" s="53">
+        <f>O12+$I$11</f>
+        <v>2.8</v>
+      </c>
+      <c r="Q12" s="53">
+        <f>P12+$I$11</f>
+        <v>3.1999999999999997</v>
+      </c>
+      <c r="R12" s="53">
+        <f>Q12+$I$11</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="S12" s="53">
+        <f>R12+$I$11</f>
+        <v>3.9999999999999996</v>
+      </c>
+      <c r="T12" s="53">
+        <f>S12+$I$11</f>
+        <v>4.3999999999999995</v>
+      </c>
+      <c r="U12" s="53">
+        <f>T12+$I$11</f>
+        <v>4.8</v>
+      </c>
+      <c r="V12" s="53">
+        <f>U12+$I$11</f>
+        <v>5.2</v>
+      </c>
+      <c r="W12" s="53">
+        <f>V12+$I$11</f>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="X12" s="53">
+        <f>W12+$I$11</f>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="Y12" s="53">
+        <f>X12+$I$11</f>
+        <v>6.4000000000000012</v>
+      </c>
+      <c r="Z12" s="53">
+        <f>Y12+$I$11</f>
+        <v>6.8000000000000016</v>
+      </c>
+      <c r="AA12" s="53">
+        <f>Z12+$I$11</f>
+        <v>7.200000000000002</v>
+      </c>
+      <c r="AB12" s="53">
+        <f>AA12+$I$11</f>
+        <v>7.6000000000000023</v>
+      </c>
+      <c r="AC12" s="53">
+        <f>AB12+$I$11</f>
+        <v>8.0000000000000018</v>
+      </c>
+    </row>
+    <row r="13" spans="3:29" x14ac:dyDescent="0.35">
+      <c r="C13" s="111">
+        <v>1</v>
+      </c>
+      <c r="D13" s="111">
+        <v>1</v>
+      </c>
+      <c r="E13" s="111">
+        <v>0</v>
+      </c>
+      <c r="G13" s="113" t="str">
+        <f>_xlfn.CONCAT("y0 = ",IF(C13&lt;&gt;1,_xlfn.CONCAT(ROUND(C13,2)," *"),"")," sin(",IF(D13&lt;&gt;1,_xlfn.CONCAT(ROUND(D13,2),"*"),""),"x ",IF(E13&lt;&gt;0,_xlfn.CONCAT(" + ",ROUND(E13,2),""),""),") = ")</f>
+        <v xml:space="preserve">y0 =  sin(x ) = </v>
+      </c>
+      <c r="H13" s="113"/>
+      <c r="I13" s="112">
+        <f>$C$13*SIN($D$13*I12 + $E$13)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="112">
+        <f>$C$13*SIN($D$13*J12 + $E$13)</f>
+        <v>0.38941834230865052</v>
+      </c>
+      <c r="K13" s="112">
+        <f>$C$13*SIN($D$13*K12 + $E$13)</f>
+        <v>0.71735609089952279</v>
+      </c>
+      <c r="L13" s="112">
+        <f>$C$13*SIN($D$13*L12 + $E$13)</f>
+        <v>0.9320390859672264</v>
+      </c>
+      <c r="M13" s="112">
+        <f>$C$13*SIN($D$13*M12 + $E$13)</f>
+        <v>0.99957360304150511</v>
+      </c>
+      <c r="N13" s="112">
+        <f>$C$13*SIN($D$13*N12 + $E$13)</f>
+        <v>0.90929742682568171</v>
+      </c>
+      <c r="O13" s="112">
+        <f>$C$13*SIN($D$13*O12 + $E$13)</f>
+        <v>0.67546318055115095</v>
+      </c>
+      <c r="P13" s="112">
+        <f>$C$13*SIN($D$13*P12 + $E$13)</f>
+        <v>0.33498815015590511</v>
+      </c>
+      <c r="Q13" s="112">
+        <f>$C$13*SIN($D$13*Q12 + $E$13)</f>
+        <v>-5.8374143427579642E-2</v>
+      </c>
+      <c r="R13" s="112">
+        <f>$C$13*SIN($D$13*R12 + $E$13)</f>
+        <v>-0.44252044329485207</v>
+      </c>
+      <c r="S13" s="112">
+        <f>$C$13*SIN($D$13*S12 + $E$13)</f>
+        <v>-0.75680249530792798</v>
+      </c>
+      <c r="T13" s="112">
+        <f>$C$13*SIN($D$13*T12 + $E$13)</f>
+        <v>-0.95160207388951579</v>
+      </c>
+      <c r="U13" s="112">
+        <f>$C$13*SIN($D$13*U12 + $E$13)</f>
+        <v>-0.99616460883584068</v>
+      </c>
+      <c r="V13" s="112">
+        <f>$C$13*SIN($D$13*V12 + $E$13)</f>
+        <v>-0.88345465572015314</v>
+      </c>
+      <c r="W13" s="112">
+        <f>$C$13*SIN($D$13*W12 + $E$13)</f>
+        <v>-0.63126663787232085</v>
+      </c>
+      <c r="X13" s="112">
+        <f>$C$13*SIN($D$13*X12 + $E$13)</f>
+        <v>-0.27941549819892503</v>
+      </c>
+      <c r="Y13" s="112">
+        <f>$C$13*SIN($D$13*Y12 + $E$13)</f>
+        <v>0.11654920485049453</v>
+      </c>
+      <c r="Z13" s="112">
+        <f>$C$13*SIN($D$13*Z12 + $E$13)</f>
+        <v>0.49411335113860971</v>
+      </c>
+      <c r="AA13" s="112">
+        <f>$C$13*SIN($D$13*AA12 + $E$13)</f>
+        <v>0.79366786384915422</v>
+      </c>
+      <c r="AB13" s="112">
+        <f>$C$13*SIN($D$13*AB12 + $E$13)</f>
+        <v>0.96791967203148699</v>
+      </c>
+      <c r="AC13" s="112">
+        <f>$C$13*SIN($D$13*AC12 + $E$13)</f>
+        <v>0.98935824662338157</v>
+      </c>
+    </row>
+    <row r="14" spans="3:29" x14ac:dyDescent="0.35">
+      <c r="C14" s="111">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D14" s="111">
+        <v>3</v>
+      </c>
+      <c r="E14" s="111">
+        <v>0</v>
+      </c>
+      <c r="G14" s="118" t="str">
+        <f t="shared" ref="G14:G16" si="0">_xlfn.CONCAT("y0 = ",IF(C14&lt;&gt;1,_xlfn.CONCAT(ROUND(C14,2)," *"),"")," sin(",IF(D14&lt;&gt;1,_xlfn.CONCAT(ROUND(D14,2),"*"),""),"x ",IF(E14&lt;&gt;0,_xlfn.CONCAT(" + ",ROUND(E14,2),""),""),") = ")</f>
+        <v xml:space="preserve">y0 = 0.33 * sin(3*x ) = </v>
+      </c>
+      <c r="H14" s="118"/>
+      <c r="I14" s="7">
+        <f>$C$14*SIN($D$14*I12 + $E$14)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <f>$C$14*SIN($D$14*J12 + $E$14)</f>
+        <v>0.3106796953224088</v>
+      </c>
+      <c r="K14" s="7">
+        <f>$C$14*SIN($D$14*K12 + $E$14)</f>
+        <v>0.22515439351705019</v>
+      </c>
+      <c r="L14" s="7">
+        <f>$C$14*SIN($D$14*L12 + $E$14)</f>
+        <v>-0.14750681443161762</v>
+      </c>
+      <c r="M14" s="7">
+        <f>$C$14*SIN($D$14*M12 + $E$14)</f>
+        <v>-0.33205486961194686</v>
+      </c>
+      <c r="N14" s="7">
+        <f>$C$14*SIN($D$14*N12 + $E$14)</f>
+        <v>-9.3138499399641944E-2</v>
+      </c>
+      <c r="O14" s="7">
+        <f>$C$14*SIN($D$14*O12 + $E$14)</f>
+        <v>0.2645559546163842</v>
+      </c>
+      <c r="P14" s="7">
+        <f>$C$14*SIN($D$14*P12 + $E$14)</f>
+        <v>0.28486630269609381</v>
+      </c>
+      <c r="Q14" s="7">
+        <f>$C$14*SIN($D$14*Q12 + $E$14)</f>
+        <v>-5.810892707432655E-2</v>
+      </c>
+      <c r="R14" s="7">
+        <f>$C$14*SIN($D$14*R12 + $E$14)</f>
+        <v>-0.32697874335549704</v>
+      </c>
+      <c r="S14" s="7">
+        <f>$C$14*SIN($D$14*S12 + $E$14)</f>
+        <v>-0.17885763933347881</v>
+      </c>
+      <c r="T14" s="7">
+        <f>$C$14*SIN($D$14*T12 + $E$14)</f>
+        <v>0.19735783823574099</v>
+      </c>
+      <c r="U14" s="7">
+        <f>$C$14*SIN($D$14*U12 + $E$14)</f>
+        <v>0.32188592551642597</v>
+      </c>
+      <c r="V14" s="7">
+        <f>$C$14*SIN($D$14*V12 + $E$14)</f>
+        <v>3.5917884099814099E-2</v>
+      </c>
+      <c r="W14" s="7">
+        <f>$C$14*SIN($D$14*W12 + $E$14)</f>
+        <v>-0.29585567786050149</v>
+      </c>
+      <c r="X14" s="7">
+        <f>$C$14*SIN($D$14*X12 + $E$14)</f>
+        <v>-0.25032908225722456</v>
+      </c>
+      <c r="Y14" s="7">
+        <f>$C$14*SIN($D$14*Y12 + $E$14)</f>
+        <v>0.1144383096066329</v>
+      </c>
+      <c r="Z14" s="7">
+        <f>$C$14*SIN($D$14*Z12 + $E$14)</f>
+        <v>0.33326430004755642</v>
+      </c>
+      <c r="AA14" s="7">
+        <f>$C$14*SIN($D$14*AA12 + $E$14)</f>
+        <v>0.12708349721831227</v>
+      </c>
+      <c r="AB14" s="7">
+        <f>$C$14*SIN($D$14*AB12 + $E$14)</f>
+        <v>-0.2411649186814166</v>
+      </c>
+      <c r="AC14" s="7">
+        <f>$C$14*SIN($D$14*AC12 + $E$14)</f>
+        <v>-0.30185945400220693</v>
+      </c>
+    </row>
+    <row r="15" spans="3:29" x14ac:dyDescent="0.35">
+      <c r="C15" s="111">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="D15" s="111">
+        <v>5</v>
+      </c>
+      <c r="E15" s="111">
+        <v>0</v>
+      </c>
+      <c r="G15" s="119" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">y0 = 0.2 * sin(5*x ) = </v>
+      </c>
+      <c r="H15" s="119"/>
+      <c r="I15" s="7">
+        <f>$C$15*SIN($D$15*I12 + $E$15)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <f>$C$15*SIN($D$15*J12 + $E$15)</f>
+        <v>0.18185948536513635</v>
+      </c>
+      <c r="K15" s="7">
+        <f>$C$15*SIN($D$15*K12 + $E$15)</f>
+        <v>-0.15136049906158566</v>
+      </c>
+      <c r="L15" s="7">
+        <f>$C$15*SIN($D$15*L12 + $E$15)</f>
+        <v>-5.5883099639785008E-2</v>
+      </c>
+      <c r="M15" s="7">
+        <f>$C$15*SIN($D$15*M12 + $E$15)</f>
+        <v>0.19787164932467638</v>
+      </c>
+      <c r="N15" s="7">
+        <f>$C$15*SIN($D$15*N12 + $E$15)</f>
+        <v>-0.10880422217787396</v>
+      </c>
+      <c r="O15" s="7">
+        <f>$C$15*SIN($D$15*O12 + $E$15)</f>
+        <v>-0.107314583600087</v>
+      </c>
+      <c r="P15" s="7">
+        <f>$C$15*SIN($D$15*P12 + $E$15)</f>
+        <v>0.19812147113897408</v>
+      </c>
+      <c r="Q15" s="7">
+        <f>$C$15*SIN($D$15*Q12 + $E$15)</f>
+        <v>-5.7580663333012719E-2</v>
+      </c>
+      <c r="R15" s="7">
+        <f>$C$15*SIN($D$15*R12 + $E$15)</f>
+        <v>-0.15019744935433521</v>
+      </c>
+      <c r="S15" s="7">
+        <f>$C$15*SIN($D$15*S12 + $E$15)</f>
+        <v>0.18258905014552526</v>
+      </c>
+      <c r="T15" s="7">
+        <f>$C$15*SIN($D$15*T12 + $E$15)</f>
+        <v>-1.7702618580800649E-3</v>
+      </c>
+      <c r="U15" s="7">
+        <f>$C$15*SIN($D$15*U12 + $E$15)</f>
+        <v>-0.18111567240132478</v>
+      </c>
+      <c r="V15" s="7">
+        <f>$C$15*SIN($D$15*V12 + $E$15)</f>
+        <v>0.15251169009592055</v>
+      </c>
+      <c r="W15" s="7">
+        <f>$C$15*SIN($D$15*W12 + $E$15)</f>
+        <v>5.4181157661573123E-2</v>
+      </c>
+      <c r="X15" s="7">
+        <f>$C$15*SIN($D$15*X12 + $E$15)</f>
+        <v>-0.19760632481857227</v>
+      </c>
+      <c r="Y15" s="7">
+        <f>$C$15*SIN($D$15*Y12 + $E$15)</f>
+        <v>0.11028533624833931</v>
+      </c>
+      <c r="Z15" s="7">
+        <f>$C$15*SIN($D$15*Z12 + $E$15)</f>
+        <v>0.10581653722400355</v>
+      </c>
+      <c r="AA15" s="7">
+        <f>$C$15*SIN($D$15*AA12 + $E$15)</f>
+        <v>-0.19835577068862334</v>
+      </c>
+      <c r="AB15" s="7">
+        <f>$C$15*SIN($D$15*AB12 + $E$15)</f>
+        <v>5.9273715741879777E-2</v>
+      </c>
+      <c r="AC15" s="7">
+        <f>$C$15*SIN($D$15*AC12 + $E$15)</f>
+        <v>0.14902263209586883</v>
+      </c>
+    </row>
+    <row r="16" spans="3:29" x14ac:dyDescent="0.35">
+      <c r="C16" s="111">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D16" s="111">
+        <v>7</v>
+      </c>
+      <c r="E16" s="111">
+        <v>0</v>
+      </c>
+      <c r="G16" s="120" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">y0 = 0.14 * sin(7*x ) = </v>
+      </c>
+      <c r="H16" s="120"/>
+      <c r="I16" s="7">
+        <f>$C$16*SIN($D$16*I12 + $E$16)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <f>$C$16*SIN($D$16*J12 + $E$16)</f>
+        <v>4.7855450022272095E-2</v>
+      </c>
+      <c r="K16" s="7">
+        <f>$C$16*SIN($D$16*K12 + $E$16)</f>
+        <v>-9.0180948267474401E-2</v>
+      </c>
+      <c r="L16" s="7">
+        <f>$C$16*SIN($D$16*L12 + $E$16)</f>
+        <v>0.12208555829832564</v>
+      </c>
+      <c r="M16" s="7">
+        <f>$C$16*SIN($D$16*M12 + $E$16)</f>
+        <v>-0.13988253273590243</v>
+      </c>
+      <c r="N16" s="7">
+        <f>$C$16*SIN($D$16*N12 + $E$16)</f>
+        <v>0.14151533652783863</v>
+      </c>
+      <c r="O16" s="7">
+        <f>$C$16*SIN($D$16*O12 + $E$16)</f>
+        <v>-0.12679529051164351</v>
+      </c>
+      <c r="P16" s="7">
+        <f>$C$16*SIN($D$16*P12 + $E$16)</f>
+        <v>9.7423374295447562E-2</v>
+      </c>
+      <c r="Q16" s="7">
+        <f>$C$16*SIN($D$16*Q12 + $E$16)</f>
+        <v>-5.6793669017347559E-2</v>
+      </c>
+      <c r="R16" s="7">
+        <f>$C$16*SIN($D$16*R12 + $E$16)</f>
+        <v>9.6011532179244834E-3</v>
+      </c>
+      <c r="S16" s="7">
+        <f>$C$16*SIN($D$16*S12 + $E$16)</f>
+        <v>3.8700826901124634E-2</v>
+      </c>
+      <c r="T16" s="7">
+        <f>$C$16*SIN($D$16*T12 + $E$16)</f>
+        <v>-8.2530720635104943E-2</v>
+      </c>
+      <c r="U16" s="7">
+        <f>$C$16*SIN($D$16*U12 + $E$16)</f>
+        <v>0.11682375064663454</v>
+      </c>
+      <c r="V16" s="7">
+        <f>$C$16*SIN($D$16*V12 + $E$16)</f>
+        <v>-0.13761717492482298</v>
+      </c>
+      <c r="W16" s="7">
+        <f>$C$16*SIN($D$16*W12 + $E$16)</f>
+        <v>0.142508202701115</v>
+      </c>
+      <c r="X16" s="7">
+        <f>$C$16*SIN($D$16*X12 + $E$16)</f>
+        <v>-0.13093164970223381</v>
+      </c>
+      <c r="Y16" s="7">
+        <f>$C$16*SIN($D$16*Y12 + $E$16)</f>
+        <v>0.10422524819898045</v>
+      </c>
+      <c r="Z16" s="7">
+        <f>$C$16*SIN($D$16*Z12 + $E$16)</f>
+        <v>-6.5475064927396021E-2</v>
+      </c>
+      <c r="AA16" s="7">
+        <f>$C$16*SIN($D$16*AA12 + $E$16)</f>
+        <v>1.9158889663667314E-2</v>
+      </c>
+      <c r="AB16" s="7">
+        <f>$C$16*SIN($D$16*AB12 + $E$16)</f>
+        <v>2.9371197200369608E-2</v>
+      </c>
+      <c r="AC16" s="7">
+        <f>$C$16*SIN($D$16*AC12 + $E$16)</f>
+        <v>-7.4507286012414242E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="7:29" x14ac:dyDescent="0.35">
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+    </row>
+    <row r="18" spans="7:29" x14ac:dyDescent="0.35">
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+    </row>
+    <row r="19" spans="7:29" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G19" s="109" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="109"/>
+      <c r="I19" s="7">
+        <f>SUM(I13:I16)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <f>SUM(J13:J16)</f>
+        <v>0.92981297301846766</v>
+      </c>
+      <c r="K19" s="7">
+        <f>SUM(K13:K16)</f>
+        <v>0.70096903708751301</v>
+      </c>
+      <c r="L19" s="7">
+        <f>SUM(L13:L16)</f>
+        <v>0.85073473019414947</v>
+      </c>
+      <c r="M19" s="7">
+        <f>SUM(M13:M16)</f>
+        <v>0.72550785001833218</v>
+      </c>
+      <c r="N19" s="7">
+        <f>SUM(N13:N16)</f>
+        <v>0.84887004177600445</v>
+      </c>
+      <c r="O19" s="7">
+        <f>SUM(O13:O16)</f>
+        <v>0.70590926105580454</v>
+      </c>
+      <c r="P19" s="7">
+        <f>SUM(P13:P16)</f>
+        <v>0.91539929828642053</v>
+      </c>
+      <c r="Q19" s="7">
+        <f>SUM(Q13:Q16)</f>
+        <v>-0.23085740285226647</v>
+      </c>
+      <c r="R19" s="7">
+        <f>SUM(R13:R16)</f>
+        <v>-0.91009548278675989</v>
+      </c>
+      <c r="S19" s="7">
+        <f>SUM(S13:S16)</f>
+        <v>-0.71437025759475692</v>
+      </c>
+      <c r="T19" s="7">
+        <f>SUM(T13:T16)</f>
+        <v>-0.83854521814695981</v>
+      </c>
+      <c r="U19" s="7">
+        <f>SUM(U13:U16)</f>
+        <v>-0.73857060507410499</v>
+      </c>
+      <c r="V19" s="7">
+        <f>SUM(V13:V16)</f>
+        <v>-0.83264225644924139</v>
+      </c>
+      <c r="W19" s="7">
+        <f>SUM(W13:W16)</f>
+        <v>-0.7304329553701342</v>
+      </c>
+      <c r="X19" s="7">
+        <f>SUM(X13:X16)</f>
+        <v>-0.8582825549769556</v>
+      </c>
+      <c r="Y19" s="7">
+        <f>SUM(Y13:Y16)</f>
+        <v>0.44549809890444719</v>
+      </c>
+      <c r="Z19" s="7">
+        <f>SUM(Z13:Z16)</f>
+        <v>0.86771912348277369</v>
+      </c>
+      <c r="AA19" s="7">
+        <f>SUM(AA13:AA16)</f>
+        <v>0.74155448004251046</v>
+      </c>
+      <c r="AB19" s="7">
+        <f>SUM(AB13:AB16)</f>
+        <v>0.81539966629231986</v>
+      </c>
+      <c r="AC19" s="7">
+        <f>SUM(AC13:AC16)</f>
+        <v>0.76201413870462931</v>
+      </c>
+    </row>
+    <row r="20" spans="7:29" x14ac:dyDescent="0.35">
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C11:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCC271D-EC88-4808-A4D3-B329017F8058}">
   <dimension ref="B2:W10"/>
@@ -20337,10 +23326,10 @@
       <c r="H11" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="65"/>
+      <c r="J11" s="77"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H12" s="19"/>
@@ -21827,10 +24816,10 @@
     </row>
     <row r="4" spans="2:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="48"/>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="71"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="49">
         <v>2</v>
       </c>
@@ -21878,10 +24867,10 @@
     </row>
     <row r="5" spans="2:27" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="48"/>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="73"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="51">
         <v>10</v>
       </c>
@@ -21892,10 +24881,10 @@
     <row r="6" spans="2:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="69"/>
+      <c r="D8" s="81"/>
       <c r="E8" s="6">
         <v>1</v>
       </c>
@@ -21923,10 +24912,10 @@
       <c r="AA8" s="7"/>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="66"/>
+      <c r="D9" s="78"/>
       <c r="E9" s="6">
         <v>0</v>
       </c>
@@ -22020,10 +25009,10 @@
       </c>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="67"/>
+      <c r="D10" s="79"/>
       <c r="E10" s="7">
         <f t="shared" ref="E10:Y10" si="3">$E$4*E9+$E$5</f>
         <v>10</v>
@@ -22118,10 +25107,10 @@
       </c>
     </row>
     <row r="11" spans="2:27" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="C11" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="67"/>
+      <c r="C11" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="79"/>
       <c r="E11" s="7">
         <f t="shared" ref="E11:Y11" si="5">$E$4/2 * E9^2 + $E$5*E9</f>
         <v>0</v>
@@ -22231,316 +25220,348 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA467A4D-486D-4722-8BC0-28E89D3D0FE7}">
-  <dimension ref="B2:L17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA467A4D-486D-4722-8BC0-28E89D3D0FE7}">
+  <dimension ref="B2:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="B3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="10.81640625" customWidth="1"/>
-    <col min="7" max="12" width="20" customWidth="1"/>
+    <col min="7" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="23.08984375" customWidth="1"/>
+    <col min="10" max="12" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:15" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="48" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="J4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="84" t="s">
+    <row r="5" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="88" t="s">
+      <c r="D6" s="87"/>
+      <c r="E6" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="88" t="s">
+      <c r="F6" s="87"/>
+      <c r="G6" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="85"/>
-      <c r="I6" s="88" t="s">
+      <c r="H6" s="87"/>
+      <c r="I6" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="J6" s="85"/>
-      <c r="K6" s="88" t="s">
+      <c r="J6" s="87"/>
+      <c r="K6" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="L6" s="89"/>
+      <c r="L6" s="91"/>
     </row>
-    <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="88" t="str">
+        <f>O7</f>
+        <v>v0 [m/s]</v>
+      </c>
+      <c r="D7" s="89"/>
+      <c r="E7" s="92" t="str">
+        <f>O8</f>
+        <v>v [m/s]</v>
+      </c>
+      <c r="F7" s="89"/>
+      <c r="G7" s="92" t="str">
+        <f>O9</f>
+        <v>s [m]</v>
+      </c>
+      <c r="H7" s="89"/>
+      <c r="I7" s="92" t="str">
+        <f>O10</f>
+        <v>t [s]</v>
+      </c>
+      <c r="J7" s="89"/>
+      <c r="K7" s="92" t="str">
+        <f>O11</f>
+        <v>a [m/s2]</v>
+      </c>
+      <c r="L7" s="93"/>
+      <c r="O7" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="90" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="87"/>
-      <c r="K7" s="90" t="s">
-        <v>105</v>
-      </c>
-      <c r="L7" s="91"/>
     </row>
-    <row r="8" spans="2:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="59" t="s">
+    <row r="8" spans="2:15" s="71" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="B8" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="96" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="97">
+      <c r="C8" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="65">
         <f>(G8-(K8/2)*I8^2)/I8</f>
         <v>10</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="80">
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="94">
         <v>119</v>
       </c>
-      <c r="H8" s="81"/>
-      <c r="I8" s="80">
+      <c r="H8" s="100"/>
+      <c r="I8" s="94">
         <v>7</v>
       </c>
-      <c r="J8" s="81"/>
-      <c r="K8" s="80">
+      <c r="J8" s="100"/>
+      <c r="K8" s="94">
         <v>2</v>
       </c>
-      <c r="L8" s="83"/>
+      <c r="L8" s="95"/>
+      <c r="O8" s="71" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="60" t="s">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B9" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="93" t="s">
-        <v>109</v>
+      <c r="C9" s="62" t="s">
+        <v>108</v>
       </c>
       <c r="D9" s="54">
         <f>E9-K9*I9</f>
         <v>10</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="96">
         <v>24</v>
       </c>
-      <c r="F9" s="75"/>
+      <c r="F9" s="101"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="74">
+      <c r="I9" s="96">
         <v>7</v>
       </c>
-      <c r="J9" s="75"/>
-      <c r="K9" s="74">
+      <c r="J9" s="101"/>
+      <c r="K9" s="96">
         <v>2</v>
       </c>
-      <c r="L9" s="82"/>
+      <c r="L9" s="97"/>
+      <c r="O9" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B10" s="60" t="s">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B10" s="59" t="s">
         <v>97</v>
       </c>
       <c r="C10" s="55"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="74" t="s">
+      <c r="F10" s="101"/>
+      <c r="G10" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="75"/>
+      <c r="H10" s="101"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="74" t="s">
+      <c r="K10" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="L10" s="82"/>
+      <c r="L10" s="97"/>
+      <c r="O10" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="60" t="s">
+    <row r="11" spans="2:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="59" t="s">
         <v>98</v>
       </c>
       <c r="C11" s="55"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="75"/>
-      <c r="G11" s="74" t="s">
+      <c r="F11" s="101"/>
+      <c r="G11" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="75"/>
-      <c r="I11" s="74" t="s">
+      <c r="H11" s="101"/>
+      <c r="I11" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="J11" s="75"/>
+      <c r="J11" s="101"/>
       <c r="K11" s="7"/>
       <c r="L11" s="56"/>
+      <c r="O11" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="12" spans="2:12" ht="20.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="60" t="s">
+    <row r="12" spans="2:15" s="71" customFormat="1" ht="37" x14ac:dyDescent="0.35">
+      <c r="B12" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="78">
+      <c r="C12" s="103">
         <v>10</v>
       </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="92" t="s">
-        <v>112</v>
-      </c>
-      <c r="F12" s="54">
+      <c r="D12" s="102"/>
+      <c r="E12" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="68">
         <f>K12*I12+C12</f>
         <v>24</v>
       </c>
-      <c r="G12" s="95" t="s">
-        <v>113</v>
-      </c>
-      <c r="H12" s="54">
+      <c r="G12" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="68">
         <f>K12/2 * I12^2 + C12*I12</f>
         <v>119</v>
       </c>
-      <c r="I12" s="74">
+      <c r="I12" s="98">
         <v>7</v>
       </c>
-      <c r="J12" s="75"/>
-      <c r="K12" s="74">
+      <c r="J12" s="102"/>
+      <c r="K12" s="98">
         <v>2</v>
       </c>
-      <c r="L12" s="82"/>
+      <c r="L12" s="99"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="60" t="s">
+    <row r="13" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="75"/>
+      <c r="C13" s="104">
+        <v>10</v>
+      </c>
+      <c r="D13" s="101"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="75"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="74">
+      <c r="G13" s="96">
+        <v>119</v>
+      </c>
+      <c r="H13" s="101"/>
+      <c r="I13" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="54">
+        <f xml:space="preserve"> (-C13 + SQRT(C13^2 + 2*K13*G13))/K13</f>
+        <v>7</v>
+      </c>
+      <c r="K13" s="96">
         <v>2</v>
       </c>
-      <c r="L13" s="82"/>
+      <c r="L13" s="97"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="60" t="s">
+    <row r="14" spans="2:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="75"/>
+      <c r="C14" s="104">
+        <v>10</v>
+      </c>
+      <c r="D14" s="101"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" s="75"/>
-      <c r="I14" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="J14" s="75"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="56"/>
+      <c r="G14" s="96">
+        <v>119</v>
+      </c>
+      <c r="H14" s="101"/>
+      <c r="I14" s="96">
+        <v>7</v>
+      </c>
+      <c r="J14" s="101"/>
+      <c r="K14" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14" s="61">
+        <f>2*((G14-C14*I14)/I14^2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="60" t="s">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B15" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="78">
+      <c r="C15" s="104">
         <v>10</v>
       </c>
-      <c r="D15" s="75"/>
-      <c r="E15" s="74">
+      <c r="D15" s="101"/>
+      <c r="E15" s="96">
         <v>24</v>
       </c>
-      <c r="F15" s="75"/>
+      <c r="F15" s="101"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="94" t="s">
-        <v>111</v>
+      <c r="I15" s="63" t="s">
+        <v>110</v>
       </c>
       <c r="J15" s="54">
         <f>(E15-C15)/K15</f>
         <v>7</v>
       </c>
-      <c r="K15" s="74">
+      <c r="K15" s="96">
         <v>2</v>
       </c>
-      <c r="L15" s="82"/>
+      <c r="L15" s="97"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B16" s="60" t="s">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B16" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="78">
+      <c r="C16" s="104">
         <v>10</v>
       </c>
-      <c r="D16" s="75"/>
-      <c r="E16" s="74">
+      <c r="D16" s="101"/>
+      <c r="E16" s="96">
         <v>24</v>
       </c>
-      <c r="F16" s="75"/>
+      <c r="F16" s="101"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="74">
+      <c r="I16" s="96">
         <v>7</v>
       </c>
-      <c r="J16" s="75"/>
-      <c r="K16" s="94" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="63">
+      <c r="J16" s="101"/>
+      <c r="K16" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="61">
         <f>(E16-C16)/I16</f>
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="77"/>
-      <c r="E17" s="76" t="s">
+      <c r="D17" s="106"/>
+      <c r="E17" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="77"/>
-      <c r="G17" s="76" t="s">
+      <c r="F17" s="106"/>
+      <c r="G17" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="77"/>
+      <c r="H17" s="106"/>
       <c r="I17" s="57"/>
       <c r="J17" s="57"/>
       <c r="K17" s="57"/>
@@ -22548,27 +25569,9 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="G8:H8"/>
@@ -22585,11 +25588,35 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24" xr:uid="{F0227B52-6C3F-4B29-A45C-B261C0C0E4F1}">
+      <formula1>$C$7:$L$7</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_02_Messprotokoll.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_02_Messprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\Informatik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB828DD-FFB9-4452-A9E3-5793B2261F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723041A1-58D5-44B6-9D45-23EB7E3BE387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-18120" windowWidth="29040" windowHeight="18240" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,32 +68,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>admin</author>
-  </authors>
-  <commentList>
-    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{31570081-1D60-43CC-9051-6F179B5A0C93}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Anfangswert</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="133">
   <si>
     <t>y:</t>
   </si>
@@ -1562,15 +1538,6 @@
     </r>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>y = a * sin(b*x + c)</t>
   </si>
   <si>
@@ -1579,12 +1546,53 @@
   <si>
     <t xml:space="preserve">phi [rad] = </t>
   </si>
+  <si>
+    <t xml:space="preserve">phi [°] = </t>
+  </si>
+  <si>
+    <t>Show</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
+    <t>a
+Amplitude</t>
+  </si>
+  <si>
+    <t>b
+Frequenz</t>
+  </si>
+  <si>
+    <t>Hilfslinie:</t>
+  </si>
+  <si>
+    <t>c
+Phasenlage [rad]</t>
+  </si>
+  <si>
+    <t>c
+Phasenlage
+[°]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amplitude = </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1840,13 +1848,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <u/>
       <sz val="20"/>
       <color theme="1"/>
@@ -1855,7 +1856,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1922,8 +1923,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -2426,20 +2439,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2548,9 +2552,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2578,6 +2579,23 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2604,6 +2622,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2628,84 +2688,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -5812,6 +5903,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>Fourierreihe</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -5823,7 +5969,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Fourierreihe!$G$13</c:f>
+              <c:f>Fourierreihe!$J$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5833,7 +5979,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -5846,144 +5992,252 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Fourierreihe!$I$12:$AC$12</c:f>
+              <c:f>Fourierreihe!$M$12:$AY$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2000000000000002</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1999999999999997</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5999999999999996</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9999999999999996</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.3999999999999995</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.6000000000000005</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0000000000000009</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.4000000000000012</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.8000000000000016</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.200000000000002</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.6000000000000023</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.0000000000000018</c:v>
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Fourierreihe!$I$13:$AC$13</c:f>
+              <c:f>Fourierreihe!$M$14:$AY$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38941834230865052</c:v>
+                  <c:v>0.17364817766693033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71735609089952279</c:v>
+                  <c:v>0.34202014332566871</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9320390859672264</c:v>
+                  <c:v>0.49999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99957360304150511</c:v>
+                  <c:v>0.64278760968653925</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90929742682568171</c:v>
+                  <c:v>0.76604444311897801</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.67546318055115095</c:v>
+                  <c:v>0.8660254037844386</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33498815015590511</c:v>
+                  <c:v>0.93969262078590832</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5.8374143427579642E-2</c:v>
+                  <c:v>0.98480775301220802</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.44252044329485207</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.75680249530792798</c:v>
+                  <c:v>0.98480775301220802</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.95160207388951579</c:v>
+                  <c:v>0.93969262078590843</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.99616460883584068</c:v>
+                  <c:v>0.86602540378443871</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.88345465572015314</c:v>
+                  <c:v>0.76604444311897801</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.63126663787232085</c:v>
+                  <c:v>0.64278760968653947</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.27941549819892503</c:v>
+                  <c:v>0.49999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.11654920485049453</c:v>
+                  <c:v>0.34202014332566888</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.49411335113860971</c:v>
+                  <c:v>0.17364817766693028</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.79366786384915422</c:v>
+                  <c:v>1.22514845490862E-16</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.96791967203148699</c:v>
+                  <c:v>-0.17364817766693047</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.98935824662338157</c:v>
+                  <c:v>-0.34202014332566866</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.50000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.64278760968653925</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.7660444431189779</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.86602540378443837</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.93969262078590821</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.98480775301220802</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.98480775301220813</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.93969262078590854</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.8660254037844386</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.76604444311897812</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.64278760968653958</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.50000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.3420201433256686</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.17364817766693127</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.45029690981724E-16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.17364817766692991</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.34202014332566893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6000,7 +6254,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Fourierreihe!$G$14</c:f>
+              <c:f>Fourierreihe!$J$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6016,6 +6270,7 @@
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -6025,144 +6280,252 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Fourierreihe!$I$12:$AC$12</c:f>
+              <c:f>Fourierreihe!$M$12:$AY$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2000000000000002</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1999999999999997</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5999999999999996</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9999999999999996</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.3999999999999995</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.6000000000000005</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0000000000000009</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.4000000000000012</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.8000000000000016</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.200000000000002</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.6000000000000023</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.0000000000000018</c:v>
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Fourierreihe!$I$14:$AC$14</c:f>
+              <c:f>Fourierreihe!$M$15:$AY$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3106796953224088</c:v>
+                  <c:v>0.16666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22515439351705019</c:v>
+                  <c:v>0.28867513459481287</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.14750681443161762</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.33205486961194686</c:v>
+                  <c:v>0.28867513459481287</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.3138499399641944E-2</c:v>
+                  <c:v>0.16666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2645559546163842</c:v>
+                  <c:v>4.083828183028733E-17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28486630269609381</c:v>
+                  <c:v>-0.16666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5.810892707432655E-2</c:v>
+                  <c:v>-0.28867513459481275</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.32697874335549704</c:v>
+                  <c:v>-0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.17885763933347881</c:v>
+                  <c:v>-0.28867513459481287</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.19735783823574099</c:v>
+                  <c:v>-0.16666666666666655</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.32188592551642597</c:v>
+                  <c:v>-8.1676563660574659E-17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.5917884099814099E-2</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.29585567786050149</c:v>
+                  <c:v>0.28867513459481275</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.25032908225722456</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1144383096066329</c:v>
+                  <c:v>0.28867513459481303</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.33326430004755642</c:v>
+                  <c:v>0.16666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.12708349721831227</c:v>
+                  <c:v>1.22514845490862E-16</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.2411649186814166</c:v>
+                  <c:v>-0.16666666666666688</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.30185945400220693</c:v>
+                  <c:v>-0.28867513459481287</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.28867513459481275</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.16666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.6335312732114932E-16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.16666666666666635</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.28867513459481287</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28867513459481309</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.16666666666666718</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0419140915143666E-16</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.1666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.28867513459481253</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.28867513459481275</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.16666666666666774</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.45029690981724E-16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.16666666666666627</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.28867513459481314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6179,7 +6542,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Fourierreihe!$G$15</c:f>
+              <c:f>Fourierreihe!$J$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6195,6 +6558,7 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -6204,144 +6568,252 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Fourierreihe!$I$12:$AC$12</c:f>
+              <c:f>Fourierreihe!$M$12:$AY$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2000000000000002</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1999999999999997</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5999999999999996</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9999999999999996</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.3999999999999995</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.6000000000000005</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0000000000000009</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.4000000000000012</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.8000000000000016</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.200000000000002</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.6000000000000023</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.0000000000000018</c:v>
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Fourierreihe!$I$15:$AC$15</c:f>
+              <c:f>Fourierreihe!$M$16:$AY$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18185948536513635</c:v>
+                  <c:v>0.15320888862379561</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.15136049906158566</c:v>
+                  <c:v>0.19696155060244161</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.5883099639785008E-2</c:v>
+                  <c:v>0.10000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19787164932467638</c:v>
+                  <c:v>-6.8404028665133731E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.10880422217787396</c:v>
+                  <c:v>-0.18793852415718171</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.107314583600087</c:v>
+                  <c:v>-0.17320508075688781</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19812147113897408</c:v>
+                  <c:v>-3.472963553338608E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5.7580663333012719E-2</c:v>
+                  <c:v>0.12855752193730782</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.15019744935433521</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.18258905014552526</c:v>
+                  <c:v>0.12855752193730782</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.7702618580800649E-3</c:v>
+                  <c:v>-3.4729635533385955E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.18111567240132478</c:v>
+                  <c:v>-0.17320508075688756</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.15251169009592055</c:v>
+                  <c:v>-0.18793852415718162</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.4181157661573123E-2</c:v>
+                  <c:v>-6.8404028665133773E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.19760632481857227</c:v>
+                  <c:v>0.10000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.11028533624833931</c:v>
+                  <c:v>0.19696155060244161</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.10581653722400355</c:v>
+                  <c:v>0.15320888862379556</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.19835577068862334</c:v>
+                  <c:v>1.22514845490862E-16</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.9273715741879777E-2</c:v>
+                  <c:v>-0.15320888862379586</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.14902263209586883</c:v>
+                  <c:v>-0.19696155060244158</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.10000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.8404028665133537E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.18793852415718154</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.17320508075688806</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.4729635533386899E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.12855752193730816</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.12855752193730791</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4729635533385143E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.1732050807568879</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.18793852415718168</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.8404028665133884E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-9.99999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.19696155060244167</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.15320888862379611</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.45029690981724E-16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.15320888862379578</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19696155060244147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6358,7 +6830,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Fourierreihe!$G$16</c:f>
+              <c:f>Fourierreihe!$J$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6375,6 +6847,7 @@
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -6384,144 +6857,252 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Fourierreihe!$I$12:$AC$12</c:f>
+              <c:f>Fourierreihe!$M$12:$AY$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2000000000000002</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1999999999999997</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5999999999999996</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9999999999999996</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.3999999999999995</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.6000000000000005</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0000000000000009</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.4000000000000012</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.8000000000000016</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.200000000000002</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.6000000000000023</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.0000000000000018</c:v>
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Fourierreihe!$I$16:$AC$16</c:f>
+              <c:f>Fourierreihe!$M$17:$AY$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7855450022272095E-2</c:v>
+                  <c:v>0.13424180296941546</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.0180948267474401E-2</c:v>
+                  <c:v>9.1826801383791345E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12208555829832564</c:v>
+                  <c:v>-7.1428571428571383E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.13988253273590243</c:v>
+                  <c:v>-0.14068682185888687</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14151533652783863</c:v>
+                  <c:v>-2.4806882523847197E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.12679529051164351</c:v>
+                  <c:v>0.12371791482634834</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.7423374295447562E-2</c:v>
+                  <c:v>0.10943492044556839</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5.6793669017347559E-2</c:v>
+                  <c:v>-4.8860020475095425E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.6011532179244834E-3</c:v>
+                  <c:v>-0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.8700826901124634E-2</c:v>
+                  <c:v>-4.8860020475095543E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-8.2530720635104943E-2</c:v>
+                  <c:v>0.10943492044556831</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.11682375064663454</c:v>
+                  <c:v>0.12371791482634846</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.13761717492482298</c:v>
+                  <c:v>-2.4806882523847079E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.142508202701115</c:v>
+                  <c:v>-0.14068682185888681</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.13093164970223381</c:v>
+                  <c:v>-7.1428571428571438E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.10422524819898045</c:v>
+                  <c:v>9.1826801383791151E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6.5475064927396021E-2</c:v>
+                  <c:v>0.13424180296941546</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9158889663667314E-2</c:v>
+                  <c:v>1.22514845490862E-16</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.9371197200369608E-2</c:v>
+                  <c:v>-0.13424180296941554</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-7.4507286012414242E-2</c:v>
+                  <c:v>-9.1826801383791345E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.1428571428571661E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.14068682185888684</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.4806882523847319E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.12371791482634821</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.10943492044556863</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.8860020475095314E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.8860020475096133E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.10943492044556806</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.12371791482634839</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4806882523847454E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.14068682185888678</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.142857142857155E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-9.1826801383791457E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.13424180296941565</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.45029690981724E-16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.13424180296941515</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.182680138379104E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6538,7 +7119,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Fourierreihe!$G$19</c:f>
+              <c:f>Fourierreihe!$J$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6548,7 +7129,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -6561,144 +7142,252 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Fourierreihe!$I$12:$AC$12</c:f>
+              <c:f>Fourierreihe!$M$12:$AY$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2000000000000002</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1999999999999997</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5999999999999996</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9999999999999996</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.3999999999999995</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.6000000000000005</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0000000000000009</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.4000000000000012</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.8000000000000016</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.200000000000002</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.6000000000000023</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.0000000000000018</c:v>
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Fourierreihe!$I$19:$AC$19</c:f>
+              <c:f>Fourierreihe!$M$20:$AY$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92981297301846766</c:v>
+                  <c:v>0.62776553592680795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.70096903708751301</c:v>
+                  <c:v>0.91948362990671439</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85073473019414947</c:v>
+                  <c:v>0.86190476190476195</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.72550785001833218</c:v>
+                  <c:v>0.72237189375733157</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.84887004177600445</c:v>
+                  <c:v>0.71996570310461572</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70590926105580454</c:v>
+                  <c:v>0.81653823785389912</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.91539929828642053</c:v>
+                  <c:v>0.847731239031424</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.23085740285226647</c:v>
+                  <c:v>0.7758301198796077</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.91009548278675989</c:v>
+                  <c:v>0.7238095238095239</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.71437025759475692</c:v>
+                  <c:v>0.77583011987960748</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.83854521814695981</c:v>
+                  <c:v>0.84773123903142433</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.73857060507410499</c:v>
+                  <c:v>0.81653823785389945</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.83264225644924139</c:v>
+                  <c:v>0.71996570310461594</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.7304329553701342</c:v>
+                  <c:v>0.72237189375733168</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.8582825549769556</c:v>
+                  <c:v>0.86190476190476195</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.44549809890444719</c:v>
+                  <c:v>0.91948362990671473</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.86771912348277369</c:v>
+                  <c:v>0.62776553592680784</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.74155448004251046</c:v>
+                  <c:v>4.90059381963448E-16</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.81539966629231986</c:v>
+                  <c:v>-0.62776553592680884</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.76201413870462931</c:v>
+                  <c:v>-0.91948362990671439</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.86190476190476195</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.72237189375733168</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.71996570310461572</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.81653823785389867</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.84773123903142356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.77583011987960804</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.7238095238095239</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.77583011987960671</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.84773123903142422</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.8165382378538989</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.71996570310461527</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.72237189375733146</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.86190476190476184</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.91948362990671439</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.62776553592681084</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-9.8011876392689601E-16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.62776553592680706</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.91948362990671462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6707,6 +7396,74 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A617-4BF7-A82C-D744D19A61BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fourierreihe!$S$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hilfslinie:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd type="none"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Fourierreihe!$W$5:$X$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>270</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Fourierreihe!$W$6:$X$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CB1-4989-AFCF-57F354435AF9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6742,7 +7499,46 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Winkel phi [°]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6835,6 +7631,37 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Amplitude</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="de-CH"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6864,7 +7691,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -20101,9 +20928,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -20156,13 +20983,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>34511</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>62948</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>104921</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>226927</xdr:rowOff>
@@ -20218,15 +21045,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>82827</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>107594</xdr:rowOff>
+      <xdr:colOff>86002</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>64060</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21141,656 +21968,1534 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156B38E5-43C1-41D2-ADA5-A29109FD68B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156B38E5-43C1-41D2-ADA5-A29109FD68B0}">
   <sheetPr codeName="Tabelle15">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="C1:AC20"/>
+  <dimension ref="C1:AY21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="S49" sqref="S49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="4.81640625" customWidth="1"/>
-    <col min="7" max="8" width="25.54296875" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" customWidth="1"/>
-    <col min="12" max="12" width="16.90625" customWidth="1"/>
+    <col min="3" max="6" width="13.81640625" customWidth="1"/>
+    <col min="7" max="9" width="3.26953125" customWidth="1"/>
+    <col min="10" max="10" width="25.54296875" customWidth="1"/>
+    <col min="11" max="11" width="19.90625" customWidth="1"/>
+    <col min="12" max="12" width="9.7265625" customWidth="1"/>
+    <col min="13" max="51" width="6.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:29" ht="26" x14ac:dyDescent="0.6">
-      <c r="C2" s="121" t="s">
+    <row r="1" spans="3:51" ht="21.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:51" ht="26" x14ac:dyDescent="0.6">
+      <c r="C2" s="81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="3:51" x14ac:dyDescent="0.35">
+      <c r="R4" s="7"/>
+      <c r="S4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+    </row>
+    <row r="5" spans="3:51" x14ac:dyDescent="0.35">
+      <c r="R5" s="7"/>
+      <c r="S5" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="T5" s="123">
+        <f>MAX(K14:K20)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7">
+        <f>K12</f>
+        <v>270</v>
+      </c>
+      <c r="X5" s="7">
+        <f>W5</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="3:51" x14ac:dyDescent="0.35">
+      <c r="R6" s="7"/>
+      <c r="S6" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="T6" s="123">
+        <f>MIN(K14:K20)</f>
+        <v>-1</v>
+      </c>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7">
+        <v>0</v>
+      </c>
+      <c r="X6" s="7">
+        <f>T7</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:51" x14ac:dyDescent="0.35">
+      <c r="Q7" s="126"/>
+      <c r="R7" s="150" t="s">
+        <v>132</v>
+      </c>
+      <c r="S7" s="85"/>
+      <c r="T7" s="7">
+        <f>IF(ABS(T5)&gt;ABS(T6),T5,T6)</f>
+        <v>-1</v>
+      </c>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="AI7" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="3:51" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q8" s="126"/>
+      <c r="R8" s="138"/>
+      <c r="S8" s="137"/>
+      <c r="AI8" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="3:51" ht="21" x14ac:dyDescent="0.35">
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="L11" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="114">
+        <v>10</v>
+      </c>
+      <c r="N11" s="151"/>
+      <c r="O11" s="151"/>
+      <c r="P11" s="151"/>
+      <c r="Q11" s="151"/>
+      <c r="R11" s="151"/>
+      <c r="S11" s="151"/>
+      <c r="T11" s="151"/>
+      <c r="U11" s="151"/>
+      <c r="V11" s="151"/>
+      <c r="W11" s="151"/>
+      <c r="X11" s="151"/>
+      <c r="Y11" s="151"/>
+      <c r="Z11" s="151"/>
+      <c r="AA11" s="151"/>
+      <c r="AB11" s="151"/>
+      <c r="AC11" s="151"/>
+      <c r="AD11" s="151"/>
+      <c r="AE11" s="151"/>
+      <c r="AF11" s="151"/>
+      <c r="AG11" s="151"/>
+      <c r="AH11" s="151"/>
+      <c r="AI11" s="151"/>
+      <c r="AJ11" s="151"/>
+      <c r="AK11" s="151"/>
+      <c r="AL11" s="151"/>
+      <c r="AM11" s="151"/>
+      <c r="AN11" s="151"/>
+      <c r="AO11" s="151"/>
+      <c r="AP11" s="151"/>
+      <c r="AQ11" s="151"/>
+      <c r="AR11" s="151"/>
+      <c r="AS11" s="151"/>
+      <c r="AT11" s="151"/>
+      <c r="AU11" s="151"/>
+      <c r="AV11" s="151"/>
+      <c r="AW11" s="151"/>
+      <c r="AX11" s="151"/>
+      <c r="AY11" s="151"/>
+    </row>
+    <row r="12" spans="3:51" s="70" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="C12" s="148" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="J12" s="127" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" s="75">
+        <v>270</v>
+      </c>
+      <c r="L12" s="135" t="s">
         <v>122</v>
       </c>
+      <c r="M12" s="75">
+        <v>0</v>
+      </c>
+      <c r="N12" s="152">
+        <f>M12+$M$11</f>
+        <v>10</v>
+      </c>
+      <c r="O12" s="152">
+        <f t="shared" ref="O12:BL12" si="0">N12+$M$11</f>
+        <v>20</v>
+      </c>
+      <c r="P12" s="152">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="Q12" s="152">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="R12" s="152">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="S12" s="152">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="T12" s="152">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="U12" s="152">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="V12" s="152">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="W12" s="152">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="X12" s="152">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="Y12" s="152">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="Z12" s="152">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="AA12" s="152">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="AB12" s="152">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="AC12" s="152">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="AD12" s="152">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="AE12" s="152">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="AF12" s="152">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="AG12" s="152">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="AH12" s="152">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="AI12" s="152">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="AJ12" s="152">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="AK12" s="152">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="AL12" s="152">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="AM12" s="152">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="AN12" s="152">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="AO12" s="152">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="AP12" s="152">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="AQ12" s="152">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="AR12" s="152">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+      <c r="AS12" s="152">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="AT12" s="152">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+      <c r="AU12" s="152">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="AV12" s="152">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="AW12" s="152">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="AX12" s="152">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="AY12" s="152">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
     </row>
-    <row r="8" spans="3:29" ht="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="3:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="C11" s="117" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="G11" s="116" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="116"/>
-      <c r="I11" s="115">
-        <v>0.4</v>
+    <row r="13" spans="3:51" s="70" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C13" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="132" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="132" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="132" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="147" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" s="140">
+        <f t="shared" ref="K13" si="1">PI()*K12/180</f>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="L13" s="136"/>
+      <c r="M13" s="139">
+        <f>PI()*M12/180</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="139">
+        <f t="shared" ref="N13:AY13" si="2">PI()*N12/180</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="O13" s="139">
+        <f t="shared" si="2"/>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="P13" s="139">
+        <f t="shared" si="2"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="Q13" s="139">
+        <f t="shared" si="2"/>
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="R13" s="139">
+        <f t="shared" si="2"/>
+        <v>0.87266462599716477</v>
+      </c>
+      <c r="S13" s="139">
+        <f t="shared" si="2"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="T13" s="139">
+        <f t="shared" si="2"/>
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="U13" s="139">
+        <f t="shared" si="2"/>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="V13" s="139">
+        <f t="shared" si="2"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="W13" s="139">
+        <f t="shared" si="2"/>
+        <v>1.7453292519943295</v>
+      </c>
+      <c r="X13" s="139">
+        <f t="shared" si="2"/>
+        <v>1.9198621771937625</v>
+      </c>
+      <c r="Y13" s="139">
+        <f t="shared" si="2"/>
+        <v>2.0943951023931953</v>
+      </c>
+      <c r="Z13" s="139">
+        <f t="shared" si="2"/>
+        <v>2.2689280275926285</v>
+      </c>
+      <c r="AA13" s="139">
+        <f t="shared" si="2"/>
+        <v>2.4434609527920612</v>
+      </c>
+      <c r="AB13" s="139">
+        <f t="shared" si="2"/>
+        <v>2.6179938779914944</v>
+      </c>
+      <c r="AC13" s="139">
+        <f t="shared" si="2"/>
+        <v>2.7925268031909272</v>
+      </c>
+      <c r="AD13" s="139">
+        <f t="shared" si="2"/>
+        <v>2.9670597283903604</v>
+      </c>
+      <c r="AE13" s="139">
+        <f t="shared" si="2"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="AF13" s="139">
+        <f t="shared" si="2"/>
+        <v>3.3161255787892263</v>
+      </c>
+      <c r="AG13" s="139">
+        <f t="shared" si="2"/>
+        <v>3.4906585039886591</v>
+      </c>
+      <c r="AH13" s="139">
+        <f t="shared" si="2"/>
+        <v>3.6651914291880923</v>
+      </c>
+      <c r="AI13" s="139">
+        <f t="shared" si="2"/>
+        <v>3.839724354387525</v>
+      </c>
+      <c r="AJ13" s="139">
+        <f t="shared" si="2"/>
+        <v>4.0142572795869578</v>
+      </c>
+      <c r="AK13" s="139">
+        <f t="shared" si="2"/>
+        <v>4.1887902047863905</v>
+      </c>
+      <c r="AL13" s="139">
+        <f t="shared" si="2"/>
+        <v>4.3633231299858233</v>
+      </c>
+      <c r="AM13" s="139">
+        <f t="shared" si="2"/>
+        <v>4.5378560551852569</v>
+      </c>
+      <c r="AN13" s="139">
+        <f t="shared" si="2"/>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="AO13" s="139">
+        <f t="shared" si="2"/>
+        <v>4.8869219055841224</v>
+      </c>
+      <c r="AP13" s="139">
+        <f t="shared" si="2"/>
+        <v>5.0614548307835552</v>
+      </c>
+      <c r="AQ13" s="139">
+        <f t="shared" si="2"/>
+        <v>5.2359877559829888</v>
+      </c>
+      <c r="AR13" s="139">
+        <f t="shared" si="2"/>
+        <v>5.4105206811824216</v>
+      </c>
+      <c r="AS13" s="139">
+        <f t="shared" si="2"/>
+        <v>5.5850536063818543</v>
+      </c>
+      <c r="AT13" s="139">
+        <f t="shared" si="2"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="AU13" s="139">
+        <f t="shared" si="2"/>
+        <v>5.9341194567807207</v>
+      </c>
+      <c r="AV13" s="139">
+        <f t="shared" si="2"/>
+        <v>6.1086523819801526</v>
+      </c>
+      <c r="AW13" s="139">
+        <f t="shared" si="2"/>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="AX13" s="139">
+        <f t="shared" si="2"/>
+        <v>6.457718232379019</v>
+      </c>
+      <c r="AY13" s="139">
+        <f t="shared" si="2"/>
+        <v>6.6322511575784526</v>
       </c>
     </row>
-    <row r="12" spans="3:29" x14ac:dyDescent="0.35">
-      <c r="C12" s="114" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="114" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="114" t="s">
-        <v>118</v>
-      </c>
-      <c r="G12" s="66" t="s">
+    <row r="14" spans="3:51" x14ac:dyDescent="0.35">
+      <c r="C14" s="79">
+        <v>1</v>
+      </c>
+      <c r="D14" s="79">
+        <v>1</v>
+      </c>
+      <c r="E14" s="79">
+        <v>0</v>
+      </c>
+      <c r="F14" s="149">
+        <f>PI()*E14/180</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="128" t="str">
+        <f>_xlfn.CONCAT("y0 = ",IF(C14&lt;&gt;1,_xlfn.CONCAT(ROUND(C14,2)," *"),"")," sin(",IF(D14&lt;&gt;1,_xlfn.CONCAT(ROUND(D14,2),"*"),""),"x ",IF(F14&lt;&gt;0,_xlfn.CONCAT(" + ",ROUND(F14,2),""),""),") = ")</f>
+        <v xml:space="preserve">y0 =  sin(x ) = </v>
+      </c>
+      <c r="K14" s="141">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*K13 + $F$14),"")</f>
+        <v>-1</v>
+      </c>
+      <c r="L14" s="116" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="66"/>
-      <c r="I12" s="6">
+      <c r="M14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*M13 + $F$14),"")</f>
         <v>0</v>
       </c>
-      <c r="J12" s="53">
-        <f>I12+$I$11</f>
-        <v>0.4</v>
-      </c>
-      <c r="K12" s="53">
-        <f>J12+$I$11</f>
-        <v>0.8</v>
-      </c>
-      <c r="L12" s="53">
-        <f>K12+$I$11</f>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="M12" s="53">
-        <f>L12+$I$11</f>
-        <v>1.6</v>
-      </c>
-      <c r="N12" s="53">
-        <f>M12+$I$11</f>
-        <v>2</v>
-      </c>
-      <c r="O12" s="53">
-        <f>N12+$I$11</f>
-        <v>2.4</v>
-      </c>
-      <c r="P12" s="53">
-        <f>O12+$I$11</f>
-        <v>2.8</v>
-      </c>
-      <c r="Q12" s="53">
-        <f>P12+$I$11</f>
-        <v>3.1999999999999997</v>
-      </c>
-      <c r="R12" s="53">
-        <f>Q12+$I$11</f>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="S12" s="53">
-        <f>R12+$I$11</f>
-        <v>3.9999999999999996</v>
-      </c>
-      <c r="T12" s="53">
-        <f>S12+$I$11</f>
-        <v>4.3999999999999995</v>
-      </c>
-      <c r="U12" s="53">
-        <f>T12+$I$11</f>
-        <v>4.8</v>
-      </c>
-      <c r="V12" s="53">
-        <f>U12+$I$11</f>
-        <v>5.2</v>
-      </c>
-      <c r="W12" s="53">
-        <f>V12+$I$11</f>
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="X12" s="53">
-        <f>W12+$I$11</f>
-        <v>6.0000000000000009</v>
-      </c>
-      <c r="Y12" s="53">
-        <f>X12+$I$11</f>
-        <v>6.4000000000000012</v>
-      </c>
-      <c r="Z12" s="53">
-        <f>Y12+$I$11</f>
-        <v>6.8000000000000016</v>
-      </c>
-      <c r="AA12" s="53">
-        <f>Z12+$I$11</f>
-        <v>7.200000000000002</v>
-      </c>
-      <c r="AB12" s="53">
-        <f>AA12+$I$11</f>
-        <v>7.6000000000000023</v>
-      </c>
-      <c r="AC12" s="53">
-        <f>AB12+$I$11</f>
-        <v>8.0000000000000018</v>
+      <c r="N14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*N13 + $F$14),"")</f>
+        <v>0.17364817766693033</v>
+      </c>
+      <c r="O14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*O13 + $F$14),"")</f>
+        <v>0.34202014332566871</v>
+      </c>
+      <c r="P14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*P13 + $F$14),"")</f>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="Q14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*Q13 + $F$14),"")</f>
+        <v>0.64278760968653925</v>
+      </c>
+      <c r="R14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*R13 + $F$14),"")</f>
+        <v>0.76604444311897801</v>
+      </c>
+      <c r="S14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*S13 + $F$14),"")</f>
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="T14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*T13 + $F$14),"")</f>
+        <v>0.93969262078590832</v>
+      </c>
+      <c r="U14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*U13 + $F$14),"")</f>
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="V14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*V13 + $F$14),"")</f>
+        <v>1</v>
+      </c>
+      <c r="W14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*W13 + $F$14),"")</f>
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="X14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*X13 + $F$14),"")</f>
+        <v>0.93969262078590843</v>
+      </c>
+      <c r="Y14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*Y13 + $F$14),"")</f>
+        <v>0.86602540378443871</v>
+      </c>
+      <c r="Z14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*Z13 + $F$14),"")</f>
+        <v>0.76604444311897801</v>
+      </c>
+      <c r="AA14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AA13 + $F$14),"")</f>
+        <v>0.64278760968653947</v>
+      </c>
+      <c r="AB14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AB13 + $F$14),"")</f>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="AC14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AC13 + $F$14),"")</f>
+        <v>0.34202014332566888</v>
+      </c>
+      <c r="AD14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AD13 + $F$14),"")</f>
+        <v>0.17364817766693028</v>
+      </c>
+      <c r="AE14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AE13 + $F$14),"")</f>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="AF14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AF13 + $F$14),"")</f>
+        <v>-0.17364817766693047</v>
+      </c>
+      <c r="AG14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AG13 + $F$14),"")</f>
+        <v>-0.34202014332566866</v>
+      </c>
+      <c r="AH14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AH13 + $F$14),"")</f>
+        <v>-0.50000000000000011</v>
+      </c>
+      <c r="AI14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AI13 + $F$14),"")</f>
+        <v>-0.64278760968653925</v>
+      </c>
+      <c r="AJ14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AJ13 + $F$14),"")</f>
+        <v>-0.7660444431189779</v>
+      </c>
+      <c r="AK14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AK13 + $F$14),"")</f>
+        <v>-0.86602540378443837</v>
+      </c>
+      <c r="AL14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AL13 + $F$14),"")</f>
+        <v>-0.93969262078590821</v>
+      </c>
+      <c r="AM14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AM13 + $F$14),"")</f>
+        <v>-0.98480775301220802</v>
+      </c>
+      <c r="AN14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AN13 + $F$14),"")</f>
+        <v>-1</v>
+      </c>
+      <c r="AO14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AO13 + $F$14),"")</f>
+        <v>-0.98480775301220813</v>
+      </c>
+      <c r="AP14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AP13 + $F$14),"")</f>
+        <v>-0.93969262078590854</v>
+      </c>
+      <c r="AQ14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AQ13 + $F$14),"")</f>
+        <v>-0.8660254037844386</v>
+      </c>
+      <c r="AR14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AR13 + $F$14),"")</f>
+        <v>-0.76604444311897812</v>
+      </c>
+      <c r="AS14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AS13 + $F$14),"")</f>
+        <v>-0.64278760968653958</v>
+      </c>
+      <c r="AT14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AT13 + $F$14),"")</f>
+        <v>-0.50000000000000044</v>
+      </c>
+      <c r="AU14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AU13 + $F$14),"")</f>
+        <v>-0.3420201433256686</v>
+      </c>
+      <c r="AV14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AV13 + $F$14),"")</f>
+        <v>-0.17364817766693127</v>
+      </c>
+      <c r="AW14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AW13 + $F$14),"")</f>
+        <v>-2.45029690981724E-16</v>
+      </c>
+      <c r="AX14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AX13 + $F$14),"")</f>
+        <v>0.17364817766692991</v>
+      </c>
+      <c r="AY14" s="122">
+        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AY13 + $F$14),"")</f>
+        <v>0.34202014332566893</v>
       </c>
     </row>
-    <row r="13" spans="3:29" x14ac:dyDescent="0.35">
-      <c r="C13" s="111">
-        <v>1</v>
-      </c>
-      <c r="D13" s="111">
-        <v>1</v>
-      </c>
-      <c r="E13" s="111">
-        <v>0</v>
-      </c>
-      <c r="G13" s="113" t="str">
-        <f>_xlfn.CONCAT("y0 = ",IF(C13&lt;&gt;1,_xlfn.CONCAT(ROUND(C13,2)," *"),"")," sin(",IF(D13&lt;&gt;1,_xlfn.CONCAT(ROUND(D13,2),"*"),""),"x ",IF(E13&lt;&gt;0,_xlfn.CONCAT(" + ",ROUND(E13,2),""),""),") = ")</f>
-        <v xml:space="preserve">y0 =  sin(x ) = </v>
-      </c>
-      <c r="H13" s="113"/>
-      <c r="I13" s="112">
-        <f>$C$13*SIN($D$13*I12 + $E$13)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="112">
-        <f>$C$13*SIN($D$13*J12 + $E$13)</f>
-        <v>0.38941834230865052</v>
-      </c>
-      <c r="K13" s="112">
-        <f>$C$13*SIN($D$13*K12 + $E$13)</f>
-        <v>0.71735609089952279</v>
-      </c>
-      <c r="L13" s="112">
-        <f>$C$13*SIN($D$13*L12 + $E$13)</f>
-        <v>0.9320390859672264</v>
-      </c>
-      <c r="M13" s="112">
-        <f>$C$13*SIN($D$13*M12 + $E$13)</f>
-        <v>0.99957360304150511</v>
-      </c>
-      <c r="N13" s="112">
-        <f>$C$13*SIN($D$13*N12 + $E$13)</f>
-        <v>0.90929742682568171</v>
-      </c>
-      <c r="O13" s="112">
-        <f>$C$13*SIN($D$13*O12 + $E$13)</f>
-        <v>0.67546318055115095</v>
-      </c>
-      <c r="P13" s="112">
-        <f>$C$13*SIN($D$13*P12 + $E$13)</f>
-        <v>0.33498815015590511</v>
-      </c>
-      <c r="Q13" s="112">
-        <f>$C$13*SIN($D$13*Q12 + $E$13)</f>
-        <v>-5.8374143427579642E-2</v>
-      </c>
-      <c r="R13" s="112">
-        <f>$C$13*SIN($D$13*R12 + $E$13)</f>
-        <v>-0.44252044329485207</v>
-      </c>
-      <c r="S13" s="112">
-        <f>$C$13*SIN($D$13*S12 + $E$13)</f>
-        <v>-0.75680249530792798</v>
-      </c>
-      <c r="T13" s="112">
-        <f>$C$13*SIN($D$13*T12 + $E$13)</f>
-        <v>-0.95160207388951579</v>
-      </c>
-      <c r="U13" s="112">
-        <f>$C$13*SIN($D$13*U12 + $E$13)</f>
-        <v>-0.99616460883584068</v>
-      </c>
-      <c r="V13" s="112">
-        <f>$C$13*SIN($D$13*V12 + $E$13)</f>
-        <v>-0.88345465572015314</v>
-      </c>
-      <c r="W13" s="112">
-        <f>$C$13*SIN($D$13*W12 + $E$13)</f>
-        <v>-0.63126663787232085</v>
-      </c>
-      <c r="X13" s="112">
-        <f>$C$13*SIN($D$13*X12 + $E$13)</f>
-        <v>-0.27941549819892503</v>
-      </c>
-      <c r="Y13" s="112">
-        <f>$C$13*SIN($D$13*Y12 + $E$13)</f>
-        <v>0.11654920485049453</v>
-      </c>
-      <c r="Z13" s="112">
-        <f>$C$13*SIN($D$13*Z12 + $E$13)</f>
-        <v>0.49411335113860971</v>
-      </c>
-      <c r="AA13" s="112">
-        <f>$C$13*SIN($D$13*AA12 + $E$13)</f>
-        <v>0.79366786384915422</v>
-      </c>
-      <c r="AB13" s="112">
-        <f>$C$13*SIN($D$13*AB12 + $E$13)</f>
-        <v>0.96791967203148699</v>
-      </c>
-      <c r="AC13" s="112">
-        <f>$C$13*SIN($D$13*AC12 + $E$13)</f>
-        <v>0.98935824662338157</v>
-      </c>
-    </row>
-    <row r="14" spans="3:29" x14ac:dyDescent="0.35">
-      <c r="C14" s="111">
+    <row r="15" spans="3:51" x14ac:dyDescent="0.35">
+      <c r="C15" s="79">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D14" s="111">
+      <c r="D15" s="79">
         <v>3</v>
       </c>
-      <c r="E14" s="111">
+      <c r="E15" s="79">
         <v>0</v>
       </c>
-      <c r="G14" s="118" t="str">
-        <f t="shared" ref="G14:G16" si="0">_xlfn.CONCAT("y0 = ",IF(C14&lt;&gt;1,_xlfn.CONCAT(ROUND(C14,2)," *"),"")," sin(",IF(D14&lt;&gt;1,_xlfn.CONCAT(ROUND(D14,2),"*"),""),"x ",IF(E14&lt;&gt;0,_xlfn.CONCAT(" + ",ROUND(E14,2),""),""),") = ")</f>
+      <c r="F15" s="149">
+        <f t="shared" ref="F15:F17" si="3">PI()*E15/180</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="129" t="str">
+        <f t="shared" ref="J15:J17" si="4">_xlfn.CONCAT("y0 = ",IF(C15&lt;&gt;1,_xlfn.CONCAT(ROUND(C15,2)," *"),"")," sin(",IF(D15&lt;&gt;1,_xlfn.CONCAT(ROUND(D15,2),"*"),""),"x ",IF(F15&lt;&gt;0,_xlfn.CONCAT(" + ",ROUND(F15,2),""),""),") = ")</f>
         <v xml:space="preserve">y0 = 0.33 * sin(3*x ) = </v>
       </c>
-      <c r="H14" s="118"/>
-      <c r="I14" s="7">
-        <f>$C$14*SIN($D$14*I12 + $E$14)</f>
+      <c r="K15" s="142">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*K13 + $F$15),"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L15" s="117" t="s">
+        <v>123</v>
+      </c>
+      <c r="M15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*M13 + $F$15),"")</f>
         <v>0</v>
       </c>
-      <c r="J14" s="7">
-        <f>$C$14*SIN($D$14*J12 + $E$14)</f>
-        <v>0.3106796953224088</v>
-      </c>
-      <c r="K14" s="7">
-        <f>$C$14*SIN($D$14*K12 + $E$14)</f>
-        <v>0.22515439351705019</v>
-      </c>
-      <c r="L14" s="7">
-        <f>$C$14*SIN($D$14*L12 + $E$14)</f>
-        <v>-0.14750681443161762</v>
-      </c>
-      <c r="M14" s="7">
-        <f>$C$14*SIN($D$14*M12 + $E$14)</f>
-        <v>-0.33205486961194686</v>
-      </c>
-      <c r="N14" s="7">
-        <f>$C$14*SIN($D$14*N12 + $E$14)</f>
-        <v>-9.3138499399641944E-2</v>
-      </c>
-      <c r="O14" s="7">
-        <f>$C$14*SIN($D$14*O12 + $E$14)</f>
-        <v>0.2645559546163842</v>
-      </c>
-      <c r="P14" s="7">
-        <f>$C$14*SIN($D$14*P12 + $E$14)</f>
-        <v>0.28486630269609381</v>
-      </c>
-      <c r="Q14" s="7">
-        <f>$C$14*SIN($D$14*Q12 + $E$14)</f>
-        <v>-5.810892707432655E-2</v>
-      </c>
-      <c r="R14" s="7">
-        <f>$C$14*SIN($D$14*R12 + $E$14)</f>
-        <v>-0.32697874335549704</v>
-      </c>
-      <c r="S14" s="7">
-        <f>$C$14*SIN($D$14*S12 + $E$14)</f>
-        <v>-0.17885763933347881</v>
-      </c>
-      <c r="T14" s="7">
-        <f>$C$14*SIN($D$14*T12 + $E$14)</f>
-        <v>0.19735783823574099</v>
-      </c>
-      <c r="U14" s="7">
-        <f>$C$14*SIN($D$14*U12 + $E$14)</f>
-        <v>0.32188592551642597</v>
-      </c>
-      <c r="V14" s="7">
-        <f>$C$14*SIN($D$14*V12 + $E$14)</f>
-        <v>3.5917884099814099E-2</v>
-      </c>
-      <c r="W14" s="7">
-        <f>$C$14*SIN($D$14*W12 + $E$14)</f>
-        <v>-0.29585567786050149</v>
-      </c>
-      <c r="X14" s="7">
-        <f>$C$14*SIN($D$14*X12 + $E$14)</f>
-        <v>-0.25032908225722456</v>
-      </c>
-      <c r="Y14" s="7">
-        <f>$C$14*SIN($D$14*Y12 + $E$14)</f>
-        <v>0.1144383096066329</v>
-      </c>
-      <c r="Z14" s="7">
-        <f>$C$14*SIN($D$14*Z12 + $E$14)</f>
-        <v>0.33326430004755642</v>
-      </c>
-      <c r="AA14" s="7">
-        <f>$C$14*SIN($D$14*AA12 + $E$14)</f>
-        <v>0.12708349721831227</v>
-      </c>
-      <c r="AB14" s="7">
-        <f>$C$14*SIN($D$14*AB12 + $E$14)</f>
-        <v>-0.2411649186814166</v>
-      </c>
-      <c r="AC14" s="7">
-        <f>$C$14*SIN($D$14*AC12 + $E$14)</f>
-        <v>-0.30185945400220693</v>
+      <c r="N15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*N13 + $F$15),"")</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="O15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*O13 + $F$15),"")</f>
+        <v>0.28867513459481287</v>
+      </c>
+      <c r="P15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*P13 + $F$15),"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*Q13 + $F$15),"")</f>
+        <v>0.28867513459481287</v>
+      </c>
+      <c r="R15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*R13 + $F$15),"")</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="S15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*S13 + $F$15),"")</f>
+        <v>4.083828183028733E-17</v>
+      </c>
+      <c r="T15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*T13 + $F$15),"")</f>
+        <v>-0.16666666666666657</v>
+      </c>
+      <c r="U15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*U13 + $F$15),"")</f>
+        <v>-0.28867513459481275</v>
+      </c>
+      <c r="V15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*V13 + $F$15),"")</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="W15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*W13 + $F$15),"")</f>
+        <v>-0.28867513459481287</v>
+      </c>
+      <c r="X15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*X13 + $F$15),"")</f>
+        <v>-0.16666666666666655</v>
+      </c>
+      <c r="Y15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*Y13 + $F$15),"")</f>
+        <v>-8.1676563660574659E-17</v>
+      </c>
+      <c r="Z15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*Z13 + $F$15),"")</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AA15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AA13 + $F$15),"")</f>
+        <v>0.28867513459481275</v>
+      </c>
+      <c r="AB15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AB13 + $F$15),"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AC15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AC13 + $F$15),"")</f>
+        <v>0.28867513459481303</v>
+      </c>
+      <c r="AD15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AD13 + $F$15),"")</f>
+        <v>0.16666666666666657</v>
+      </c>
+      <c r="AE15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AE13 + $F$15),"")</f>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="AF15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AF13 + $F$15),"")</f>
+        <v>-0.16666666666666688</v>
+      </c>
+      <c r="AG15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AG13 + $F$15),"")</f>
+        <v>-0.28867513459481287</v>
+      </c>
+      <c r="AH15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AH13 + $F$15),"")</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="AI15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AI13 + $F$15),"")</f>
+        <v>-0.28867513459481275</v>
+      </c>
+      <c r="AJ15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AJ13 + $F$15),"")</f>
+        <v>-0.16666666666666663</v>
+      </c>
+      <c r="AK15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AK13 + $F$15),"")</f>
+        <v>-1.6335312732114932E-16</v>
+      </c>
+      <c r="AL15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AL13 + $F$15),"")</f>
+        <v>0.16666666666666635</v>
+      </c>
+      <c r="AM15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AM13 + $F$15),"")</f>
+        <v>0.28867513459481287</v>
+      </c>
+      <c r="AN15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AN13 + $F$15),"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AO15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AO13 + $F$15),"")</f>
+        <v>0.28867513459481309</v>
+      </c>
+      <c r="AP15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AP13 + $F$15),"")</f>
+        <v>0.16666666666666718</v>
+      </c>
+      <c r="AQ15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AQ13 + $F$15),"")</f>
+        <v>2.0419140915143666E-16</v>
+      </c>
+      <c r="AR15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AR13 + $F$15),"")</f>
+        <v>-0.1666666666666663</v>
+      </c>
+      <c r="AS15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AS13 + $F$15),"")</f>
+        <v>-0.28867513459481253</v>
+      </c>
+      <c r="AT15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AT13 + $F$15),"")</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="AU15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AU13 + $F$15),"")</f>
+        <v>-0.28867513459481275</v>
+      </c>
+      <c r="AV15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AV13 + $F$15),"")</f>
+        <v>-0.16666666666666774</v>
+      </c>
+      <c r="AW15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AW13 + $F$15),"")</f>
+        <v>-2.45029690981724E-16</v>
+      </c>
+      <c r="AX15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AX13 + $F$15),"")</f>
+        <v>0.16666666666666627</v>
+      </c>
+      <c r="AY15" s="123">
+        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AY13 + $F$15),"")</f>
+        <v>0.28867513459481314</v>
       </c>
     </row>
-    <row r="15" spans="3:29" x14ac:dyDescent="0.35">
-      <c r="C15" s="111">
+    <row r="16" spans="3:51" x14ac:dyDescent="0.35">
+      <c r="C16" s="79">
         <f>1/5</f>
         <v>0.2</v>
       </c>
-      <c r="D15" s="111">
+      <c r="D16" s="79">
         <v>5</v>
       </c>
-      <c r="E15" s="111">
+      <c r="E16" s="79">
         <v>0</v>
       </c>
-      <c r="G15" s="119" t="str">
-        <f t="shared" si="0"/>
+      <c r="F16" s="149">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="130" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">y0 = 0.2 * sin(5*x ) = </v>
       </c>
-      <c r="H15" s="119"/>
-      <c r="I15" s="7">
-        <f>$C$15*SIN($D$15*I12 + $E$15)</f>
+      <c r="K16" s="143">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*K13 + $F$16),"")</f>
+        <v>-0.2</v>
+      </c>
+      <c r="L16" s="118" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*M13 + $F$16),"")</f>
         <v>0</v>
       </c>
-      <c r="J15" s="7">
-        <f>$C$15*SIN($D$15*J12 + $E$15)</f>
-        <v>0.18185948536513635</v>
-      </c>
-      <c r="K15" s="7">
-        <f>$C$15*SIN($D$15*K12 + $E$15)</f>
-        <v>-0.15136049906158566</v>
-      </c>
-      <c r="L15" s="7">
-        <f>$C$15*SIN($D$15*L12 + $E$15)</f>
-        <v>-5.5883099639785008E-2</v>
-      </c>
-      <c r="M15" s="7">
-        <f>$C$15*SIN($D$15*M12 + $E$15)</f>
-        <v>0.19787164932467638</v>
-      </c>
-      <c r="N15" s="7">
-        <f>$C$15*SIN($D$15*N12 + $E$15)</f>
-        <v>-0.10880422217787396</v>
-      </c>
-      <c r="O15" s="7">
-        <f>$C$15*SIN($D$15*O12 + $E$15)</f>
-        <v>-0.107314583600087</v>
-      </c>
-      <c r="P15" s="7">
-        <f>$C$15*SIN($D$15*P12 + $E$15)</f>
-        <v>0.19812147113897408</v>
-      </c>
-      <c r="Q15" s="7">
-        <f>$C$15*SIN($D$15*Q12 + $E$15)</f>
-        <v>-5.7580663333012719E-2</v>
-      </c>
-      <c r="R15" s="7">
-        <f>$C$15*SIN($D$15*R12 + $E$15)</f>
-        <v>-0.15019744935433521</v>
-      </c>
-      <c r="S15" s="7">
-        <f>$C$15*SIN($D$15*S12 + $E$15)</f>
-        <v>0.18258905014552526</v>
-      </c>
-      <c r="T15" s="7">
-        <f>$C$15*SIN($D$15*T12 + $E$15)</f>
-        <v>-1.7702618580800649E-3</v>
-      </c>
-      <c r="U15" s="7">
-        <f>$C$15*SIN($D$15*U12 + $E$15)</f>
-        <v>-0.18111567240132478</v>
-      </c>
-      <c r="V15" s="7">
-        <f>$C$15*SIN($D$15*V12 + $E$15)</f>
-        <v>0.15251169009592055</v>
-      </c>
-      <c r="W15" s="7">
-        <f>$C$15*SIN($D$15*W12 + $E$15)</f>
-        <v>5.4181157661573123E-2</v>
-      </c>
-      <c r="X15" s="7">
-        <f>$C$15*SIN($D$15*X12 + $E$15)</f>
-        <v>-0.19760632481857227</v>
-      </c>
-      <c r="Y15" s="7">
-        <f>$C$15*SIN($D$15*Y12 + $E$15)</f>
-        <v>0.11028533624833931</v>
-      </c>
-      <c r="Z15" s="7">
-        <f>$C$15*SIN($D$15*Z12 + $E$15)</f>
-        <v>0.10581653722400355</v>
-      </c>
-      <c r="AA15" s="7">
-        <f>$C$15*SIN($D$15*AA12 + $E$15)</f>
-        <v>-0.19835577068862334</v>
-      </c>
-      <c r="AB15" s="7">
-        <f>$C$15*SIN($D$15*AB12 + $E$15)</f>
-        <v>5.9273715741879777E-2</v>
-      </c>
-      <c r="AC15" s="7">
-        <f>$C$15*SIN($D$15*AC12 + $E$15)</f>
-        <v>0.14902263209586883</v>
+      <c r="N16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*N13 + $F$16),"")</f>
+        <v>0.15320888862379561</v>
+      </c>
+      <c r="O16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*O13 + $F$16),"")</f>
+        <v>0.19696155060244161</v>
+      </c>
+      <c r="P16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*P13 + $F$16),"")</f>
+        <v>0.10000000000000007</v>
+      </c>
+      <c r="Q16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*Q13 + $F$16),"")</f>
+        <v>-6.8404028665133731E-2</v>
+      </c>
+      <c r="R16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*R13 + $F$16),"")</f>
+        <v>-0.18793852415718171</v>
+      </c>
+      <c r="S16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*S13 + $F$16),"")</f>
+        <v>-0.17320508075688781</v>
+      </c>
+      <c r="T16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*T13 + $F$16),"")</f>
+        <v>-3.472963553338608E-2</v>
+      </c>
+      <c r="U16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*U13 + $F$16),"")</f>
+        <v>0.12855752193730782</v>
+      </c>
+      <c r="V16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*V13 + $F$16),"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="W16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*W13 + $F$16),"")</f>
+        <v>0.12855752193730782</v>
+      </c>
+      <c r="X16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*X13 + $F$16),"")</f>
+        <v>-3.4729635533385955E-2</v>
+      </c>
+      <c r="Y16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*Y13 + $F$16),"")</f>
+        <v>-0.17320508075688756</v>
+      </c>
+      <c r="Z16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*Z13 + $F$16),"")</f>
+        <v>-0.18793852415718162</v>
+      </c>
+      <c r="AA16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AA13 + $F$16),"")</f>
+        <v>-6.8404028665133773E-2</v>
+      </c>
+      <c r="AB16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AB13 + $F$16),"")</f>
+        <v>0.10000000000000012</v>
+      </c>
+      <c r="AC16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AC13 + $F$16),"")</f>
+        <v>0.19696155060244161</v>
+      </c>
+      <c r="AD16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AD13 + $F$16),"")</f>
+        <v>0.15320888862379556</v>
+      </c>
+      <c r="AE16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AE13 + $F$16),"")</f>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="AF16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AF13 + $F$16),"")</f>
+        <v>-0.15320888862379586</v>
+      </c>
+      <c r="AG16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AG13 + $F$16),"")</f>
+        <v>-0.19696155060244158</v>
+      </c>
+      <c r="AH16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AH13 + $F$16),"")</f>
+        <v>-0.10000000000000003</v>
+      </c>
+      <c r="AI16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AI13 + $F$16),"")</f>
+        <v>6.8404028665133537E-2</v>
+      </c>
+      <c r="AJ16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AJ13 + $F$16),"")</f>
+        <v>0.18793852415718154</v>
+      </c>
+      <c r="AK16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AK13 + $F$16),"")</f>
+        <v>0.17320508075688806</v>
+      </c>
+      <c r="AL16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AL13 + $F$16),"")</f>
+        <v>3.4729635533386899E-2</v>
+      </c>
+      <c r="AM16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AM13 + $F$16),"")</f>
+        <v>-0.12855752193730816</v>
+      </c>
+      <c r="AN16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AN13 + $F$16),"")</f>
+        <v>-0.2</v>
+      </c>
+      <c r="AO16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AO13 + $F$16),"")</f>
+        <v>-0.12855752193730791</v>
+      </c>
+      <c r="AP16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AP13 + $F$16),"")</f>
+        <v>3.4729635533385143E-2</v>
+      </c>
+      <c r="AQ16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AQ13 + $F$16),"")</f>
+        <v>0.1732050807568879</v>
+      </c>
+      <c r="AR16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AR13 + $F$16),"")</f>
+        <v>0.18793852415718168</v>
+      </c>
+      <c r="AS16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AS13 + $F$16),"")</f>
+        <v>6.8404028665133884E-2</v>
+      </c>
+      <c r="AT16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AT13 + $F$16),"")</f>
+        <v>-9.99999999999997E-2</v>
+      </c>
+      <c r="AU16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AU13 + $F$16),"")</f>
+        <v>-0.19696155060244167</v>
+      </c>
+      <c r="AV16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AV13 + $F$16),"")</f>
+        <v>-0.15320888862379611</v>
+      </c>
+      <c r="AW16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AW13 + $F$16),"")</f>
+        <v>-2.45029690981724E-16</v>
+      </c>
+      <c r="AX16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AX13 + $F$16),"")</f>
+        <v>0.15320888862379578</v>
+      </c>
+      <c r="AY16" s="123">
+        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AY13 + $F$16),"")</f>
+        <v>0.19696155060244147</v>
       </c>
     </row>
-    <row r="16" spans="3:29" x14ac:dyDescent="0.35">
-      <c r="C16" s="111">
+    <row r="17" spans="3:51" x14ac:dyDescent="0.35">
+      <c r="C17" s="79">
         <f>1/7</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="D16" s="111">
+      <c r="D17" s="79">
         <v>7</v>
       </c>
-      <c r="E16" s="111">
+      <c r="E17" s="79">
         <v>0</v>
       </c>
-      <c r="G16" s="120" t="str">
-        <f t="shared" si="0"/>
+      <c r="F17" s="149">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="131" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">y0 = 0.14 * sin(7*x ) = </v>
       </c>
-      <c r="H16" s="120"/>
-      <c r="I16" s="7">
-        <f>$C$16*SIN($D$16*I12 + $E$16)</f>
+      <c r="K17" s="144">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*K13 + $F$17),"")</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="L17" s="119" t="s">
+        <v>123</v>
+      </c>
+      <c r="M17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*M13 + $F$17),"")</f>
         <v>0</v>
       </c>
-      <c r="J16" s="7">
-        <f>$C$16*SIN($D$16*J12 + $E$16)</f>
-        <v>4.7855450022272095E-2</v>
-      </c>
-      <c r="K16" s="7">
-        <f>$C$16*SIN($D$16*K12 + $E$16)</f>
-        <v>-9.0180948267474401E-2</v>
-      </c>
-      <c r="L16" s="7">
-        <f>$C$16*SIN($D$16*L12 + $E$16)</f>
-        <v>0.12208555829832564</v>
-      </c>
-      <c r="M16" s="7">
-        <f>$C$16*SIN($D$16*M12 + $E$16)</f>
-        <v>-0.13988253273590243</v>
-      </c>
-      <c r="N16" s="7">
-        <f>$C$16*SIN($D$16*N12 + $E$16)</f>
-        <v>0.14151533652783863</v>
-      </c>
-      <c r="O16" s="7">
-        <f>$C$16*SIN($D$16*O12 + $E$16)</f>
-        <v>-0.12679529051164351</v>
-      </c>
-      <c r="P16" s="7">
-        <f>$C$16*SIN($D$16*P12 + $E$16)</f>
-        <v>9.7423374295447562E-2</v>
-      </c>
-      <c r="Q16" s="7">
-        <f>$C$16*SIN($D$16*Q12 + $E$16)</f>
-        <v>-5.6793669017347559E-2</v>
-      </c>
-      <c r="R16" s="7">
-        <f>$C$16*SIN($D$16*R12 + $E$16)</f>
-        <v>9.6011532179244834E-3</v>
-      </c>
-      <c r="S16" s="7">
-        <f>$C$16*SIN($D$16*S12 + $E$16)</f>
-        <v>3.8700826901124634E-2</v>
-      </c>
-      <c r="T16" s="7">
-        <f>$C$16*SIN($D$16*T12 + $E$16)</f>
-        <v>-8.2530720635104943E-2</v>
-      </c>
-      <c r="U16" s="7">
-        <f>$C$16*SIN($D$16*U12 + $E$16)</f>
-        <v>0.11682375064663454</v>
-      </c>
-      <c r="V16" s="7">
-        <f>$C$16*SIN($D$16*V12 + $E$16)</f>
-        <v>-0.13761717492482298</v>
-      </c>
-      <c r="W16" s="7">
-        <f>$C$16*SIN($D$16*W12 + $E$16)</f>
-        <v>0.142508202701115</v>
-      </c>
-      <c r="X16" s="7">
-        <f>$C$16*SIN($D$16*X12 + $E$16)</f>
-        <v>-0.13093164970223381</v>
-      </c>
-      <c r="Y16" s="7">
-        <f>$C$16*SIN($D$16*Y12 + $E$16)</f>
-        <v>0.10422524819898045</v>
-      </c>
-      <c r="Z16" s="7">
-        <f>$C$16*SIN($D$16*Z12 + $E$16)</f>
-        <v>-6.5475064927396021E-2</v>
-      </c>
-      <c r="AA16" s="7">
-        <f>$C$16*SIN($D$16*AA12 + $E$16)</f>
-        <v>1.9158889663667314E-2</v>
-      </c>
-      <c r="AB16" s="7">
-        <f>$C$16*SIN($D$16*AB12 + $E$16)</f>
-        <v>2.9371197200369608E-2</v>
-      </c>
-      <c r="AC16" s="7">
-        <f>$C$16*SIN($D$16*AC12 + $E$16)</f>
-        <v>-7.4507286012414242E-2</v>
+      <c r="N17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*N13 + $F$17),"")</f>
+        <v>0.13424180296941546</v>
+      </c>
+      <c r="O17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*O13 + $F$17),"")</f>
+        <v>9.1826801383791345E-2</v>
+      </c>
+      <c r="P17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*P13 + $F$17),"")</f>
+        <v>-7.1428571428571383E-2</v>
+      </c>
+      <c r="Q17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*Q13 + $F$17),"")</f>
+        <v>-0.14068682185888687</v>
+      </c>
+      <c r="R17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*R13 + $F$17),"")</f>
+        <v>-2.4806882523847197E-2</v>
+      </c>
+      <c r="S17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*S13 + $F$17),"")</f>
+        <v>0.12371791482634834</v>
+      </c>
+      <c r="T17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*T13 + $F$17),"")</f>
+        <v>0.10943492044556839</v>
+      </c>
+      <c r="U17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*U13 + $F$17),"")</f>
+        <v>-4.8860020475095425E-2</v>
+      </c>
+      <c r="V17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*V13 + $F$17),"")</f>
+        <v>-0.14285714285714285</v>
+      </c>
+      <c r="W17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*W13 + $F$17),"")</f>
+        <v>-4.8860020475095543E-2</v>
+      </c>
+      <c r="X17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*X13 + $F$17),"")</f>
+        <v>0.10943492044556831</v>
+      </c>
+      <c r="Y17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*Y13 + $F$17),"")</f>
+        <v>0.12371791482634846</v>
+      </c>
+      <c r="Z17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*Z13 + $F$17),"")</f>
+        <v>-2.4806882523847079E-2</v>
+      </c>
+      <c r="AA17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AA13 + $F$17),"")</f>
+        <v>-0.14068682185888681</v>
+      </c>
+      <c r="AB17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AB13 + $F$17),"")</f>
+        <v>-7.1428571428571438E-2</v>
+      </c>
+      <c r="AC17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AC13 + $F$17),"")</f>
+        <v>9.1826801383791151E-2</v>
+      </c>
+      <c r="AD17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AD13 + $F$17),"")</f>
+        <v>0.13424180296941546</v>
+      </c>
+      <c r="AE17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AE13 + $F$17),"")</f>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="AF17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AF13 + $F$17),"")</f>
+        <v>-0.13424180296941554</v>
+      </c>
+      <c r="AG17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AG13 + $F$17),"")</f>
+        <v>-9.1826801383791345E-2</v>
+      </c>
+      <c r="AH17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AH13 + $F$17),"")</f>
+        <v>7.1428571428571661E-2</v>
+      </c>
+      <c r="AI17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AI13 + $F$17),"")</f>
+        <v>0.14068682185888684</v>
+      </c>
+      <c r="AJ17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AJ13 + $F$17),"")</f>
+        <v>2.4806882523847319E-2</v>
+      </c>
+      <c r="AK17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AK13 + $F$17),"")</f>
+        <v>-0.12371791482634821</v>
+      </c>
+      <c r="AL17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AL13 + $F$17),"")</f>
+        <v>-0.10943492044556863</v>
+      </c>
+      <c r="AM17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AM13 + $F$17),"")</f>
+        <v>4.8860020475095314E-2</v>
+      </c>
+      <c r="AN17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AN13 + $F$17),"")</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AO17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AO13 + $F$17),"")</f>
+        <v>4.8860020475096133E-2</v>
+      </c>
+      <c r="AP17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AP13 + $F$17),"")</f>
+        <v>-0.10943492044556806</v>
+      </c>
+      <c r="AQ17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AQ13 + $F$17),"")</f>
+        <v>-0.12371791482634839</v>
+      </c>
+      <c r="AR17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AR13 + $F$17),"")</f>
+        <v>2.4806882523847454E-2</v>
+      </c>
+      <c r="AS17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AS13 + $F$17),"")</f>
+        <v>0.14068682185888678</v>
+      </c>
+      <c r="AT17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AT13 + $F$17),"")</f>
+        <v>7.142857142857155E-2</v>
+      </c>
+      <c r="AU17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AU13 + $F$17),"")</f>
+        <v>-9.1826801383791457E-2</v>
+      </c>
+      <c r="AV17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AV13 + $F$17),"")</f>
+        <v>-0.13424180296941565</v>
+      </c>
+      <c r="AW17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AW13 + $F$17),"")</f>
+        <v>-2.45029690981724E-16</v>
+      </c>
+      <c r="AX17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AX13 + $F$17),"")</f>
+        <v>0.13424180296941515</v>
+      </c>
+      <c r="AY17" s="123">
+        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AY13 + $F$17),"")</f>
+        <v>9.182680138379104E-2</v>
       </c>
     </row>
-    <row r="17" spans="7:29" x14ac:dyDescent="0.35">
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
+    <row r="18" spans="3:51" ht="8.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J18" s="78"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="76"/>
+      <c r="T18" s="76"/>
+      <c r="U18" s="76"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="76"/>
+      <c r="X18" s="76"/>
+      <c r="Y18" s="76"/>
+      <c r="Z18" s="76"/>
+      <c r="AA18" s="76"/>
+      <c r="AB18" s="76"/>
+      <c r="AC18" s="76"/>
+      <c r="AD18" s="76"/>
+      <c r="AE18" s="76"/>
+      <c r="AF18" s="76"/>
+      <c r="AG18" s="76"/>
+      <c r="AH18" s="76"/>
+      <c r="AI18" s="76"/>
+      <c r="AJ18" s="76"/>
+      <c r="AK18" s="76"/>
+      <c r="AL18" s="76"/>
+      <c r="AM18" s="76"/>
+      <c r="AN18" s="76"/>
+      <c r="AO18" s="76"/>
+      <c r="AP18" s="76"/>
+      <c r="AQ18" s="76"/>
+      <c r="AR18" s="76"/>
+      <c r="AS18" s="76"/>
+      <c r="AT18" s="76"/>
+      <c r="AU18" s="76"/>
+      <c r="AV18" s="76"/>
+      <c r="AW18" s="76"/>
+      <c r="AX18" s="76"/>
+      <c r="AY18" s="76"/>
     </row>
-    <row r="18" spans="7:29" x14ac:dyDescent="0.35">
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
+    <row r="19" spans="3:51" ht="8.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J19" s="78"/>
+      <c r="K19" s="145"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="76"/>
+      <c r="T19" s="76"/>
+      <c r="U19" s="76"/>
+      <c r="V19" s="76"/>
+      <c r="W19" s="76"/>
+      <c r="X19" s="76"/>
+      <c r="Y19" s="76"/>
+      <c r="Z19" s="76"/>
+      <c r="AA19" s="76"/>
+      <c r="AB19" s="76"/>
+      <c r="AC19" s="76"/>
+      <c r="AD19" s="76"/>
+      <c r="AE19" s="76"/>
+      <c r="AF19" s="76"/>
+      <c r="AG19" s="76"/>
+      <c r="AH19" s="76"/>
+      <c r="AI19" s="76"/>
+      <c r="AJ19" s="76"/>
+      <c r="AK19" s="76"/>
+      <c r="AL19" s="76"/>
+      <c r="AM19" s="76"/>
+      <c r="AN19" s="76"/>
+      <c r="AO19" s="76"/>
+      <c r="AP19" s="76"/>
+      <c r="AQ19" s="76"/>
+      <c r="AR19" s="76"/>
+      <c r="AS19" s="76"/>
+      <c r="AT19" s="76"/>
+      <c r="AU19" s="76"/>
+      <c r="AV19" s="76"/>
+      <c r="AW19" s="76"/>
+      <c r="AX19" s="76"/>
+      <c r="AY19" s="76"/>
     </row>
-    <row r="19" spans="7:29" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="G19" s="109" t="s">
+    <row r="20" spans="3:51" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J20" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="H19" s="109"/>
-      <c r="I19" s="7">
-        <f>SUM(I13:I16)</f>
+      <c r="K20" s="146">
+        <f>IF($L$20=$AI$7,SUM(K14:K17),"")</f>
+        <v>-0.7238095238095239</v>
+      </c>
+      <c r="L20" s="121" t="s">
+        <v>123</v>
+      </c>
+      <c r="M20" s="123">
+        <f>IF($L$20=$AI$7,SUM(M14:M17),"")</f>
         <v>0</v>
       </c>
-      <c r="J19" s="7">
-        <f>SUM(J13:J16)</f>
-        <v>0.92981297301846766</v>
-      </c>
-      <c r="K19" s="7">
-        <f>SUM(K13:K16)</f>
-        <v>0.70096903708751301</v>
-      </c>
-      <c r="L19" s="7">
-        <f>SUM(L13:L16)</f>
-        <v>0.85073473019414947</v>
-      </c>
-      <c r="M19" s="7">
-        <f>SUM(M13:M16)</f>
-        <v>0.72550785001833218</v>
-      </c>
-      <c r="N19" s="7">
-        <f>SUM(N13:N16)</f>
-        <v>0.84887004177600445</v>
-      </c>
-      <c r="O19" s="7">
-        <f>SUM(O13:O16)</f>
-        <v>0.70590926105580454</v>
-      </c>
-      <c r="P19" s="7">
-        <f>SUM(P13:P16)</f>
-        <v>0.91539929828642053</v>
-      </c>
-      <c r="Q19" s="7">
-        <f>SUM(Q13:Q16)</f>
-        <v>-0.23085740285226647</v>
-      </c>
-      <c r="R19" s="7">
-        <f>SUM(R13:R16)</f>
-        <v>-0.91009548278675989</v>
-      </c>
-      <c r="S19" s="7">
-        <f>SUM(S13:S16)</f>
-        <v>-0.71437025759475692</v>
-      </c>
-      <c r="T19" s="7">
-        <f>SUM(T13:T16)</f>
-        <v>-0.83854521814695981</v>
-      </c>
-      <c r="U19" s="7">
-        <f>SUM(U13:U16)</f>
-        <v>-0.73857060507410499</v>
-      </c>
-      <c r="V19" s="7">
-        <f>SUM(V13:V16)</f>
-        <v>-0.83264225644924139</v>
-      </c>
-      <c r="W19" s="7">
-        <f>SUM(W13:W16)</f>
-        <v>-0.7304329553701342</v>
-      </c>
-      <c r="X19" s="7">
-        <f>SUM(X13:X16)</f>
-        <v>-0.8582825549769556</v>
-      </c>
-      <c r="Y19" s="7">
-        <f>SUM(Y13:Y16)</f>
-        <v>0.44549809890444719</v>
-      </c>
-      <c r="Z19" s="7">
-        <f>SUM(Z13:Z16)</f>
-        <v>0.86771912348277369</v>
-      </c>
-      <c r="AA19" s="7">
-        <f>SUM(AA13:AA16)</f>
-        <v>0.74155448004251046</v>
-      </c>
-      <c r="AB19" s="7">
-        <f>SUM(AB13:AB16)</f>
-        <v>0.81539966629231986</v>
-      </c>
-      <c r="AC19" s="7">
-        <f>SUM(AC13:AC16)</f>
-        <v>0.76201413870462931</v>
+      <c r="N20" s="123">
+        <f t="shared" ref="N20:AY20" si="5">IF($L$20=$AI$7,SUM(N14:N17),"")</f>
+        <v>0.62776553592680795</v>
+      </c>
+      <c r="O20" s="123">
+        <f t="shared" si="5"/>
+        <v>0.91948362990671439</v>
+      </c>
+      <c r="P20" s="123">
+        <f t="shared" si="5"/>
+        <v>0.86190476190476195</v>
+      </c>
+      <c r="Q20" s="123">
+        <f t="shared" si="5"/>
+        <v>0.72237189375733157</v>
+      </c>
+      <c r="R20" s="123">
+        <f t="shared" si="5"/>
+        <v>0.71996570310461572</v>
+      </c>
+      <c r="S20" s="123">
+        <f t="shared" si="5"/>
+        <v>0.81653823785389912</v>
+      </c>
+      <c r="T20" s="123">
+        <f t="shared" si="5"/>
+        <v>0.847731239031424</v>
+      </c>
+      <c r="U20" s="123">
+        <f t="shared" si="5"/>
+        <v>0.7758301198796077</v>
+      </c>
+      <c r="V20" s="123">
+        <f t="shared" si="5"/>
+        <v>0.7238095238095239</v>
+      </c>
+      <c r="W20" s="123">
+        <f t="shared" si="5"/>
+        <v>0.77583011987960748</v>
+      </c>
+      <c r="X20" s="123">
+        <f t="shared" si="5"/>
+        <v>0.84773123903142433</v>
+      </c>
+      <c r="Y20" s="123">
+        <f t="shared" si="5"/>
+        <v>0.81653823785389945</v>
+      </c>
+      <c r="Z20" s="123">
+        <f t="shared" si="5"/>
+        <v>0.71996570310461594</v>
+      </c>
+      <c r="AA20" s="123">
+        <f t="shared" si="5"/>
+        <v>0.72237189375733168</v>
+      </c>
+      <c r="AB20" s="123">
+        <f t="shared" si="5"/>
+        <v>0.86190476190476195</v>
+      </c>
+      <c r="AC20" s="123">
+        <f t="shared" si="5"/>
+        <v>0.91948362990671473</v>
+      </c>
+      <c r="AD20" s="123">
+        <f t="shared" si="5"/>
+        <v>0.62776553592680784</v>
+      </c>
+      <c r="AE20" s="123">
+        <f t="shared" si="5"/>
+        <v>4.90059381963448E-16</v>
+      </c>
+      <c r="AF20" s="123">
+        <f t="shared" si="5"/>
+        <v>-0.62776553592680884</v>
+      </c>
+      <c r="AG20" s="123">
+        <f t="shared" si="5"/>
+        <v>-0.91948362990671439</v>
+      </c>
+      <c r="AH20" s="123">
+        <f t="shared" si="5"/>
+        <v>-0.86190476190476195</v>
+      </c>
+      <c r="AI20" s="123">
+        <f t="shared" si="5"/>
+        <v>-0.72237189375733168</v>
+      </c>
+      <c r="AJ20" s="123">
+        <f t="shared" si="5"/>
+        <v>-0.71996570310461572</v>
+      </c>
+      <c r="AK20" s="123">
+        <f t="shared" si="5"/>
+        <v>-0.81653823785389867</v>
+      </c>
+      <c r="AL20" s="123">
+        <f t="shared" si="5"/>
+        <v>-0.84773123903142356</v>
+      </c>
+      <c r="AM20" s="123">
+        <f t="shared" si="5"/>
+        <v>-0.77583011987960804</v>
+      </c>
+      <c r="AN20" s="123">
+        <f t="shared" si="5"/>
+        <v>-0.7238095238095239</v>
+      </c>
+      <c r="AO20" s="123">
+        <f t="shared" si="5"/>
+        <v>-0.77583011987960671</v>
+      </c>
+      <c r="AP20" s="123">
+        <f t="shared" si="5"/>
+        <v>-0.84773123903142422</v>
+      </c>
+      <c r="AQ20" s="123">
+        <f t="shared" si="5"/>
+        <v>-0.8165382378538989</v>
+      </c>
+      <c r="AR20" s="123">
+        <f t="shared" si="5"/>
+        <v>-0.71996570310461527</v>
+      </c>
+      <c r="AS20" s="123">
+        <f t="shared" si="5"/>
+        <v>-0.72237189375733146</v>
+      </c>
+      <c r="AT20" s="123">
+        <f t="shared" si="5"/>
+        <v>-0.86190476190476184</v>
+      </c>
+      <c r="AU20" s="123">
+        <f t="shared" si="5"/>
+        <v>-0.91948362990671439</v>
+      </c>
+      <c r="AV20" s="123">
+        <f t="shared" si="5"/>
+        <v>-0.62776553592681084</v>
+      </c>
+      <c r="AW20" s="123">
+        <f t="shared" si="5"/>
+        <v>-9.8011876392689601E-16</v>
+      </c>
+      <c r="AX20" s="123">
+        <f t="shared" si="5"/>
+        <v>0.62776553592680706</v>
+      </c>
+      <c r="AY20" s="123">
+        <f t="shared" si="5"/>
+        <v>0.91948362990671462</v>
       </c>
     </row>
-    <row r="20" spans="7:29" x14ac:dyDescent="0.35">
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
+    <row r="21" spans="3:51" x14ac:dyDescent="0.35">
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C11:E11"/>
+  <mergeCells count="4">
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="R7:S7"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L14:L17 L20" xr:uid="{14030FAE-C205-4F99-A125-F98CBE2B09BD}">
+      <formula1>$AI$7:$AI$8</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -23326,10 +25031,10 @@
       <c r="H11" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="76" t="s">
+      <c r="I11" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="77"/>
+      <c r="J11" s="83"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H12" s="19"/>
@@ -24816,10 +26521,10 @@
     </row>
     <row r="4" spans="2:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="48"/>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="83"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="49">
         <v>2</v>
       </c>
@@ -24867,10 +26572,10 @@
     </row>
     <row r="5" spans="2:27" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="48"/>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="85"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="51">
         <v>10</v>
       </c>
@@ -24881,10 +26586,10 @@
     <row r="6" spans="2:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="81"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="6">
         <v>1</v>
       </c>
@@ -24912,10 +26617,10 @@
       <c r="AA8" s="7"/>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="78"/>
+      <c r="D9" s="84"/>
       <c r="E9" s="6">
         <v>0</v>
       </c>
@@ -25009,10 +26714,10 @@
       </c>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="79"/>
+      <c r="D10" s="85"/>
       <c r="E10" s="7">
         <f t="shared" ref="E10:Y10" si="3">$E$4*E9+$E$5</f>
         <v>10</v>
@@ -25107,10 +26812,10 @@
       </c>
     </row>
     <row r="11" spans="2:27" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="79"/>
+      <c r="D11" s="85"/>
       <c r="E11" s="7">
         <f t="shared" ref="E11:Y11" si="5">$E$4/2 * E9^2 + $E$5*E9</f>
         <v>0</v>
@@ -25223,8 +26928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA467A4D-486D-4722-8BC0-28E89D3D0FE7}">
   <dimension ref="B2:O17"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7:O11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25251,86 +26956,86 @@
     </row>
     <row r="5" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="2:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="90" t="s">
+      <c r="D6" s="107"/>
+      <c r="E6" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="90" t="s">
+      <c r="F6" s="107"/>
+      <c r="G6" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="87"/>
-      <c r="I6" s="90" t="s">
+      <c r="H6" s="107"/>
+      <c r="I6" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="J6" s="87"/>
-      <c r="K6" s="90" t="s">
+      <c r="J6" s="107"/>
+      <c r="K6" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="L6" s="91"/>
+      <c r="L6" s="111"/>
     </row>
     <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="88" t="str">
+      <c r="C7" s="108" t="str">
         <f>O7</f>
         <v>v0 [m/s]</v>
       </c>
-      <c r="D7" s="89"/>
-      <c r="E7" s="92" t="str">
+      <c r="D7" s="109"/>
+      <c r="E7" s="112" t="str">
         <f>O8</f>
         <v>v [m/s]</v>
       </c>
-      <c r="F7" s="89"/>
-      <c r="G7" s="92" t="str">
+      <c r="F7" s="109"/>
+      <c r="G7" s="112" t="str">
         <f>O9</f>
         <v>s [m]</v>
       </c>
-      <c r="H7" s="89"/>
-      <c r="I7" s="92" t="str">
+      <c r="H7" s="109"/>
+      <c r="I7" s="112" t="str">
         <f>O10</f>
         <v>t [s]</v>
       </c>
-      <c r="J7" s="89"/>
-      <c r="K7" s="92" t="str">
+      <c r="J7" s="109"/>
+      <c r="K7" s="112" t="str">
         <f>O11</f>
         <v>a [m/s2]</v>
       </c>
-      <c r="L7" s="93"/>
+      <c r="L7" s="113"/>
       <c r="O7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="71" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="B8" s="73" t="s">
+    <row r="8" spans="2:15" s="70" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="B8" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="71" t="s">
         <v>115</v>
       </c>
       <c r="D8" s="65">
         <f>(G8-(K8/2)*I8^2)/I8</f>
         <v>10</v>
       </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="94">
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="97">
         <v>119</v>
       </c>
-      <c r="H8" s="100"/>
-      <c r="I8" s="94">
+      <c r="H8" s="98"/>
+      <c r="I8" s="97">
         <v>7</v>
       </c>
-      <c r="J8" s="100"/>
-      <c r="K8" s="94">
+      <c r="J8" s="98"/>
+      <c r="K8" s="97">
         <v>2</v>
       </c>
-      <c r="L8" s="95"/>
-      <c r="O8" s="71" t="s">
+      <c r="L8" s="104"/>
+      <c r="O8" s="70" t="s">
         <v>91</v>
       </c>
     </row>
@@ -25345,20 +27050,20 @@
         <f>E9-K9*I9</f>
         <v>10</v>
       </c>
-      <c r="E9" s="96">
+      <c r="E9" s="94">
         <v>24</v>
       </c>
-      <c r="F9" s="101"/>
+      <c r="F9" s="95"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="96">
+      <c r="I9" s="94">
         <v>7</v>
       </c>
-      <c r="J9" s="101"/>
-      <c r="K9" s="96">
+      <c r="J9" s="95"/>
+      <c r="K9" s="94">
         <v>2</v>
       </c>
-      <c r="L9" s="97"/>
+      <c r="L9" s="102"/>
       <c r="O9" t="s">
         <v>92</v>
       </c>
@@ -25369,20 +27074,20 @@
       </c>
       <c r="C10" s="55"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="96" t="s">
+      <c r="E10" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="101"/>
-      <c r="G10" s="96" t="s">
+      <c r="F10" s="95"/>
+      <c r="G10" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="101"/>
+      <c r="H10" s="95"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="96" t="s">
+      <c r="K10" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="L10" s="97"/>
+      <c r="L10" s="102"/>
       <c r="O10" t="s">
         <v>55</v>
       </c>
@@ -25393,99 +27098,99 @@
       </c>
       <c r="C11" s="55"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="96" t="s">
+      <c r="E11" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="101"/>
-      <c r="G11" s="96" t="s">
+      <c r="F11" s="95"/>
+      <c r="G11" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="101"/>
-      <c r="I11" s="96" t="s">
+      <c r="H11" s="95"/>
+      <c r="I11" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="J11" s="101"/>
+      <c r="J11" s="95"/>
       <c r="K11" s="7"/>
       <c r="L11" s="56"/>
       <c r="O11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="2:15" s="71" customFormat="1" ht="37" x14ac:dyDescent="0.35">
-      <c r="B12" s="67" t="s">
+    <row r="12" spans="2:15" s="70" customFormat="1" ht="37" x14ac:dyDescent="0.35">
+      <c r="B12" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="103">
+      <c r="C12" s="99">
         <v>10</v>
       </c>
-      <c r="D12" s="102"/>
-      <c r="E12" s="69" t="s">
+      <c r="D12" s="100"/>
+      <c r="E12" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="67">
         <f>K12*I12+C12</f>
         <v>24</v>
       </c>
-      <c r="G12" s="70" t="s">
+      <c r="G12" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="68">
+      <c r="H12" s="67">
         <f>K12/2 * I12^2 + C12*I12</f>
         <v>119</v>
       </c>
-      <c r="I12" s="98">
+      <c r="I12" s="103">
         <v>7</v>
       </c>
-      <c r="J12" s="102"/>
-      <c r="K12" s="98">
+      <c r="J12" s="100"/>
+      <c r="K12" s="103">
         <v>2</v>
       </c>
-      <c r="L12" s="99"/>
+      <c r="L12" s="105"/>
     </row>
     <row r="13" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="104">
+      <c r="C13" s="101">
         <v>10</v>
       </c>
-      <c r="D13" s="101"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="96">
+      <c r="G13" s="94">
         <v>119</v>
       </c>
-      <c r="H13" s="101"/>
-      <c r="I13" s="75" t="s">
+      <c r="H13" s="95"/>
+      <c r="I13" s="74" t="s">
         <v>113</v>
       </c>
       <c r="J13" s="54">
         <f xml:space="preserve"> (-C13 + SQRT(C13^2 + 2*K13*G13))/K13</f>
         <v>7</v>
       </c>
-      <c r="K13" s="96">
+      <c r="K13" s="94">
         <v>2</v>
       </c>
-      <c r="L13" s="97"/>
+      <c r="L13" s="102"/>
     </row>
     <row r="14" spans="2:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B14" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="104">
+      <c r="C14" s="101">
         <v>10</v>
       </c>
-      <c r="D14" s="101"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="96">
+      <c r="G14" s="94">
         <v>119</v>
       </c>
-      <c r="H14" s="101"/>
-      <c r="I14" s="96">
+      <c r="H14" s="95"/>
+      <c r="I14" s="94">
         <v>7</v>
       </c>
-      <c r="J14" s="101"/>
+      <c r="J14" s="95"/>
       <c r="K14" s="64" t="s">
         <v>112</v>
       </c>
@@ -25498,14 +27203,14 @@
       <c r="B15" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="104">
+      <c r="C15" s="101">
         <v>10</v>
       </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="96">
+      <c r="D15" s="95"/>
+      <c r="E15" s="94">
         <v>24</v>
       </c>
-      <c r="F15" s="101"/>
+      <c r="F15" s="95"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="63" t="s">
@@ -25515,29 +27220,29 @@
         <f>(E15-C15)/K15</f>
         <v>7</v>
       </c>
-      <c r="K15" s="96">
+      <c r="K15" s="94">
         <v>2</v>
       </c>
-      <c r="L15" s="97"/>
+      <c r="L15" s="102"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="104">
+      <c r="C16" s="101">
         <v>10</v>
       </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="96">
+      <c r="D16" s="95"/>
+      <c r="E16" s="94">
         <v>24</v>
       </c>
-      <c r="F16" s="101"/>
+      <c r="F16" s="95"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="96">
+      <c r="I16" s="94">
         <v>7</v>
       </c>
-      <c r="J16" s="101"/>
+      <c r="J16" s="95"/>
       <c r="K16" s="63" t="s">
         <v>109</v>
       </c>
@@ -25550,18 +27255,18 @@
       <c r="B17" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="106"/>
-      <c r="E17" s="105" t="s">
+      <c r="D17" s="93"/>
+      <c r="E17" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="106"/>
-      <c r="G17" s="105" t="s">
+      <c r="F17" s="93"/>
+      <c r="G17" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="106"/>
+      <c r="H17" s="93"/>
       <c r="I17" s="57"/>
       <c r="J17" s="57"/>
       <c r="K17" s="57"/>
@@ -25569,36 +27274,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="K6:L6"/>
@@ -25609,6 +27284,36 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="I16:J16"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24" xr:uid="{F0227B52-6C3F-4B29-A45C-B261C0C0E4F1}">

--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_02_Messprotokoll.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_02_Messprotokoll.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\Informatik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723041A1-58D5-44B6-9D45-23EB7E3BE387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD5B87A-3F5E-473A-B6B6-EAFA93E7B43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-18120" windowWidth="29040" windowHeight="18240" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kinematik_1_A" sheetId="3" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="144">
   <si>
     <t>y:</t>
   </si>
@@ -1166,9 +1166,6 @@
     <t>s [m]</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Fall</t>
   </si>
   <si>
@@ -1586,6 +1583,358 @@
   </si>
   <si>
     <t xml:space="preserve">Amplitude = </t>
+  </si>
+  <si>
+    <t>v=s/t + at/2</t>
+  </si>
+  <si>
+    <r>
+      <t>s = vt - at</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t = (v - sqrt(v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 2as))/a</t>
+    </r>
+  </si>
+  <si>
+    <t>a = 2/t * (v - s/t)</t>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = sqrt(v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 2as)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 2s/t - v</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v = sqrt(v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + 2as)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v = 2s/t - v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s = (v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)/2a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s = (v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + v)t/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t = 2s/(v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + v)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a = (v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)/2s</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2443,7 +2792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2522,28 +2871,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2573,9 +2901,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2596,102 +2921,13 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2714,13 +2950,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2739,21 +2971,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2782,19 +3001,123 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4543,7 +4866,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="de-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5274,7 +5597,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5792,7 +6115,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="de-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7437,10 +7760,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>270</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>270</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7455,7 +7778,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1</c:v>
+                  <c:v>0.86602540378443871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21044,16 +21367,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>86002</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104418</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>721001</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>183793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>412749</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21971,11 +22294,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156B38E5-43C1-41D2-ADA5-A29109FD68B0}">
   <sheetPr codeName="Tabelle15">
     <tabColor rgb="FFFF0000"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="C1:AY21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S49" sqref="S49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="BA27" sqref="BA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21990,14 +22314,14 @@
   <sheetData>
     <row r="1" spans="3:51" ht="21.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:51" ht="26" x14ac:dyDescent="0.6">
-      <c r="C2" s="81" t="s">
-        <v>119</v>
+      <c r="C2" s="71" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="3:51" x14ac:dyDescent="0.35">
       <c r="R4" s="7"/>
       <c r="S4" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
@@ -22008,31 +22332,31 @@
     <row r="5" spans="3:51" x14ac:dyDescent="0.35">
       <c r="R5" s="7"/>
       <c r="S5" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="T5" s="123">
+        <v>130</v>
+      </c>
+      <c r="T5" s="82">
         <f>MAX(K14:K20)</f>
-        <v>0.33333333333333331</v>
+        <v>0.86602540378443871</v>
       </c>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7">
         <f>K12</f>
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="X5" s="7">
         <f>W5</f>
-        <v>270</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="3:51" x14ac:dyDescent="0.35">
       <c r="R6" s="7"/>
       <c r="S6" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="T6" s="123">
+        <v>129</v>
+      </c>
+      <c r="T6" s="82">
         <f>MIN(K14:K20)</f>
-        <v>-1</v>
+        <v>-0.17320508075688756</v>
       </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
@@ -22041,1445 +22365,1438 @@
       </c>
       <c r="X6" s="7">
         <f>T7</f>
-        <v>-1</v>
+        <v>0.86602540378443871</v>
       </c>
     </row>
     <row r="7" spans="3:51" x14ac:dyDescent="0.35">
-      <c r="Q7" s="126"/>
-      <c r="R7" s="150" t="s">
-        <v>132</v>
-      </c>
-      <c r="S7" s="85"/>
+      <c r="R7" s="106" t="s">
+        <v>131</v>
+      </c>
+      <c r="S7" s="106"/>
       <c r="T7" s="7">
         <f>IF(ABS(T5)&gt;ABS(T6),T5,T6)</f>
-        <v>-1</v>
+        <v>0.86602540378443871</v>
       </c>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="AI7" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="3:51" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="Q8" s="126"/>
-      <c r="R8" s="138"/>
-      <c r="S8" s="137"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="66"/>
       <c r="AI8" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="3:51" ht="21" x14ac:dyDescent="0.35">
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="L11" s="80" t="s">
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="L11" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="114">
+      <c r="M11" s="73">
         <v>10</v>
       </c>
-      <c r="N11" s="151"/>
-      <c r="O11" s="151"/>
-      <c r="P11" s="151"/>
-      <c r="Q11" s="151"/>
-      <c r="R11" s="151"/>
-      <c r="S11" s="151"/>
-      <c r="T11" s="151"/>
-      <c r="U11" s="151"/>
-      <c r="V11" s="151"/>
-      <c r="W11" s="151"/>
-      <c r="X11" s="151"/>
-      <c r="Y11" s="151"/>
-      <c r="Z11" s="151"/>
-      <c r="AA11" s="151"/>
-      <c r="AB11" s="151"/>
-      <c r="AC11" s="151"/>
-      <c r="AD11" s="151"/>
-      <c r="AE11" s="151"/>
-      <c r="AF11" s="151"/>
-      <c r="AG11" s="151"/>
-      <c r="AH11" s="151"/>
-      <c r="AI11" s="151"/>
-      <c r="AJ11" s="151"/>
-      <c r="AK11" s="151"/>
-      <c r="AL11" s="151"/>
-      <c r="AM11" s="151"/>
-      <c r="AN11" s="151"/>
-      <c r="AO11" s="151"/>
-      <c r="AP11" s="151"/>
-      <c r="AQ11" s="151"/>
-      <c r="AR11" s="151"/>
-      <c r="AS11" s="151"/>
-      <c r="AT11" s="151"/>
-      <c r="AU11" s="151"/>
-      <c r="AV11" s="151"/>
-      <c r="AW11" s="151"/>
-      <c r="AX11" s="151"/>
-      <c r="AY11" s="151"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="101"/>
+      <c r="X11" s="101"/>
+      <c r="Y11" s="101"/>
+      <c r="Z11" s="101"/>
+      <c r="AA11" s="101"/>
+      <c r="AB11" s="101"/>
+      <c r="AC11" s="101"/>
+      <c r="AD11" s="101"/>
+      <c r="AE11" s="101"/>
+      <c r="AF11" s="101"/>
+      <c r="AG11" s="101"/>
+      <c r="AH11" s="101"/>
+      <c r="AI11" s="101"/>
+      <c r="AJ11" s="101"/>
+      <c r="AK11" s="101"/>
+      <c r="AL11" s="101"/>
+      <c r="AM11" s="101"/>
+      <c r="AN11" s="101"/>
+      <c r="AO11" s="101"/>
+      <c r="AP11" s="101"/>
+      <c r="AQ11" s="101"/>
+      <c r="AR11" s="101"/>
+      <c r="AS11" s="101"/>
+      <c r="AT11" s="101"/>
+      <c r="AU11" s="101"/>
+      <c r="AV11" s="101"/>
+      <c r="AW11" s="101"/>
+      <c r="AX11" s="101"/>
+      <c r="AY11" s="101"/>
     </row>
-    <row r="12" spans="3:51" s="70" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="C12" s="148" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="148"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="J12" s="127" t="s">
+    <row r="12" spans="3:51" s="61" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="C12" s="125" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="J12" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" s="65">
+        <v>120</v>
+      </c>
+      <c r="L12" s="126" t="s">
         <v>121</v>
       </c>
-      <c r="K12" s="75">
-        <v>270</v>
-      </c>
-      <c r="L12" s="135" t="s">
-        <v>122</v>
-      </c>
-      <c r="M12" s="75">
+      <c r="M12" s="65">
         <v>0</v>
       </c>
-      <c r="N12" s="152">
+      <c r="N12" s="102">
         <f>M12+$M$11</f>
         <v>10</v>
       </c>
-      <c r="O12" s="152">
-        <f t="shared" ref="O12:BL12" si="0">N12+$M$11</f>
+      <c r="O12" s="102">
+        <f t="shared" ref="O12:AY12" si="0">N12+$M$11</f>
         <v>20</v>
       </c>
-      <c r="P12" s="152">
+      <c r="P12" s="102">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="Q12" s="152">
+      <c r="Q12" s="102">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="R12" s="152">
+      <c r="R12" s="102">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="S12" s="152">
+      <c r="S12" s="102">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="T12" s="152">
+      <c r="T12" s="102">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="U12" s="152">
+      <c r="U12" s="102">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="V12" s="152">
+      <c r="V12" s="102">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="W12" s="152">
+      <c r="W12" s="102">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="X12" s="152">
+      <c r="X12" s="102">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="Y12" s="152">
+      <c r="Y12" s="102">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="Z12" s="152">
+      <c r="Z12" s="102">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="AA12" s="152">
+      <c r="AA12" s="102">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="AB12" s="152">
+      <c r="AB12" s="102">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="AC12" s="152">
+      <c r="AC12" s="102">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="AD12" s="152">
+      <c r="AD12" s="102">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
-      <c r="AE12" s="152">
+      <c r="AE12" s="102">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="AF12" s="152">
+      <c r="AF12" s="102">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="AG12" s="152">
+      <c r="AG12" s="102">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="AH12" s="152">
+      <c r="AH12" s="102">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="AI12" s="152">
+      <c r="AI12" s="102">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="AJ12" s="152">
+      <c r="AJ12" s="102">
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
-      <c r="AK12" s="152">
+      <c r="AK12" s="102">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="AL12" s="152">
+      <c r="AL12" s="102">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="AM12" s="152">
+      <c r="AM12" s="102">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="AN12" s="152">
+      <c r="AN12" s="102">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="AO12" s="152">
+      <c r="AO12" s="102">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="AP12" s="152">
+      <c r="AP12" s="102">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-      <c r="AQ12" s="152">
+      <c r="AQ12" s="102">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="AR12" s="152">
+      <c r="AR12" s="102">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="AS12" s="152">
+      <c r="AS12" s="102">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="AT12" s="152">
+      <c r="AT12" s="102">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="AU12" s="152">
+      <c r="AU12" s="102">
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
-      <c r="AV12" s="152">
+      <c r="AV12" s="102">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="AW12" s="152">
+      <c r="AW12" s="102">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="AX12" s="152">
+      <c r="AX12" s="102">
         <f t="shared" si="0"/>
         <v>370</v>
       </c>
-      <c r="AY12" s="152">
+      <c r="AY12" s="102">
         <f t="shared" si="0"/>
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="3:51" s="70" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C13" s="132" t="s">
+    <row r="13" spans="3:51" s="61" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C13" s="89" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="132" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="132" t="s">
-        <v>129</v>
-      </c>
-      <c r="F13" s="132" t="s">
+      <c r="E13" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="147" t="s">
-        <v>120</v>
-      </c>
-      <c r="K13" s="140">
+      <c r="F13" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="J13" s="99" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" s="92">
         <f t="shared" ref="K13" si="1">PI()*K12/180</f>
-        <v>4.7123889803846897</v>
-      </c>
-      <c r="L13" s="136"/>
-      <c r="M13" s="139">
+        <v>2.0943951023931953</v>
+      </c>
+      <c r="L13" s="127"/>
+      <c r="M13" s="91">
         <f>PI()*M12/180</f>
         <v>0</v>
       </c>
-      <c r="N13" s="139">
+      <c r="N13" s="91">
         <f t="shared" ref="N13:AY13" si="2">PI()*N12/180</f>
         <v>0.17453292519943295</v>
       </c>
-      <c r="O13" s="139">
+      <c r="O13" s="91">
         <f t="shared" si="2"/>
         <v>0.3490658503988659</v>
       </c>
-      <c r="P13" s="139">
+      <c r="P13" s="91">
         <f t="shared" si="2"/>
         <v>0.52359877559829882</v>
       </c>
-      <c r="Q13" s="139">
+      <c r="Q13" s="91">
         <f t="shared" si="2"/>
         <v>0.69813170079773179</v>
       </c>
-      <c r="R13" s="139">
+      <c r="R13" s="91">
         <f t="shared" si="2"/>
         <v>0.87266462599716477</v>
       </c>
-      <c r="S13" s="139">
+      <c r="S13" s="91">
         <f t="shared" si="2"/>
         <v>1.0471975511965976</v>
       </c>
-      <c r="T13" s="139">
+      <c r="T13" s="91">
         <f t="shared" si="2"/>
         <v>1.2217304763960306</v>
       </c>
-      <c r="U13" s="139">
+      <c r="U13" s="91">
         <f t="shared" si="2"/>
         <v>1.3962634015954636</v>
       </c>
-      <c r="V13" s="139">
+      <c r="V13" s="91">
         <f t="shared" si="2"/>
         <v>1.5707963267948966</v>
       </c>
-      <c r="W13" s="139">
+      <c r="W13" s="91">
         <f t="shared" si="2"/>
         <v>1.7453292519943295</v>
       </c>
-      <c r="X13" s="139">
+      <c r="X13" s="91">
         <f t="shared" si="2"/>
         <v>1.9198621771937625</v>
       </c>
-      <c r="Y13" s="139">
+      <c r="Y13" s="91">
         <f t="shared" si="2"/>
         <v>2.0943951023931953</v>
       </c>
-      <c r="Z13" s="139">
+      <c r="Z13" s="91">
         <f t="shared" si="2"/>
         <v>2.2689280275926285</v>
       </c>
-      <c r="AA13" s="139">
+      <c r="AA13" s="91">
         <f t="shared" si="2"/>
         <v>2.4434609527920612</v>
       </c>
-      <c r="AB13" s="139">
+      <c r="AB13" s="91">
         <f t="shared" si="2"/>
         <v>2.6179938779914944</v>
       </c>
-      <c r="AC13" s="139">
+      <c r="AC13" s="91">
         <f t="shared" si="2"/>
         <v>2.7925268031909272</v>
       </c>
-      <c r="AD13" s="139">
+      <c r="AD13" s="91">
         <f t="shared" si="2"/>
         <v>2.9670597283903604</v>
       </c>
-      <c r="AE13" s="139">
+      <c r="AE13" s="91">
         <f t="shared" si="2"/>
         <v>3.1415926535897931</v>
       </c>
-      <c r="AF13" s="139">
+      <c r="AF13" s="91">
         <f t="shared" si="2"/>
         <v>3.3161255787892263</v>
       </c>
-      <c r="AG13" s="139">
+      <c r="AG13" s="91">
         <f t="shared" si="2"/>
         <v>3.4906585039886591</v>
       </c>
-      <c r="AH13" s="139">
+      <c r="AH13" s="91">
         <f t="shared" si="2"/>
         <v>3.6651914291880923</v>
       </c>
-      <c r="AI13" s="139">
+      <c r="AI13" s="91">
         <f t="shared" si="2"/>
         <v>3.839724354387525</v>
       </c>
-      <c r="AJ13" s="139">
+      <c r="AJ13" s="91">
         <f t="shared" si="2"/>
         <v>4.0142572795869578</v>
       </c>
-      <c r="AK13" s="139">
+      <c r="AK13" s="91">
         <f t="shared" si="2"/>
         <v>4.1887902047863905</v>
       </c>
-      <c r="AL13" s="139">
+      <c r="AL13" s="91">
         <f t="shared" si="2"/>
         <v>4.3633231299858233</v>
       </c>
-      <c r="AM13" s="139">
+      <c r="AM13" s="91">
         <f t="shared" si="2"/>
         <v>4.5378560551852569</v>
       </c>
-      <c r="AN13" s="139">
+      <c r="AN13" s="91">
         <f t="shared" si="2"/>
         <v>4.7123889803846897</v>
       </c>
-      <c r="AO13" s="139">
+      <c r="AO13" s="91">
         <f t="shared" si="2"/>
         <v>4.8869219055841224</v>
       </c>
-      <c r="AP13" s="139">
+      <c r="AP13" s="91">
         <f t="shared" si="2"/>
         <v>5.0614548307835552</v>
       </c>
-      <c r="AQ13" s="139">
+      <c r="AQ13" s="91">
         <f t="shared" si="2"/>
         <v>5.2359877559829888</v>
       </c>
-      <c r="AR13" s="139">
+      <c r="AR13" s="91">
         <f t="shared" si="2"/>
         <v>5.4105206811824216</v>
       </c>
-      <c r="AS13" s="139">
+      <c r="AS13" s="91">
         <f t="shared" si="2"/>
         <v>5.5850536063818543</v>
       </c>
-      <c r="AT13" s="139">
+      <c r="AT13" s="91">
         <f t="shared" si="2"/>
         <v>5.7595865315812871</v>
       </c>
-      <c r="AU13" s="139">
+      <c r="AU13" s="91">
         <f t="shared" si="2"/>
         <v>5.9341194567807207</v>
       </c>
-      <c r="AV13" s="139">
+      <c r="AV13" s="91">
         <f t="shared" si="2"/>
         <v>6.1086523819801526</v>
       </c>
-      <c r="AW13" s="139">
+      <c r="AW13" s="91">
         <f t="shared" si="2"/>
         <v>6.2831853071795862</v>
       </c>
-      <c r="AX13" s="139">
+      <c r="AX13" s="91">
         <f t="shared" si="2"/>
         <v>6.457718232379019</v>
       </c>
-      <c r="AY13" s="139">
+      <c r="AY13" s="91">
         <f t="shared" si="2"/>
         <v>6.6322511575784526</v>
       </c>
     </row>
     <row r="14" spans="3:51" x14ac:dyDescent="0.35">
-      <c r="C14" s="79">
+      <c r="C14" s="69">
         <v>1</v>
       </c>
-      <c r="D14" s="79">
+      <c r="D14" s="69">
         <v>1</v>
       </c>
-      <c r="E14" s="79">
+      <c r="E14" s="69">
         <v>0</v>
       </c>
-      <c r="F14" s="149">
+      <c r="F14" s="100">
         <f>PI()*E14/180</f>
         <v>0</v>
       </c>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="128" t="str">
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="J14" s="85" t="str">
         <f>_xlfn.CONCAT("y0 = ",IF(C14&lt;&gt;1,_xlfn.CONCAT(ROUND(C14,2)," *"),"")," sin(",IF(D14&lt;&gt;1,_xlfn.CONCAT(ROUND(D14,2),"*"),""),"x ",IF(F14&lt;&gt;0,_xlfn.CONCAT(" + ",ROUND(F14,2),""),""),") = ")</f>
         <v xml:space="preserve">y0 =  sin(x ) = </v>
       </c>
-      <c r="K14" s="141">
+      <c r="K14" s="93">
         <f>IF($L$14=$AI$7,$C$14*SIN($D$14*K13 + $F$14),"")</f>
-        <v>-1</v>
-      </c>
-      <c r="L14" s="116" t="s">
-        <v>123</v>
-      </c>
-      <c r="M14" s="122">
+        <v>0.86602540378443871</v>
+      </c>
+      <c r="L14" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" s="81">
         <f>IF($L$14=$AI$7,$C$14*SIN($D$14*M13 + $F$14),"")</f>
         <v>0</v>
       </c>
-      <c r="N14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*N13 + $F$14),"")</f>
+      <c r="N14" s="81">
+        <f t="shared" ref="M14:AY14" si="3">IF($L$14=$AI$7,$C$14*SIN($D$14*N13 + $F$14),"")</f>
         <v>0.17364817766693033</v>
       </c>
-      <c r="O14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*O13 + $F$14),"")</f>
+      <c r="O14" s="81">
+        <f t="shared" si="3"/>
         <v>0.34202014332566871</v>
       </c>
-      <c r="P14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*P13 + $F$14),"")</f>
+      <c r="P14" s="81">
+        <f t="shared" si="3"/>
         <v>0.49999999999999994</v>
       </c>
-      <c r="Q14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*Q13 + $F$14),"")</f>
+      <c r="Q14" s="81">
+        <f t="shared" si="3"/>
         <v>0.64278760968653925</v>
       </c>
-      <c r="R14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*R13 + $F$14),"")</f>
+      <c r="R14" s="81">
+        <f t="shared" si="3"/>
         <v>0.76604444311897801</v>
       </c>
-      <c r="S14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*S13 + $F$14),"")</f>
+      <c r="S14" s="81">
+        <f t="shared" si="3"/>
         <v>0.8660254037844386</v>
       </c>
-      <c r="T14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*T13 + $F$14),"")</f>
+      <c r="T14" s="81">
+        <f t="shared" si="3"/>
         <v>0.93969262078590832</v>
       </c>
-      <c r="U14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*U13 + $F$14),"")</f>
+      <c r="U14" s="81">
+        <f t="shared" si="3"/>
         <v>0.98480775301220802</v>
       </c>
-      <c r="V14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*V13 + $F$14),"")</f>
+      <c r="V14" s="81">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="W14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*W13 + $F$14),"")</f>
+      <c r="W14" s="81">
+        <f t="shared" si="3"/>
         <v>0.98480775301220802</v>
       </c>
-      <c r="X14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*X13 + $F$14),"")</f>
+      <c r="X14" s="81">
+        <f t="shared" si="3"/>
         <v>0.93969262078590843</v>
       </c>
-      <c r="Y14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*Y13 + $F$14),"")</f>
+      <c r="Y14" s="81">
+        <f t="shared" si="3"/>
         <v>0.86602540378443871</v>
       </c>
-      <c r="Z14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*Z13 + $F$14),"")</f>
+      <c r="Z14" s="81">
+        <f t="shared" si="3"/>
         <v>0.76604444311897801</v>
       </c>
-      <c r="AA14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AA13 + $F$14),"")</f>
+      <c r="AA14" s="81">
+        <f t="shared" si="3"/>
         <v>0.64278760968653947</v>
       </c>
-      <c r="AB14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AB13 + $F$14),"")</f>
+      <c r="AB14" s="81">
+        <f t="shared" si="3"/>
         <v>0.49999999999999994</v>
       </c>
-      <c r="AC14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AC13 + $F$14),"")</f>
+      <c r="AC14" s="81">
+        <f t="shared" si="3"/>
         <v>0.34202014332566888</v>
       </c>
-      <c r="AD14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AD13 + $F$14),"")</f>
+      <c r="AD14" s="81">
+        <f t="shared" si="3"/>
         <v>0.17364817766693028</v>
       </c>
-      <c r="AE14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AE13 + $F$14),"")</f>
+      <c r="AE14" s="81">
+        <f t="shared" si="3"/>
         <v>1.22514845490862E-16</v>
       </c>
-      <c r="AF14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AF13 + $F$14),"")</f>
+      <c r="AF14" s="81">
+        <f t="shared" si="3"/>
         <v>-0.17364817766693047</v>
       </c>
-      <c r="AG14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AG13 + $F$14),"")</f>
+      <c r="AG14" s="81">
+        <f t="shared" si="3"/>
         <v>-0.34202014332566866</v>
       </c>
-      <c r="AH14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AH13 + $F$14),"")</f>
+      <c r="AH14" s="81">
+        <f t="shared" si="3"/>
         <v>-0.50000000000000011</v>
       </c>
-      <c r="AI14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AI13 + $F$14),"")</f>
+      <c r="AI14" s="81">
+        <f t="shared" si="3"/>
         <v>-0.64278760968653925</v>
       </c>
-      <c r="AJ14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AJ13 + $F$14),"")</f>
+      <c r="AJ14" s="81">
+        <f t="shared" si="3"/>
         <v>-0.7660444431189779</v>
       </c>
-      <c r="AK14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AK13 + $F$14),"")</f>
+      <c r="AK14" s="81">
+        <f t="shared" si="3"/>
         <v>-0.86602540378443837</v>
       </c>
-      <c r="AL14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AL13 + $F$14),"")</f>
+      <c r="AL14" s="81">
+        <f t="shared" si="3"/>
         <v>-0.93969262078590821</v>
       </c>
-      <c r="AM14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AM13 + $F$14),"")</f>
+      <c r="AM14" s="81">
+        <f t="shared" si="3"/>
         <v>-0.98480775301220802</v>
       </c>
-      <c r="AN14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AN13 + $F$14),"")</f>
+      <c r="AN14" s="81">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="AO14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AO13 + $F$14),"")</f>
+      <c r="AO14" s="81">
+        <f t="shared" si="3"/>
         <v>-0.98480775301220813</v>
       </c>
-      <c r="AP14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AP13 + $F$14),"")</f>
+      <c r="AP14" s="81">
+        <f t="shared" si="3"/>
         <v>-0.93969262078590854</v>
       </c>
-      <c r="AQ14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AQ13 + $F$14),"")</f>
+      <c r="AQ14" s="81">
+        <f t="shared" si="3"/>
         <v>-0.8660254037844386</v>
       </c>
-      <c r="AR14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AR13 + $F$14),"")</f>
+      <c r="AR14" s="81">
+        <f t="shared" si="3"/>
         <v>-0.76604444311897812</v>
       </c>
-      <c r="AS14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AS13 + $F$14),"")</f>
+      <c r="AS14" s="81">
+        <f t="shared" si="3"/>
         <v>-0.64278760968653958</v>
       </c>
-      <c r="AT14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AT13 + $F$14),"")</f>
+      <c r="AT14" s="81">
+        <f t="shared" si="3"/>
         <v>-0.50000000000000044</v>
       </c>
-      <c r="AU14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AU13 + $F$14),"")</f>
+      <c r="AU14" s="81">
+        <f t="shared" si="3"/>
         <v>-0.3420201433256686</v>
       </c>
-      <c r="AV14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AV13 + $F$14),"")</f>
+      <c r="AV14" s="81">
+        <f t="shared" si="3"/>
         <v>-0.17364817766693127</v>
       </c>
-      <c r="AW14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AW13 + $F$14),"")</f>
+      <c r="AW14" s="81">
+        <f t="shared" si="3"/>
         <v>-2.45029690981724E-16</v>
       </c>
-      <c r="AX14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AX13 + $F$14),"")</f>
+      <c r="AX14" s="81">
+        <f t="shared" si="3"/>
         <v>0.17364817766692991</v>
       </c>
-      <c r="AY14" s="122">
-        <f>IF($L$14=$AI$7,$C$14*SIN($D$14*AY13 + $F$14),"")</f>
+      <c r="AY14" s="81">
+        <f t="shared" si="3"/>
         <v>0.34202014332566893</v>
       </c>
     </row>
     <row r="15" spans="3:51" x14ac:dyDescent="0.35">
-      <c r="C15" s="79">
+      <c r="C15" s="69">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D15" s="79">
+      <c r="D15" s="69">
         <v>3</v>
       </c>
-      <c r="E15" s="79">
+      <c r="E15" s="69">
         <v>0</v>
       </c>
-      <c r="F15" s="149">
-        <f t="shared" ref="F15:F17" si="3">PI()*E15/180</f>
+      <c r="F15" s="100">
+        <f t="shared" ref="F15:F17" si="4">PI()*E15/180</f>
         <v>0</v>
       </c>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="129" t="str">
-        <f t="shared" ref="J15:J17" si="4">_xlfn.CONCAT("y0 = ",IF(C15&lt;&gt;1,_xlfn.CONCAT(ROUND(C15,2)," *"),"")," sin(",IF(D15&lt;&gt;1,_xlfn.CONCAT(ROUND(D15,2),"*"),""),"x ",IF(F15&lt;&gt;0,_xlfn.CONCAT(" + ",ROUND(F15,2),""),""),") = ")</f>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="J15" s="86" t="str">
+        <f t="shared" ref="J15:J17" si="5">_xlfn.CONCAT("y0 = ",IF(C15&lt;&gt;1,_xlfn.CONCAT(ROUND(C15,2)," *"),"")," sin(",IF(D15&lt;&gt;1,_xlfn.CONCAT(ROUND(D15,2),"*"),""),"x ",IF(F15&lt;&gt;0,_xlfn.CONCAT(" + ",ROUND(F15,2),""),""),") = ")</f>
         <v xml:space="preserve">y0 = 0.33 * sin(3*x ) = </v>
       </c>
-      <c r="K15" s="142">
+      <c r="K15" s="94">
         <f>IF($L$15=$AI$7,$C$15*SIN($D$15*K13 + $F$15),"")</f>
+        <v>-8.1676563660574659E-17</v>
+      </c>
+      <c r="L15" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="M15" s="82">
+        <f t="shared" ref="M15:AY15" si="6">IF($L$15=$AI$7,$C$15*SIN($D$15*M13 + $F$15),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="82">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="O15" s="82">
+        <f t="shared" si="6"/>
+        <v>0.28867513459481287</v>
+      </c>
+      <c r="P15" s="82">
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L15" s="117" t="s">
-        <v>123</v>
-      </c>
-      <c r="M15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*M13 + $F$15),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*N13 + $F$15),"")</f>
+      <c r="Q15" s="82">
+        <f t="shared" si="6"/>
+        <v>0.28867513459481287</v>
+      </c>
+      <c r="R15" s="82">
+        <f t="shared" si="6"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="O15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*O13 + $F$15),"")</f>
+      <c r="S15" s="82">
+        <f t="shared" si="6"/>
+        <v>4.083828183028733E-17</v>
+      </c>
+      <c r="T15" s="82">
+        <f t="shared" si="6"/>
+        <v>-0.16666666666666657</v>
+      </c>
+      <c r="U15" s="82">
+        <f t="shared" si="6"/>
+        <v>-0.28867513459481275</v>
+      </c>
+      <c r="V15" s="82">
+        <f t="shared" si="6"/>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="W15" s="82">
+        <f t="shared" si="6"/>
+        <v>-0.28867513459481287</v>
+      </c>
+      <c r="X15" s="82">
+        <f t="shared" si="6"/>
+        <v>-0.16666666666666655</v>
+      </c>
+      <c r="Y15" s="82">
+        <f t="shared" si="6"/>
+        <v>-8.1676563660574659E-17</v>
+      </c>
+      <c r="Z15" s="82">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AA15" s="82">
+        <f t="shared" si="6"/>
+        <v>0.28867513459481275</v>
+      </c>
+      <c r="AB15" s="82">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AC15" s="82">
+        <f t="shared" si="6"/>
+        <v>0.28867513459481303</v>
+      </c>
+      <c r="AD15" s="82">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666657</v>
+      </c>
+      <c r="AE15" s="82">
+        <f t="shared" si="6"/>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="AF15" s="82">
+        <f t="shared" si="6"/>
+        <v>-0.16666666666666688</v>
+      </c>
+      <c r="AG15" s="82">
+        <f t="shared" si="6"/>
+        <v>-0.28867513459481287</v>
+      </c>
+      <c r="AH15" s="82">
+        <f t="shared" si="6"/>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="AI15" s="82">
+        <f t="shared" si="6"/>
+        <v>-0.28867513459481275</v>
+      </c>
+      <c r="AJ15" s="82">
+        <f t="shared" si="6"/>
+        <v>-0.16666666666666663</v>
+      </c>
+      <c r="AK15" s="82">
+        <f t="shared" si="6"/>
+        <v>-1.6335312732114932E-16</v>
+      </c>
+      <c r="AL15" s="82">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666635</v>
+      </c>
+      <c r="AM15" s="82">
+        <f t="shared" si="6"/>
         <v>0.28867513459481287</v>
       </c>
-      <c r="P15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*P13 + $F$15),"")</f>
+      <c r="AN15" s="82">
+        <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*Q13 + $F$15),"")</f>
-        <v>0.28867513459481287</v>
-      </c>
-      <c r="R15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*R13 + $F$15),"")</f>
-        <v>0.16666666666666663</v>
-      </c>
-      <c r="S15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*S13 + $F$15),"")</f>
-        <v>4.083828183028733E-17</v>
-      </c>
-      <c r="T15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*T13 + $F$15),"")</f>
-        <v>-0.16666666666666657</v>
-      </c>
-      <c r="U15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*U13 + $F$15),"")</f>
+      <c r="AO15" s="82">
+        <f t="shared" si="6"/>
+        <v>0.28867513459481309</v>
+      </c>
+      <c r="AP15" s="82">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666718</v>
+      </c>
+      <c r="AQ15" s="82">
+        <f t="shared" si="6"/>
+        <v>2.0419140915143666E-16</v>
+      </c>
+      <c r="AR15" s="82">
+        <f t="shared" si="6"/>
+        <v>-0.1666666666666663</v>
+      </c>
+      <c r="AS15" s="82">
+        <f t="shared" si="6"/>
+        <v>-0.28867513459481253</v>
+      </c>
+      <c r="AT15" s="82">
+        <f t="shared" si="6"/>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="AU15" s="82">
+        <f t="shared" si="6"/>
         <v>-0.28867513459481275</v>
       </c>
-      <c r="V15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*V13 + $F$15),"")</f>
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="W15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*W13 + $F$15),"")</f>
-        <v>-0.28867513459481287</v>
-      </c>
-      <c r="X15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*X13 + $F$15),"")</f>
-        <v>-0.16666666666666655</v>
-      </c>
-      <c r="Y15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*Y13 + $F$15),"")</f>
-        <v>-8.1676563660574659E-17</v>
-      </c>
-      <c r="Z15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*Z13 + $F$15),"")</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="AA15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AA13 + $F$15),"")</f>
-        <v>0.28867513459481275</v>
-      </c>
-      <c r="AB15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AB13 + $F$15),"")</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AC15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AC13 + $F$15),"")</f>
-        <v>0.28867513459481303</v>
-      </c>
-      <c r="AD15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AD13 + $F$15),"")</f>
-        <v>0.16666666666666657</v>
-      </c>
-      <c r="AE15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AE13 + $F$15),"")</f>
-        <v>1.22514845490862E-16</v>
-      </c>
-      <c r="AF15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AF13 + $F$15),"")</f>
-        <v>-0.16666666666666688</v>
-      </c>
-      <c r="AG15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AG13 + $F$15),"")</f>
-        <v>-0.28867513459481287</v>
-      </c>
-      <c r="AH15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AH13 + $F$15),"")</f>
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="AI15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AI13 + $F$15),"")</f>
-        <v>-0.28867513459481275</v>
-      </c>
-      <c r="AJ15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AJ13 + $F$15),"")</f>
-        <v>-0.16666666666666663</v>
-      </c>
-      <c r="AK15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AK13 + $F$15),"")</f>
-        <v>-1.6335312732114932E-16</v>
-      </c>
-      <c r="AL15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AL13 + $F$15),"")</f>
-        <v>0.16666666666666635</v>
-      </c>
-      <c r="AM15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AM13 + $F$15),"")</f>
-        <v>0.28867513459481287</v>
-      </c>
-      <c r="AN15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AN13 + $F$15),"")</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AO15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AO13 + $F$15),"")</f>
-        <v>0.28867513459481309</v>
-      </c>
-      <c r="AP15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AP13 + $F$15),"")</f>
-        <v>0.16666666666666718</v>
-      </c>
-      <c r="AQ15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AQ13 + $F$15),"")</f>
-        <v>2.0419140915143666E-16</v>
-      </c>
-      <c r="AR15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AR13 + $F$15),"")</f>
-        <v>-0.1666666666666663</v>
-      </c>
-      <c r="AS15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AS13 + $F$15),"")</f>
-        <v>-0.28867513459481253</v>
-      </c>
-      <c r="AT15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AT13 + $F$15),"")</f>
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="AU15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AU13 + $F$15),"")</f>
-        <v>-0.28867513459481275</v>
-      </c>
-      <c r="AV15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AV13 + $F$15),"")</f>
+      <c r="AV15" s="82">
+        <f t="shared" si="6"/>
         <v>-0.16666666666666774</v>
       </c>
-      <c r="AW15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AW13 + $F$15),"")</f>
+      <c r="AW15" s="82">
+        <f t="shared" si="6"/>
         <v>-2.45029690981724E-16</v>
       </c>
-      <c r="AX15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AX13 + $F$15),"")</f>
+      <c r="AX15" s="82">
+        <f t="shared" si="6"/>
         <v>0.16666666666666627</v>
       </c>
-      <c r="AY15" s="123">
-        <f>IF($L$15=$AI$7,$C$15*SIN($D$15*AY13 + $F$15),"")</f>
+      <c r="AY15" s="82">
+        <f t="shared" si="6"/>
         <v>0.28867513459481314</v>
       </c>
     </row>
     <row r="16" spans="3:51" x14ac:dyDescent="0.35">
-      <c r="C16" s="79">
+      <c r="C16" s="69">
         <f>1/5</f>
         <v>0.2</v>
       </c>
-      <c r="D16" s="79">
+      <c r="D16" s="69">
         <v>5</v>
       </c>
-      <c r="E16" s="79">
+      <c r="E16" s="69">
         <v>0</v>
       </c>
-      <c r="F16" s="149">
-        <f t="shared" si="3"/>
+      <c r="F16" s="100">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="130" t="str">
-        <f t="shared" si="4"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="J16" s="87" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">y0 = 0.2 * sin(5*x ) = </v>
       </c>
-      <c r="K16" s="143">
+      <c r="K16" s="95">
         <f>IF($L$16=$AI$7,$C$16*SIN($D$16*K13 + $F$16),"")</f>
+        <v>-0.17320508075688756</v>
+      </c>
+      <c r="L16" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="82">
+        <f t="shared" ref="M16:AY16" si="7">IF($L$16=$AI$7,$C$16*SIN($D$16*M13 + $F$16),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="82">
+        <f t="shared" si="7"/>
+        <v>0.15320888862379561</v>
+      </c>
+      <c r="O16" s="82">
+        <f t="shared" si="7"/>
+        <v>0.19696155060244161</v>
+      </c>
+      <c r="P16" s="82">
+        <f t="shared" si="7"/>
+        <v>0.10000000000000007</v>
+      </c>
+      <c r="Q16" s="82">
+        <f t="shared" si="7"/>
+        <v>-6.8404028665133731E-2</v>
+      </c>
+      <c r="R16" s="82">
+        <f t="shared" si="7"/>
+        <v>-0.18793852415718171</v>
+      </c>
+      <c r="S16" s="82">
+        <f t="shared" si="7"/>
+        <v>-0.17320508075688781</v>
+      </c>
+      <c r="T16" s="82">
+        <f t="shared" si="7"/>
+        <v>-3.472963553338608E-2</v>
+      </c>
+      <c r="U16" s="82">
+        <f t="shared" si="7"/>
+        <v>0.12855752193730782</v>
+      </c>
+      <c r="V16" s="82">
+        <f t="shared" si="7"/>
+        <v>0.2</v>
+      </c>
+      <c r="W16" s="82">
+        <f t="shared" si="7"/>
+        <v>0.12855752193730782</v>
+      </c>
+      <c r="X16" s="82">
+        <f t="shared" si="7"/>
+        <v>-3.4729635533385955E-2</v>
+      </c>
+      <c r="Y16" s="82">
+        <f t="shared" si="7"/>
+        <v>-0.17320508075688756</v>
+      </c>
+      <c r="Z16" s="82">
+        <f t="shared" si="7"/>
+        <v>-0.18793852415718162</v>
+      </c>
+      <c r="AA16" s="82">
+        <f t="shared" si="7"/>
+        <v>-6.8404028665133773E-2</v>
+      </c>
+      <c r="AB16" s="82">
+        <f t="shared" si="7"/>
+        <v>0.10000000000000012</v>
+      </c>
+      <c r="AC16" s="82">
+        <f t="shared" si="7"/>
+        <v>0.19696155060244161</v>
+      </c>
+      <c r="AD16" s="82">
+        <f t="shared" si="7"/>
+        <v>0.15320888862379556</v>
+      </c>
+      <c r="AE16" s="82">
+        <f t="shared" si="7"/>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="AF16" s="82">
+        <f t="shared" si="7"/>
+        <v>-0.15320888862379586</v>
+      </c>
+      <c r="AG16" s="82">
+        <f t="shared" si="7"/>
+        <v>-0.19696155060244158</v>
+      </c>
+      <c r="AH16" s="82">
+        <f t="shared" si="7"/>
+        <v>-0.10000000000000003</v>
+      </c>
+      <c r="AI16" s="82">
+        <f t="shared" si="7"/>
+        <v>6.8404028665133537E-2</v>
+      </c>
+      <c r="AJ16" s="82">
+        <f t="shared" si="7"/>
+        <v>0.18793852415718154</v>
+      </c>
+      <c r="AK16" s="82">
+        <f t="shared" si="7"/>
+        <v>0.17320508075688806</v>
+      </c>
+      <c r="AL16" s="82">
+        <f t="shared" si="7"/>
+        <v>3.4729635533386899E-2</v>
+      </c>
+      <c r="AM16" s="82">
+        <f t="shared" si="7"/>
+        <v>-0.12855752193730816</v>
+      </c>
+      <c r="AN16" s="82">
+        <f t="shared" si="7"/>
         <v>-0.2</v>
       </c>
-      <c r="L16" s="118" t="s">
-        <v>123</v>
-      </c>
-      <c r="M16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*M13 + $F$16),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*N13 + $F$16),"")</f>
-        <v>0.15320888862379561</v>
-      </c>
-      <c r="O16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*O13 + $F$16),"")</f>
-        <v>0.19696155060244161</v>
-      </c>
-      <c r="P16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*P13 + $F$16),"")</f>
-        <v>0.10000000000000007</v>
-      </c>
-      <c r="Q16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*Q13 + $F$16),"")</f>
-        <v>-6.8404028665133731E-2</v>
-      </c>
-      <c r="R16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*R13 + $F$16),"")</f>
-        <v>-0.18793852415718171</v>
-      </c>
-      <c r="S16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*S13 + $F$16),"")</f>
-        <v>-0.17320508075688781</v>
-      </c>
-      <c r="T16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*T13 + $F$16),"")</f>
-        <v>-3.472963553338608E-2</v>
-      </c>
-      <c r="U16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*U13 + $F$16),"")</f>
-        <v>0.12855752193730782</v>
-      </c>
-      <c r="V16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*V13 + $F$16),"")</f>
-        <v>0.2</v>
-      </c>
-      <c r="W16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*W13 + $F$16),"")</f>
-        <v>0.12855752193730782</v>
-      </c>
-      <c r="X16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*X13 + $F$16),"")</f>
-        <v>-3.4729635533385955E-2</v>
-      </c>
-      <c r="Y16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*Y13 + $F$16),"")</f>
-        <v>-0.17320508075688756</v>
-      </c>
-      <c r="Z16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*Z13 + $F$16),"")</f>
-        <v>-0.18793852415718162</v>
-      </c>
-      <c r="AA16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AA13 + $F$16),"")</f>
-        <v>-6.8404028665133773E-2</v>
-      </c>
-      <c r="AB16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AB13 + $F$16),"")</f>
-        <v>0.10000000000000012</v>
-      </c>
-      <c r="AC16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AC13 + $F$16),"")</f>
-        <v>0.19696155060244161</v>
-      </c>
-      <c r="AD16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AD13 + $F$16),"")</f>
-        <v>0.15320888862379556</v>
-      </c>
-      <c r="AE16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AE13 + $F$16),"")</f>
-        <v>1.22514845490862E-16</v>
-      </c>
-      <c r="AF16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AF13 + $F$16),"")</f>
-        <v>-0.15320888862379586</v>
-      </c>
-      <c r="AG16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AG13 + $F$16),"")</f>
-        <v>-0.19696155060244158</v>
-      </c>
-      <c r="AH16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AH13 + $F$16),"")</f>
-        <v>-0.10000000000000003</v>
-      </c>
-      <c r="AI16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AI13 + $F$16),"")</f>
-        <v>6.8404028665133537E-2</v>
-      </c>
-      <c r="AJ16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AJ13 + $F$16),"")</f>
-        <v>0.18793852415718154</v>
-      </c>
-      <c r="AK16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AK13 + $F$16),"")</f>
-        <v>0.17320508075688806</v>
-      </c>
-      <c r="AL16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AL13 + $F$16),"")</f>
-        <v>3.4729635533386899E-2</v>
-      </c>
-      <c r="AM16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AM13 + $F$16),"")</f>
-        <v>-0.12855752193730816</v>
-      </c>
-      <c r="AN16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AN13 + $F$16),"")</f>
-        <v>-0.2</v>
-      </c>
-      <c r="AO16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AO13 + $F$16),"")</f>
+      <c r="AO16" s="82">
+        <f t="shared" si="7"/>
         <v>-0.12855752193730791</v>
       </c>
-      <c r="AP16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AP13 + $F$16),"")</f>
+      <c r="AP16" s="82">
+        <f t="shared" si="7"/>
         <v>3.4729635533385143E-2</v>
       </c>
-      <c r="AQ16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AQ13 + $F$16),"")</f>
+      <c r="AQ16" s="82">
+        <f t="shared" si="7"/>
         <v>0.1732050807568879</v>
       </c>
-      <c r="AR16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AR13 + $F$16),"")</f>
+      <c r="AR16" s="82">
+        <f t="shared" si="7"/>
         <v>0.18793852415718168</v>
       </c>
-      <c r="AS16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AS13 + $F$16),"")</f>
+      <c r="AS16" s="82">
+        <f t="shared" si="7"/>
         <v>6.8404028665133884E-2</v>
       </c>
-      <c r="AT16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AT13 + $F$16),"")</f>
+      <c r="AT16" s="82">
+        <f t="shared" si="7"/>
         <v>-9.99999999999997E-2</v>
       </c>
-      <c r="AU16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AU13 + $F$16),"")</f>
+      <c r="AU16" s="82">
+        <f t="shared" si="7"/>
         <v>-0.19696155060244167</v>
       </c>
-      <c r="AV16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AV13 + $F$16),"")</f>
+      <c r="AV16" s="82">
+        <f t="shared" si="7"/>
         <v>-0.15320888862379611</v>
       </c>
-      <c r="AW16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AW13 + $F$16),"")</f>
+      <c r="AW16" s="82">
+        <f t="shared" si="7"/>
         <v>-2.45029690981724E-16</v>
       </c>
-      <c r="AX16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AX13 + $F$16),"")</f>
+      <c r="AX16" s="82">
+        <f t="shared" si="7"/>
         <v>0.15320888862379578</v>
       </c>
-      <c r="AY16" s="123">
-        <f>IF($L$16=$AI$7,$C$16*SIN($D$16*AY13 + $F$16),"")</f>
+      <c r="AY16" s="82">
+        <f t="shared" si="7"/>
         <v>0.19696155060244147</v>
       </c>
     </row>
     <row r="17" spans="3:51" x14ac:dyDescent="0.35">
-      <c r="C17" s="79">
+      <c r="C17" s="69">
         <f>1/7</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="D17" s="79">
+      <c r="D17" s="69">
         <v>7</v>
       </c>
-      <c r="E17" s="79">
+      <c r="E17" s="69">
         <v>0</v>
       </c>
-      <c r="F17" s="149">
-        <f t="shared" si="3"/>
+      <c r="F17" s="100">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="131" t="str">
-        <f t="shared" si="4"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="J17" s="88" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">y0 = 0.14 * sin(7*x ) = </v>
       </c>
-      <c r="K17" s="144">
+      <c r="K17" s="96">
         <f>IF($L$17=$AI$7,$C$17*SIN($D$17*K13 + $F$17),"")</f>
+        <v>0.12371791482634846</v>
+      </c>
+      <c r="L17" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="M17" s="82">
+        <f t="shared" ref="M17:AY17" si="8">IF($L$17=$AI$7,$C$17*SIN($D$17*M13 + $F$17),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="82">
+        <f t="shared" si="8"/>
+        <v>0.13424180296941546</v>
+      </c>
+      <c r="O17" s="82">
+        <f t="shared" si="8"/>
+        <v>9.1826801383791345E-2</v>
+      </c>
+      <c r="P17" s="82">
+        <f t="shared" si="8"/>
+        <v>-7.1428571428571383E-2</v>
+      </c>
+      <c r="Q17" s="82">
+        <f t="shared" si="8"/>
+        <v>-0.14068682185888687</v>
+      </c>
+      <c r="R17" s="82">
+        <f t="shared" si="8"/>
+        <v>-2.4806882523847197E-2</v>
+      </c>
+      <c r="S17" s="82">
+        <f t="shared" si="8"/>
+        <v>0.12371791482634834</v>
+      </c>
+      <c r="T17" s="82">
+        <f t="shared" si="8"/>
+        <v>0.10943492044556839</v>
+      </c>
+      <c r="U17" s="82">
+        <f t="shared" si="8"/>
+        <v>-4.8860020475095425E-2</v>
+      </c>
+      <c r="V17" s="82">
+        <f t="shared" si="8"/>
+        <v>-0.14285714285714285</v>
+      </c>
+      <c r="W17" s="82">
+        <f t="shared" si="8"/>
+        <v>-4.8860020475095543E-2</v>
+      </c>
+      <c r="X17" s="82">
+        <f t="shared" si="8"/>
+        <v>0.10943492044556831</v>
+      </c>
+      <c r="Y17" s="82">
+        <f t="shared" si="8"/>
+        <v>0.12371791482634846</v>
+      </c>
+      <c r="Z17" s="82">
+        <f t="shared" si="8"/>
+        <v>-2.4806882523847079E-2</v>
+      </c>
+      <c r="AA17" s="82">
+        <f t="shared" si="8"/>
+        <v>-0.14068682185888681</v>
+      </c>
+      <c r="AB17" s="82">
+        <f t="shared" si="8"/>
+        <v>-7.1428571428571438E-2</v>
+      </c>
+      <c r="AC17" s="82">
+        <f t="shared" si="8"/>
+        <v>9.1826801383791151E-2</v>
+      </c>
+      <c r="AD17" s="82">
+        <f t="shared" si="8"/>
+        <v>0.13424180296941546</v>
+      </c>
+      <c r="AE17" s="82">
+        <f t="shared" si="8"/>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="AF17" s="82">
+        <f t="shared" si="8"/>
+        <v>-0.13424180296941554</v>
+      </c>
+      <c r="AG17" s="82">
+        <f t="shared" si="8"/>
+        <v>-9.1826801383791345E-2</v>
+      </c>
+      <c r="AH17" s="82">
+        <f t="shared" si="8"/>
+        <v>7.1428571428571661E-2</v>
+      </c>
+      <c r="AI17" s="82">
+        <f t="shared" si="8"/>
+        <v>0.14068682185888684</v>
+      </c>
+      <c r="AJ17" s="82">
+        <f t="shared" si="8"/>
+        <v>2.4806882523847319E-2</v>
+      </c>
+      <c r="AK17" s="82">
+        <f t="shared" si="8"/>
+        <v>-0.12371791482634821</v>
+      </c>
+      <c r="AL17" s="82">
+        <f t="shared" si="8"/>
+        <v>-0.10943492044556863</v>
+      </c>
+      <c r="AM17" s="82">
+        <f t="shared" si="8"/>
+        <v>4.8860020475095314E-2</v>
+      </c>
+      <c r="AN17" s="82">
+        <f t="shared" si="8"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="L17" s="119" t="s">
-        <v>123</v>
-      </c>
-      <c r="M17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*M13 + $F$17),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*N13 + $F$17),"")</f>
-        <v>0.13424180296941546</v>
-      </c>
-      <c r="O17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*O13 + $F$17),"")</f>
-        <v>9.1826801383791345E-2</v>
-      </c>
-      <c r="P17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*P13 + $F$17),"")</f>
-        <v>-7.1428571428571383E-2</v>
-      </c>
-      <c r="Q17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*Q13 + $F$17),"")</f>
-        <v>-0.14068682185888687</v>
-      </c>
-      <c r="R17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*R13 + $F$17),"")</f>
-        <v>-2.4806882523847197E-2</v>
-      </c>
-      <c r="S17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*S13 + $F$17),"")</f>
-        <v>0.12371791482634834</v>
-      </c>
-      <c r="T17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*T13 + $F$17),"")</f>
-        <v>0.10943492044556839</v>
-      </c>
-      <c r="U17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*U13 + $F$17),"")</f>
-        <v>-4.8860020475095425E-2</v>
-      </c>
-      <c r="V17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*V13 + $F$17),"")</f>
-        <v>-0.14285714285714285</v>
-      </c>
-      <c r="W17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*W13 + $F$17),"")</f>
-        <v>-4.8860020475095543E-2</v>
-      </c>
-      <c r="X17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*X13 + $F$17),"")</f>
-        <v>0.10943492044556831</v>
-      </c>
-      <c r="Y17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*Y13 + $F$17),"")</f>
-        <v>0.12371791482634846</v>
-      </c>
-      <c r="Z17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*Z13 + $F$17),"")</f>
-        <v>-2.4806882523847079E-2</v>
-      </c>
-      <c r="AA17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AA13 + $F$17),"")</f>
-        <v>-0.14068682185888681</v>
-      </c>
-      <c r="AB17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AB13 + $F$17),"")</f>
-        <v>-7.1428571428571438E-2</v>
-      </c>
-      <c r="AC17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AC13 + $F$17),"")</f>
-        <v>9.1826801383791151E-2</v>
-      </c>
-      <c r="AD17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AD13 + $F$17),"")</f>
-        <v>0.13424180296941546</v>
-      </c>
-      <c r="AE17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AE13 + $F$17),"")</f>
-        <v>1.22514845490862E-16</v>
-      </c>
-      <c r="AF17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AF13 + $F$17),"")</f>
-        <v>-0.13424180296941554</v>
-      </c>
-      <c r="AG17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AG13 + $F$17),"")</f>
-        <v>-9.1826801383791345E-2</v>
-      </c>
-      <c r="AH17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AH13 + $F$17),"")</f>
-        <v>7.1428571428571661E-2</v>
-      </c>
-      <c r="AI17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AI13 + $F$17),"")</f>
-        <v>0.14068682185888684</v>
-      </c>
-      <c r="AJ17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AJ13 + $F$17),"")</f>
-        <v>2.4806882523847319E-2</v>
-      </c>
-      <c r="AK17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AK13 + $F$17),"")</f>
-        <v>-0.12371791482634821</v>
-      </c>
-      <c r="AL17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AL13 + $F$17),"")</f>
-        <v>-0.10943492044556863</v>
-      </c>
-      <c r="AM17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AM13 + $F$17),"")</f>
-        <v>4.8860020475095314E-2</v>
-      </c>
-      <c r="AN17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AN13 + $F$17),"")</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AO17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AO13 + $F$17),"")</f>
+      <c r="AO17" s="82">
+        <f t="shared" si="8"/>
         <v>4.8860020475096133E-2</v>
       </c>
-      <c r="AP17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AP13 + $F$17),"")</f>
+      <c r="AP17" s="82">
+        <f t="shared" si="8"/>
         <v>-0.10943492044556806</v>
       </c>
-      <c r="AQ17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AQ13 + $F$17),"")</f>
+      <c r="AQ17" s="82">
+        <f t="shared" si="8"/>
         <v>-0.12371791482634839</v>
       </c>
-      <c r="AR17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AR13 + $F$17),"")</f>
+      <c r="AR17" s="82">
+        <f t="shared" si="8"/>
         <v>2.4806882523847454E-2</v>
       </c>
-      <c r="AS17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AS13 + $F$17),"")</f>
+      <c r="AS17" s="82">
+        <f t="shared" si="8"/>
         <v>0.14068682185888678</v>
       </c>
-      <c r="AT17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AT13 + $F$17),"")</f>
+      <c r="AT17" s="82">
+        <f t="shared" si="8"/>
         <v>7.142857142857155E-2</v>
       </c>
-      <c r="AU17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AU13 + $F$17),"")</f>
+      <c r="AU17" s="82">
+        <f t="shared" si="8"/>
         <v>-9.1826801383791457E-2</v>
       </c>
-      <c r="AV17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AV13 + $F$17),"")</f>
+      <c r="AV17" s="82">
+        <f t="shared" si="8"/>
         <v>-0.13424180296941565</v>
       </c>
-      <c r="AW17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AW13 + $F$17),"")</f>
+      <c r="AW17" s="82">
+        <f t="shared" si="8"/>
         <v>-2.45029690981724E-16</v>
       </c>
-      <c r="AX17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AX13 + $F$17),"")</f>
+      <c r="AX17" s="82">
+        <f t="shared" si="8"/>
         <v>0.13424180296941515</v>
       </c>
-      <c r="AY17" s="123">
-        <f>IF($L$17=$AI$7,$C$17*SIN($D$17*AY13 + $F$17),"")</f>
+      <c r="AY17" s="82">
+        <f t="shared" si="8"/>
         <v>9.182680138379104E-2</v>
       </c>
     </row>
     <row r="18" spans="3:51" ht="8.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J18" s="78"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="76"/>
-      <c r="T18" s="76"/>
-      <c r="U18" s="76"/>
-      <c r="V18" s="76"/>
-      <c r="W18" s="76"/>
-      <c r="X18" s="76"/>
-      <c r="Y18" s="76"/>
-      <c r="Z18" s="76"/>
-      <c r="AA18" s="76"/>
-      <c r="AB18" s="76"/>
-      <c r="AC18" s="76"/>
-      <c r="AD18" s="76"/>
-      <c r="AE18" s="76"/>
-      <c r="AF18" s="76"/>
-      <c r="AG18" s="76"/>
-      <c r="AH18" s="76"/>
-      <c r="AI18" s="76"/>
-      <c r="AJ18" s="76"/>
-      <c r="AK18" s="76"/>
-      <c r="AL18" s="76"/>
-      <c r="AM18" s="76"/>
-      <c r="AN18" s="76"/>
-      <c r="AO18" s="76"/>
-      <c r="AP18" s="76"/>
-      <c r="AQ18" s="76"/>
-      <c r="AR18" s="76"/>
-      <c r="AS18" s="76"/>
-      <c r="AT18" s="76"/>
-      <c r="AU18" s="76"/>
-      <c r="AV18" s="76"/>
-      <c r="AW18" s="76"/>
-      <c r="AX18" s="76"/>
-      <c r="AY18" s="76"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="66"/>
+      <c r="Y18" s="66"/>
+      <c r="Z18" s="66"/>
+      <c r="AA18" s="66"/>
+      <c r="AB18" s="66"/>
+      <c r="AC18" s="66"/>
+      <c r="AD18" s="66"/>
+      <c r="AE18" s="66"/>
+      <c r="AF18" s="66"/>
+      <c r="AG18" s="66"/>
+      <c r="AH18" s="66"/>
+      <c r="AI18" s="66"/>
+      <c r="AJ18" s="66"/>
+      <c r="AK18" s="66"/>
+      <c r="AL18" s="66"/>
+      <c r="AM18" s="66"/>
+      <c r="AN18" s="66"/>
+      <c r="AO18" s="66"/>
+      <c r="AP18" s="66"/>
+      <c r="AQ18" s="66"/>
+      <c r="AR18" s="66"/>
+      <c r="AS18" s="66"/>
+      <c r="AT18" s="66"/>
+      <c r="AU18" s="66"/>
+      <c r="AV18" s="66"/>
+      <c r="AW18" s="66"/>
+      <c r="AX18" s="66"/>
+      <c r="AY18" s="66"/>
     </row>
     <row r="19" spans="3:51" ht="8.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J19" s="78"/>
-      <c r="K19" s="145"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="76"/>
-      <c r="T19" s="76"/>
-      <c r="U19" s="76"/>
-      <c r="V19" s="76"/>
-      <c r="W19" s="76"/>
-      <c r="X19" s="76"/>
-      <c r="Y19" s="76"/>
-      <c r="Z19" s="76"/>
-      <c r="AA19" s="76"/>
-      <c r="AB19" s="76"/>
-      <c r="AC19" s="76"/>
-      <c r="AD19" s="76"/>
-      <c r="AE19" s="76"/>
-      <c r="AF19" s="76"/>
-      <c r="AG19" s="76"/>
-      <c r="AH19" s="76"/>
-      <c r="AI19" s="76"/>
-      <c r="AJ19" s="76"/>
-      <c r="AK19" s="76"/>
-      <c r="AL19" s="76"/>
-      <c r="AM19" s="76"/>
-      <c r="AN19" s="76"/>
-      <c r="AO19" s="76"/>
-      <c r="AP19" s="76"/>
-      <c r="AQ19" s="76"/>
-      <c r="AR19" s="76"/>
-      <c r="AS19" s="76"/>
-      <c r="AT19" s="76"/>
-      <c r="AU19" s="76"/>
-      <c r="AV19" s="76"/>
-      <c r="AW19" s="76"/>
-      <c r="AX19" s="76"/>
-      <c r="AY19" s="76"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="66"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="66"/>
+      <c r="AC19" s="66"/>
+      <c r="AD19" s="66"/>
+      <c r="AE19" s="66"/>
+      <c r="AF19" s="66"/>
+      <c r="AG19" s="66"/>
+      <c r="AH19" s="66"/>
+      <c r="AI19" s="66"/>
+      <c r="AJ19" s="66"/>
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="66"/>
+      <c r="AM19" s="66"/>
+      <c r="AN19" s="66"/>
+      <c r="AO19" s="66"/>
+      <c r="AP19" s="66"/>
+      <c r="AQ19" s="66"/>
+      <c r="AR19" s="66"/>
+      <c r="AS19" s="66"/>
+      <c r="AT19" s="66"/>
+      <c r="AU19" s="66"/>
+      <c r="AV19" s="66"/>
+      <c r="AW19" s="66"/>
+      <c r="AX19" s="66"/>
+      <c r="AY19" s="66"/>
     </row>
     <row r="20" spans="3:51" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="J20" s="77" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="146">
+      <c r="J20" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="98">
         <f>IF($L$20=$AI$7,SUM(K14:K17),"")</f>
-        <v>-0.7238095238095239</v>
-      </c>
-      <c r="L20" s="121" t="s">
-        <v>123</v>
-      </c>
-      <c r="M20" s="123">
+        <v>0.81653823785389945</v>
+      </c>
+      <c r="L20" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="M20" s="82">
         <f>IF($L$20=$AI$7,SUM(M14:M17),"")</f>
         <v>0</v>
       </c>
-      <c r="N20" s="123">
-        <f t="shared" ref="N20:AY20" si="5">IF($L$20=$AI$7,SUM(N14:N17),"")</f>
+      <c r="N20" s="82">
+        <f t="shared" ref="N20:AY20" si="9">IF($L$20=$AI$7,SUM(N14:N17),"")</f>
         <v>0.62776553592680795</v>
       </c>
-      <c r="O20" s="123">
-        <f t="shared" si="5"/>
+      <c r="O20" s="82">
+        <f t="shared" si="9"/>
         <v>0.91948362990671439</v>
       </c>
-      <c r="P20" s="123">
-        <f t="shared" si="5"/>
+      <c r="P20" s="82">
+        <f t="shared" si="9"/>
         <v>0.86190476190476195</v>
       </c>
-      <c r="Q20" s="123">
-        <f t="shared" si="5"/>
+      <c r="Q20" s="82">
+        <f t="shared" si="9"/>
         <v>0.72237189375733157</v>
       </c>
-      <c r="R20" s="123">
-        <f t="shared" si="5"/>
+      <c r="R20" s="82">
+        <f t="shared" si="9"/>
         <v>0.71996570310461572</v>
       </c>
-      <c r="S20" s="123">
-        <f t="shared" si="5"/>
+      <c r="S20" s="82">
+        <f t="shared" si="9"/>
         <v>0.81653823785389912</v>
       </c>
-      <c r="T20" s="123">
-        <f t="shared" si="5"/>
+      <c r="T20" s="82">
+        <f t="shared" si="9"/>
         <v>0.847731239031424</v>
       </c>
-      <c r="U20" s="123">
-        <f t="shared" si="5"/>
+      <c r="U20" s="82">
+        <f t="shared" si="9"/>
         <v>0.7758301198796077</v>
       </c>
-      <c r="V20" s="123">
-        <f t="shared" si="5"/>
+      <c r="V20" s="82">
+        <f t="shared" si="9"/>
         <v>0.7238095238095239</v>
       </c>
-      <c r="W20" s="123">
-        <f t="shared" si="5"/>
+      <c r="W20" s="82">
+        <f t="shared" si="9"/>
         <v>0.77583011987960748</v>
       </c>
-      <c r="X20" s="123">
-        <f t="shared" si="5"/>
+      <c r="X20" s="82">
+        <f t="shared" si="9"/>
         <v>0.84773123903142433</v>
       </c>
-      <c r="Y20" s="123">
-        <f t="shared" si="5"/>
+      <c r="Y20" s="82">
+        <f t="shared" si="9"/>
         <v>0.81653823785389945</v>
       </c>
-      <c r="Z20" s="123">
-        <f t="shared" si="5"/>
+      <c r="Z20" s="82">
+        <f t="shared" si="9"/>
         <v>0.71996570310461594</v>
       </c>
-      <c r="AA20" s="123">
-        <f t="shared" si="5"/>
+      <c r="AA20" s="82">
+        <f t="shared" si="9"/>
         <v>0.72237189375733168</v>
       </c>
-      <c r="AB20" s="123">
-        <f t="shared" si="5"/>
+      <c r="AB20" s="82">
+        <f t="shared" si="9"/>
         <v>0.86190476190476195</v>
       </c>
-      <c r="AC20" s="123">
-        <f t="shared" si="5"/>
+      <c r="AC20" s="82">
+        <f t="shared" si="9"/>
         <v>0.91948362990671473</v>
       </c>
-      <c r="AD20" s="123">
-        <f t="shared" si="5"/>
+      <c r="AD20" s="82">
+        <f t="shared" si="9"/>
         <v>0.62776553592680784</v>
       </c>
-      <c r="AE20" s="123">
-        <f t="shared" si="5"/>
+      <c r="AE20" s="82">
+        <f t="shared" si="9"/>
         <v>4.90059381963448E-16</v>
       </c>
-      <c r="AF20" s="123">
-        <f t="shared" si="5"/>
+      <c r="AF20" s="82">
+        <f t="shared" si="9"/>
         <v>-0.62776553592680884</v>
       </c>
-      <c r="AG20" s="123">
-        <f t="shared" si="5"/>
+      <c r="AG20" s="82">
+        <f t="shared" si="9"/>
         <v>-0.91948362990671439</v>
       </c>
-      <c r="AH20" s="123">
-        <f t="shared" si="5"/>
+      <c r="AH20" s="82">
+        <f t="shared" si="9"/>
         <v>-0.86190476190476195</v>
       </c>
-      <c r="AI20" s="123">
-        <f t="shared" si="5"/>
+      <c r="AI20" s="82">
+        <f t="shared" si="9"/>
         <v>-0.72237189375733168</v>
       </c>
-      <c r="AJ20" s="123">
-        <f t="shared" si="5"/>
+      <c r="AJ20" s="82">
+        <f t="shared" si="9"/>
         <v>-0.71996570310461572</v>
       </c>
-      <c r="AK20" s="123">
-        <f t="shared" si="5"/>
+      <c r="AK20" s="82">
+        <f t="shared" si="9"/>
         <v>-0.81653823785389867</v>
       </c>
-      <c r="AL20" s="123">
-        <f t="shared" si="5"/>
+      <c r="AL20" s="82">
+        <f t="shared" si="9"/>
         <v>-0.84773123903142356</v>
       </c>
-      <c r="AM20" s="123">
-        <f t="shared" si="5"/>
+      <c r="AM20" s="82">
+        <f t="shared" si="9"/>
         <v>-0.77583011987960804</v>
       </c>
-      <c r="AN20" s="123">
-        <f t="shared" si="5"/>
+      <c r="AN20" s="82">
+        <f t="shared" si="9"/>
         <v>-0.7238095238095239</v>
       </c>
-      <c r="AO20" s="123">
-        <f t="shared" si="5"/>
+      <c r="AO20" s="82">
+        <f t="shared" si="9"/>
         <v>-0.77583011987960671</v>
       </c>
-      <c r="AP20" s="123">
-        <f t="shared" si="5"/>
+      <c r="AP20" s="82">
+        <f t="shared" si="9"/>
         <v>-0.84773123903142422</v>
       </c>
-      <c r="AQ20" s="123">
-        <f t="shared" si="5"/>
+      <c r="AQ20" s="82">
+        <f t="shared" si="9"/>
         <v>-0.8165382378538989</v>
       </c>
-      <c r="AR20" s="123">
-        <f t="shared" si="5"/>
+      <c r="AR20" s="82">
+        <f t="shared" si="9"/>
         <v>-0.71996570310461527</v>
       </c>
-      <c r="AS20" s="123">
-        <f t="shared" si="5"/>
+      <c r="AS20" s="82">
+        <f t="shared" si="9"/>
         <v>-0.72237189375733146</v>
       </c>
-      <c r="AT20" s="123">
-        <f t="shared" si="5"/>
+      <c r="AT20" s="82">
+        <f t="shared" si="9"/>
         <v>-0.86190476190476184</v>
       </c>
-      <c r="AU20" s="123">
-        <f t="shared" si="5"/>
+      <c r="AU20" s="82">
+        <f t="shared" si="9"/>
         <v>-0.91948362990671439</v>
       </c>
-      <c r="AV20" s="123">
-        <f t="shared" si="5"/>
+      <c r="AV20" s="82">
+        <f t="shared" si="9"/>
         <v>-0.62776553592681084</v>
       </c>
-      <c r="AW20" s="123">
-        <f t="shared" si="5"/>
+      <c r="AW20" s="82">
+        <f t="shared" si="9"/>
         <v>-9.8011876392689601E-16</v>
       </c>
-      <c r="AX20" s="123">
-        <f t="shared" si="5"/>
+      <c r="AX20" s="82">
+        <f t="shared" si="9"/>
         <v>0.62776553592680706</v>
       </c>
-      <c r="AY20" s="123">
-        <f t="shared" si="5"/>
+      <c r="AY20" s="82">
+        <f t="shared" si="9"/>
         <v>0.91948362990671462</v>
       </c>
     </row>
     <row r="21" spans="3:51" x14ac:dyDescent="0.35">
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -23494,7 +23811,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="34" orientation="landscape" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -25031,10 +25348,10 @@
       <c r="H11" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="82" t="s">
+      <c r="I11" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="83"/>
+      <c r="J11" s="104"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H12" s="19"/>
@@ -26521,10 +26838,10 @@
     </row>
     <row r="4" spans="2:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="48"/>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="49">
         <v>2</v>
       </c>
@@ -26572,10 +26889,10 @@
     </row>
     <row r="5" spans="2:27" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="48"/>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="91"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="51">
         <v>10</v>
       </c>
@@ -26586,10 +26903,10 @@
     <row r="6" spans="2:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="87"/>
+      <c r="D8" s="108"/>
       <c r="E8" s="6">
         <v>1</v>
       </c>
@@ -26617,10 +26934,10 @@
       <c r="AA8" s="7"/>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="84"/>
+      <c r="D9" s="105"/>
       <c r="E9" s="6">
         <v>0</v>
       </c>
@@ -26714,10 +27031,10 @@
       </c>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="85"/>
+      <c r="D10" s="106"/>
       <c r="E10" s="7">
         <f t="shared" ref="E10:Y10" si="3">$E$4*E9+$E$5</f>
         <v>10</v>
@@ -26812,10 +27129,10 @@
       </c>
     </row>
     <row r="11" spans="2:27" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="C11" s="85" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="85"/>
+      <c r="C11" s="106" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="106"/>
       <c r="E11" s="7">
         <f t="shared" ref="E11:Y11" si="5">$E$4/2 * E9^2 + $E$5*E9</f>
         <v>0</v>
@@ -26926,19 +27243,27 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA467A4D-486D-4722-8BC0-28E89D3D0FE7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:O17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" customWidth="1"/>
-    <col min="7" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="23.08984375" customWidth="1"/>
-    <col min="10" max="12" width="20" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -26948,332 +27273,422 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="J4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="2:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="110" t="s">
+      <c r="D6" s="129"/>
+      <c r="E6" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="107"/>
-      <c r="G6" s="110" t="s">
+      <c r="F6" s="129"/>
+      <c r="G6" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="107"/>
-      <c r="I6" s="110" t="s">
+      <c r="H6" s="129"/>
+      <c r="I6" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="J6" s="107"/>
-      <c r="K6" s="110" t="s">
+      <c r="J6" s="129"/>
+      <c r="K6" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="L6" s="111"/>
+      <c r="L6" s="131"/>
     </row>
     <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="108" t="str">
+      <c r="B7" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="113" t="str">
         <f>O7</f>
         <v>v0 [m/s]</v>
       </c>
-      <c r="D7" s="109"/>
-      <c r="E7" s="112" t="str">
+      <c r="D7" s="114"/>
+      <c r="E7" s="115" t="str">
         <f>O8</f>
         <v>v [m/s]</v>
       </c>
-      <c r="F7" s="109"/>
-      <c r="G7" s="112" t="str">
+      <c r="F7" s="114"/>
+      <c r="G7" s="115" t="str">
         <f>O9</f>
         <v>s [m]</v>
       </c>
-      <c r="H7" s="109"/>
-      <c r="I7" s="112" t="str">
+      <c r="H7" s="114"/>
+      <c r="I7" s="115" t="str">
         <f>O10</f>
         <v>t [s]</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="112" t="str">
+      <c r="J7" s="114"/>
+      <c r="K7" s="115" t="str">
         <f>O11</f>
         <v>a [m/s2]</v>
       </c>
-      <c r="L7" s="113"/>
+      <c r="L7" s="116"/>
       <c r="O7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="70" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="B8" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="65">
+    <row r="8" spans="2:15" s="61" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="56">
         <f>(G8-(K8/2)*I8^2)/I8</f>
         <v>10</v>
       </c>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="97">
+      <c r="E8" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="56">
+        <f xml:space="preserve"> G8/I8 + K8*I8/2</f>
+        <v>24</v>
+      </c>
+      <c r="G8" s="117">
         <v>119</v>
       </c>
-      <c r="H8" s="98"/>
-      <c r="I8" s="97">
+      <c r="H8" s="121"/>
+      <c r="I8" s="117">
         <v>7</v>
       </c>
-      <c r="J8" s="98"/>
-      <c r="K8" s="97">
+      <c r="J8" s="121"/>
+      <c r="K8" s="117">
         <v>2</v>
       </c>
-      <c r="L8" s="104"/>
-      <c r="O8" s="70" t="s">
+      <c r="L8" s="118"/>
+      <c r="O8" s="61" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="54">
+    <row r="9" spans="2:15" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="132" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="58">
         <f>E9-K9*I9</f>
         <v>10</v>
       </c>
-      <c r="E9" s="94">
+      <c r="E9" s="119">
         <v>24</v>
       </c>
-      <c r="F9" s="95"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="94">
+      <c r="F9" s="122"/>
+      <c r="G9" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="58">
+        <f>E9*I9 - K9*I9^2/2</f>
+        <v>119</v>
+      </c>
+      <c r="I9" s="119">
         <v>7</v>
       </c>
-      <c r="J9" s="95"/>
-      <c r="K9" s="94">
+      <c r="J9" s="122"/>
+      <c r="K9" s="119">
         <v>2</v>
       </c>
-      <c r="L9" s="102"/>
+      <c r="L9" s="120"/>
       <c r="O9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="95"/>
-      <c r="G10" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="95"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" s="102"/>
+    <row r="10" spans="2:15" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="133" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="58">
+        <f>SQRT(E10^2 - 2*K10*G10)</f>
+        <v>10</v>
+      </c>
+      <c r="E10" s="119">
+        <v>24</v>
+      </c>
+      <c r="F10" s="122"/>
+      <c r="G10" s="119">
+        <v>119</v>
+      </c>
+      <c r="H10" s="122"/>
+      <c r="I10" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" s="58">
+        <f>(E10 - SQRT(E10^2 - 2*K10*G10))/K10</f>
+        <v>7</v>
+      </c>
+      <c r="K10" s="119">
+        <v>2</v>
+      </c>
+      <c r="L10" s="120"/>
       <c r="O10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="59" t="s">
+    <row r="11" spans="2:15" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="133" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="58">
+        <f>2*G11/I11 - E11</f>
+        <v>10</v>
+      </c>
+      <c r="E11" s="119">
+        <v>24</v>
+      </c>
+      <c r="F11" s="122"/>
+      <c r="G11" s="119">
+        <v>119</v>
+      </c>
+      <c r="H11" s="122"/>
+      <c r="I11" s="119">
+        <v>7</v>
+      </c>
+      <c r="J11" s="122"/>
+      <c r="K11" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="L11" s="72">
+        <f xml:space="preserve"> 2/I11 * (E11 - G11/I11)</f>
+        <v>2</v>
+      </c>
+      <c r="O11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" s="61" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="95"/>
-      <c r="G11" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="95"/>
-      <c r="I11" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" s="95"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="56"/>
-      <c r="O11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" s="70" customFormat="1" ht="37" x14ac:dyDescent="0.35">
-      <c r="B12" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="99">
+      <c r="C12" s="123">
         <v>10</v>
       </c>
-      <c r="D12" s="100"/>
-      <c r="E12" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="67">
+      <c r="D12" s="122"/>
+      <c r="E12" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="58">
         <f>K12*I12+C12</f>
         <v>24</v>
       </c>
-      <c r="G12" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="H12" s="67">
+      <c r="G12" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="58">
         <f>K12/2 * I12^2 + C12*I12</f>
         <v>119</v>
       </c>
-      <c r="I12" s="103">
+      <c r="I12" s="119">
         <v>7</v>
       </c>
-      <c r="J12" s="100"/>
-      <c r="K12" s="103">
+      <c r="J12" s="122"/>
+      <c r="K12" s="119">
         <v>2</v>
       </c>
-      <c r="L12" s="105"/>
+      <c r="L12" s="120"/>
     </row>
-    <row r="13" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="101">
+    <row r="13" spans="2:15" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="123">
         <v>10</v>
       </c>
-      <c r="D13" s="95"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="94">
+      <c r="D13" s="122"/>
+      <c r="E13" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="58">
+        <f>SQRT(C13^2 + 2*K13*G13)</f>
+        <v>24</v>
+      </c>
+      <c r="G13" s="119">
         <v>119</v>
       </c>
-      <c r="H13" s="95"/>
-      <c r="I13" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="J13" s="54">
+      <c r="H13" s="122"/>
+      <c r="I13" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" s="58">
         <f xml:space="preserve"> (-C13 + SQRT(C13^2 + 2*K13*G13))/K13</f>
         <v>7</v>
       </c>
-      <c r="K13" s="94">
+      <c r="K13" s="119">
         <v>2</v>
       </c>
-      <c r="L13" s="102"/>
+      <c r="L13" s="120"/>
     </row>
-    <row r="14" spans="2:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="101">
+    <row r="14" spans="2:15" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="123">
         <v>10</v>
       </c>
-      <c r="D14" s="95"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="94">
+      <c r="D14" s="122"/>
+      <c r="E14" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="58">
+        <f>2*G14/I14 - C14</f>
+        <v>24</v>
+      </c>
+      <c r="G14" s="119">
         <v>119</v>
       </c>
-      <c r="H14" s="95"/>
-      <c r="I14" s="94">
+      <c r="H14" s="122"/>
+      <c r="I14" s="119">
         <v>7</v>
       </c>
-      <c r="J14" s="95"/>
-      <c r="K14" s="64" t="s">
-        <v>112</v>
-      </c>
-      <c r="L14" s="61">
+      <c r="J14" s="122"/>
+      <c r="K14" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="L14" s="72">
         <f>2*((G14-C14*I14)/I14^2)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="101">
+    <row r="15" spans="2:15" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="123">
         <v>10</v>
       </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="94">
+      <c r="D15" s="122"/>
+      <c r="E15" s="119">
         <v>24</v>
       </c>
-      <c r="F15" s="95"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="J15" s="54">
+      <c r="F15" s="122"/>
+      <c r="G15" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" s="58">
+        <f>(E15^2 - C15^2)/(2*K15)</f>
+        <v>119</v>
+      </c>
+      <c r="I15" s="134" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" s="58">
         <f>(E15-C15)/K15</f>
         <v>7</v>
       </c>
-      <c r="K15" s="94">
+      <c r="K15" s="119">
         <v>2</v>
       </c>
-      <c r="L15" s="102"/>
+      <c r="L15" s="120"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="101">
+    <row r="16" spans="2:15" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="123">
         <v>10</v>
       </c>
-      <c r="D16" s="95"/>
-      <c r="E16" s="94">
+      <c r="D16" s="122"/>
+      <c r="E16" s="119">
         <v>24</v>
       </c>
-      <c r="F16" s="95"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="94">
+      <c r="F16" s="122"/>
+      <c r="G16" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="58">
+        <f>(C16+E16)*I16/2</f>
+        <v>119</v>
+      </c>
+      <c r="I16" s="119">
         <v>7</v>
       </c>
-      <c r="J16" s="95"/>
-      <c r="K16" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="L16" s="61">
+      <c r="J16" s="122"/>
+      <c r="K16" s="134" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="72">
         <f>(E16-C16)/I16</f>
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="93"/>
-      <c r="E17" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="93"/>
-      <c r="G17" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="93"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="52"/>
+    <row r="17" spans="2:12" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="135" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="136">
+        <v>10</v>
+      </c>
+      <c r="D17" s="137"/>
+      <c r="E17" s="138">
+        <v>24</v>
+      </c>
+      <c r="F17" s="137"/>
+      <c r="G17" s="138">
+        <v>119</v>
+      </c>
+      <c r="H17" s="137"/>
+      <c r="I17" s="139" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" s="139">
+        <f>2*G17/(C17+E17)</f>
+        <v>7</v>
+      </c>
+      <c r="K17" s="139" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" s="140">
+        <f>(E17^2 - C17^2)/(2*G17)</f>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="K6:L6"/>
@@ -27284,36 +27699,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="I16:J16"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24" xr:uid="{F0227B52-6C3F-4B29-A45C-B261C0C0E4F1}">
@@ -27321,7 +27706,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="52" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>